--- a/BatteryHazardCalculator_v2.xlsx
+++ b/BatteryHazardCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmrose\Documents\DCArcFlash\ArcModelValidation\ArcFlashCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D8F13-6F5D-47DE-BB5A-7F37BB023B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AB581-8546-4E9E-9D34-374A747C16C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4F21237-859F-409A-8BDE-62C477E4C1D5}"/>
+    <workbookView xWindow="-16320" yWindow="-4320" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{D4F21237-859F-409A-8BDE-62C477E4C1D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Max Power" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -573,7 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -772,82 +772,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.51199999999999</c:v>
+                  <c:v>27.377999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.12903999999997</c:v>
+                  <c:v>32.032259999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.91097679999996</c:v>
+                  <c:v>37.477744199999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.39584285599994</c:v>
+                  <c:v>43.848960713999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.21313614151993</c:v>
+                  <c:v>51.303284035379981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.09936928557829</c:v>
+                  <c:v>60.024842321394573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280.91626206412656</c:v>
+                  <c:v>70.229065516031639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328.67202661502807</c:v>
+                  <c:v>82.168006653757018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384.54627113958281</c:v>
+                  <c:v>96.136567784895703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.91913723331186</c:v>
+                  <c:v>112.47978430832796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.40539056297484</c:v>
+                  <c:v>131.60134764074371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>615.89430695868054</c:v>
+                  <c:v>153.97357673967014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>720.59633914165624</c:v>
+                  <c:v>180.14908478541406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.09771679573771</c:v>
+                  <c:v>210.77442919893443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>986.42432865101307</c:v>
+                  <c:v>246.60608216275327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1154.1164645216852</c:v>
+                  <c:v>288.5291161304213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1350.3162634903715</c:v>
+                  <c:v>337.57906587259288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1579.8700282837347</c:v>
+                  <c:v>394.96750707093366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.4479330919694</c:v>
+                  <c:v>462.11198327299235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162.6840817176039</c:v>
+                  <c:v>540.67102042940098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2530.3403756095963</c:v>
+                  <c:v>632.58509390239908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2960.4982394632275</c:v>
+                  <c:v>740.12455986580687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3463.782940171976</c:v>
+                  <c:v>865.94573504299399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4052.6260400012115</c:v>
+                  <c:v>1013.1565100003029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,79 +862,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23919971501086523</c:v>
+                  <c:v>0.44244364911585893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38860639522661461</c:v>
+                  <c:v>0.91684364709824651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45168667190810635</c:v>
+                  <c:v>1.4166990619973747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44145903962791883</c:v>
+                  <c:v>1.9319998461305259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37890907358218978</c:v>
+                  <c:v>2.4486290620597355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28912673221826096</c:v>
+                  <c:v>2.9479742644669491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19598117181635075</c:v>
+                  <c:v>3.4069464047747804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11705012371292639</c:v>
+                  <c:v>3.7986560934954023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0770978500785902E-2</c:v>
+                  <c:v>4.0940174817324175</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6933712269719863E-2</c:v>
+                  <c:v>4.2645013414842827</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9604940818469358E-3</c:v>
+                  <c:v>4.2860936312512665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9897505937943655E-3</c:v>
+                  <c:v>4.1441927928983278</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0467760296331916E-4</c:v>
+                  <c:v>3.8386966497370145</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2540433715100581E-4</c:v>
+                  <c:v>3.387975290287919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6088067906532024E-5</c:v>
+                  <c:v>2.8300216615702785</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4090427823241429E-6</c:v>
+                  <c:v>2.2191677531888061</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9034480042831027E-8</c:v>
+                  <c:v>1.6177047196695498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6340804066322413E-9</c:v>
+                  <c:v>1.0836205125021952</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7776526221235342E-11</c:v>
+                  <c:v>0.65790992479547783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2549301505171795E-13</c:v>
+                  <c:v>0.35624404038847479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6494776522837572E-15</c:v>
+                  <c:v>0.16879845788243658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4173204453449988E-18</c:v>
+                  <c:v>6.8444963652294452E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1354698449643751E-21</c:v>
+                  <c:v>2.3136922923765596E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4092326613910317E-25</c:v>
+                  <c:v>6.323336311406566E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6862804883325885E-30</c:v>
+                  <c:v>1.3479297336476798E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,82 +991,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.51199999999999</c:v>
+                  <c:v>27.377999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.12903999999997</c:v>
+                  <c:v>32.032259999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.91097679999996</c:v>
+                  <c:v>37.477744199999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.39584285599994</c:v>
+                  <c:v>43.848960713999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.21313614151993</c:v>
+                  <c:v>51.303284035379981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.09936928557829</c:v>
+                  <c:v>60.024842321394573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280.91626206412656</c:v>
+                  <c:v>70.229065516031639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328.67202661502807</c:v>
+                  <c:v>82.168006653757018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384.54627113958281</c:v>
+                  <c:v>96.136567784895703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.91913723331186</c:v>
+                  <c:v>112.47978430832796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.40539056297484</c:v>
+                  <c:v>131.60134764074371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>615.89430695868054</c:v>
+                  <c:v>153.97357673967014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>720.59633914165624</c:v>
+                  <c:v>180.14908478541406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.09771679573771</c:v>
+                  <c:v>210.77442919893443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>986.42432865101307</c:v>
+                  <c:v>246.60608216275327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1154.1164645216852</c:v>
+                  <c:v>288.5291161304213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1350.3162634903715</c:v>
+                  <c:v>337.57906587259288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1579.8700282837347</c:v>
+                  <c:v>394.96750707093366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.4479330919694</c:v>
+                  <c:v>462.11198327299235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162.6840817176039</c:v>
+                  <c:v>540.67102042940098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2530.3403756095963</c:v>
+                  <c:v>632.58509390239908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2960.4982394632275</c:v>
+                  <c:v>740.12455986580687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3463.782940171976</c:v>
+                  <c:v>865.94573504299399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4052.6260400012115</c:v>
+                  <c:v>1013.1565100003029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,79 +1081,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9301750004987438</c:v>
+                  <c:v>0.16512613153631683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0184797510822738</c:v>
+                  <c:v>0.35832370543380748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2917963092650044</c:v>
+                  <c:v>0.58436486689387157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7815766823387982</c:v>
+                  <c:v>0.84883302580214648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5246197188351376</c:v>
+                  <c:v>1.1582607717248281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5639800715358554</c:v>
+                  <c:v>1.5202912344543658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.950031684195693</c:v>
+                  <c:v>1.9438668758479245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.741712071007703</c:v>
+                  <c:v>2.4394503762783879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.007978123577757</c:v>
+                  <c:v>3.0192830717820307</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.829509405084718</c:v>
+                  <c:v>3.6976873255212928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.300701004447859</c:v>
+                  <c:v>4.4914203023962287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.53199517570274</c:v>
+                  <c:v>5.4200878853399042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.652609356070947</c:v>
+                  <c:v>6.506628957384005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.813727947101754</c:v>
+                  <c:v>7.7778820116756027</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.192236698607786</c:v>
+                  <c:v>9.2652480851967702</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.995091937869852</c:v>
+                  <c:v>11.005466391216538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73.464432567806469</c:v>
+                  <c:v>13.041521809259665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.883561104832296</c:v>
+                  <c:v>15.423706648370123</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102.58394149315254</c:v>
+                  <c:v>18.210862910129361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.9533865474872</c:v>
+                  <c:v>21.471835736387668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>142.44563726105875</c:v>
+                  <c:v>25.287173943109885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>167.59157059593747</c:v>
+                  <c:v>29.751119644974878</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>197.01231259774556</c:v>
+                  <c:v>34.973936116156921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>231.43458073986102</c:v>
+                  <c:v>41.084631387439913</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>271.70863446613612</c:v>
+                  <c:v>48.234144854841013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,82 +1210,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.51199999999999</c:v>
+                  <c:v>27.377999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.12903999999997</c:v>
+                  <c:v>32.032259999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.91097679999996</c:v>
+                  <c:v>37.477744199999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.39584285599994</c:v>
+                  <c:v>43.848960713999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.21313614151993</c:v>
+                  <c:v>51.303284035379981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.09936928557829</c:v>
+                  <c:v>60.024842321394573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280.91626206412656</c:v>
+                  <c:v>70.229065516031639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328.67202661502807</c:v>
+                  <c:v>82.168006653757018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384.54627113958281</c:v>
+                  <c:v>96.136567784895703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.91913723331186</c:v>
+                  <c:v>112.47978430832796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.40539056297484</c:v>
+                  <c:v>131.60134764074371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>615.89430695868054</c:v>
+                  <c:v>153.97357673967014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>720.59633914165624</c:v>
+                  <c:v>180.14908478541406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.09771679573771</c:v>
+                  <c:v>210.77442919893443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>986.42432865101307</c:v>
+                  <c:v>246.60608216275327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1154.1164645216852</c:v>
+                  <c:v>288.5291161304213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1350.3162634903715</c:v>
+                  <c:v>337.57906587259288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1579.8700282837347</c:v>
+                  <c:v>394.96750707093366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.4479330919694</c:v>
+                  <c:v>462.11198327299235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162.6840817176039</c:v>
+                  <c:v>540.67102042940098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2530.3403756095963</c:v>
+                  <c:v>632.58509390239908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2960.4982394632275</c:v>
+                  <c:v>740.12455986580687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3463.782940171976</c:v>
+                  <c:v>865.94573504299399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4052.6260400012115</c:v>
+                  <c:v>1013.1565100003029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,79 +1300,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.69097528548787857</c:v>
+                  <c:v>0.27731751757954209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6298733558556593</c:v>
+                  <c:v>0.55851994166443908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.8401096373568979</c:v>
+                  <c:v>0.83233419510350315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.3401176427108794</c:v>
+                  <c:v>1.0831668203283793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.1457106452529482</c:v>
+                  <c:v>1.2903682903349074</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2748533393175947</c:v>
+                  <c:v>1.4276830300125833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.754050512379342</c:v>
+                  <c:v>1.4630795289268559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13.624661947294776</c:v>
+                  <c:v>1.3592057172170144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-16.947207145076973</c:v>
+                  <c:v>1.0747344099503868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.802575692814997</c:v>
+                  <c:v>0.56681401596298997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.290740510366014</c:v>
+                  <c:v>-0.20532667114496217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-30.529005425108945</c:v>
+                  <c:v>-1.2758950924415764</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-36.651904678467986</c:v>
+                  <c:v>-2.6679323076469905</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-43.813602542764606</c:v>
+                  <c:v>-4.3899067213876837</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-52.192220610539877</c:v>
+                  <c:v>-6.4352264236264922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-61.99509052882707</c:v>
+                  <c:v>-8.7862986380277324</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-73.46443248877199</c:v>
+                  <c:v>-11.423817089590115</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-86.883561102198215</c:v>
+                  <c:v>-14.340086135867928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-102.58394149310476</c:v>
+                  <c:v>-17.552952985333881</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-120.95338654748677</c:v>
+                  <c:v>-21.115591695999193</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-142.44563726105875</c:v>
+                  <c:v>-25.11837548522745</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-167.59157059593747</c:v>
+                  <c:v>-29.682674681322585</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-197.01231259774556</c:v>
+                  <c:v>-34.950799193233152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-231.43458073986102</c:v>
+                  <c:v>-41.078308051128509</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-271.70863446613612</c:v>
+                  <c:v>-48.232796925107365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,82 +1787,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.51199999999999</c:v>
+                  <c:v>27.377999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.12903999999997</c:v>
+                  <c:v>32.032259999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.91097679999996</c:v>
+                  <c:v>37.477744199999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.39584285599994</c:v>
+                  <c:v>43.848960713999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.21313614151993</c:v>
+                  <c:v>51.303284035379981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.09936928557829</c:v>
+                  <c:v>60.024842321394573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280.91626206412656</c:v>
+                  <c:v>70.229065516031639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328.67202661502807</c:v>
+                  <c:v>82.168006653757018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384.54627113958281</c:v>
+                  <c:v>96.136567784895703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.91913723331186</c:v>
+                  <c:v>112.47978430832796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.40539056297484</c:v>
+                  <c:v>131.60134764074371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>615.89430695868054</c:v>
+                  <c:v>153.97357673967014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>720.59633914165624</c:v>
+                  <c:v>180.14908478541406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.09771679573771</c:v>
+                  <c:v>210.77442919893443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>986.42432865101307</c:v>
+                  <c:v>246.60608216275327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1154.1164645216852</c:v>
+                  <c:v>288.5291161304213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1350.3162634903715</c:v>
+                  <c:v>337.57906587259288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1579.8700282837347</c:v>
+                  <c:v>394.96750707093366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.4479330919694</c:v>
+                  <c:v>462.11198327299235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162.6840817176039</c:v>
+                  <c:v>540.67102042940098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2530.3403756095963</c:v>
+                  <c:v>632.58509390239908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2960.4982394632275</c:v>
+                  <c:v>740.12455986580687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3463.782940171976</c:v>
+                  <c:v>865.94573504299399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4052.6260400012115</c:v>
+                  <c:v>1013.1565100003029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,79 +1877,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20686938992582846</c:v>
+                  <c:v>0.18172125424076802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3945250823175655</c:v>
+                  <c:v>0.3848477120090949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55318194684629607</c:v>
+                  <c:v>0.60999026174946169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67334309608270426</c:v>
+                  <c:v>0.85700396782791188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7471363634900885</c:v>
+                  <c:v>1.1246758537117505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76989269061128252</c:v>
+                  <c:v>1.410355355511721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74167643759601143</c:v>
+                  <c:v>1.7095418713205832</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66831634608219048</c:v>
+                  <c:v>2.015462036674986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56141010156413229</c:v>
+                  <c:v>2.3186952759466815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4368974810105804</c:v>
+                  <c:v>2.6069395852762454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31219678283942376</c:v>
+                  <c:v>2.8650471660651888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20252453164927603</c:v>
+                  <c:v>3.0754930026346599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11760517999646554</c:v>
+                  <c:v>3.2194527088915086</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.010529161747543E-2</c:v>
+                  <c:v>3.2786340413968036</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6494523922076709E-2</c:v>
+                  <c:v>3.2378981189508913</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.8346144790020327E-3</c:v>
+                  <c:v>3.0884941547222979</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9884875448285223E-3</c:v>
+                  <c:v>2.8314134024739581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.1913736429525608E-4</c:v>
+                  <c:v>2.48000001358196</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.317948766825444E-4</c:v>
+                  <c:v>2.0606835889227648</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7572870904964109E-5</c:v>
+                  <c:v>1.6107526722388303</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6156910517384388E-6</c:v>
+                  <c:v>1.1727090858419682</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6198473648456192E-8</c:v>
+                  <c:v>0.78598773784914444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4461278499147496E-9</c:v>
+                  <c:v>0.47833840315632248</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.8148298245855803E-11</c:v>
+                  <c:v>0.26010081935377771</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.7262195404104329E-13</c:v>
+                  <c:v>0.12399913834241202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,82 +2006,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.51199999999999</c:v>
+                  <c:v>27.377999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.12903999999997</c:v>
+                  <c:v>32.032259999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.91097679999996</c:v>
+                  <c:v>37.477744199999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.39584285599994</c:v>
+                  <c:v>43.848960713999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.21313614151993</c:v>
+                  <c:v>51.303284035379981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.09936928557829</c:v>
+                  <c:v>60.024842321394573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280.91626206412656</c:v>
+                  <c:v>70.229065516031639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328.67202661502807</c:v>
+                  <c:v>82.168006653757018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384.54627113958281</c:v>
+                  <c:v>96.136567784895703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.91913723331186</c:v>
+                  <c:v>112.47978430832796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.40539056297484</c:v>
+                  <c:v>131.60134764074371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>615.89430695868054</c:v>
+                  <c:v>153.97357673967014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>720.59633914165624</c:v>
+                  <c:v>180.14908478541406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.09771679573771</c:v>
+                  <c:v>210.77442919893443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>986.42432865101307</c:v>
+                  <c:v>246.60608216275327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1154.1164645216852</c:v>
+                  <c:v>288.5291161304213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1350.3162634903715</c:v>
+                  <c:v>337.57906587259288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1579.8700282837347</c:v>
+                  <c:v>394.96750707093366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.4479330919694</c:v>
+                  <c:v>462.11198327299235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162.6840817176039</c:v>
+                  <c:v>540.67102042940098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2530.3403756095963</c:v>
+                  <c:v>632.58509390239908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2960.4982394632275</c:v>
+                  <c:v>740.12455986580687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3463.782940171976</c:v>
+                  <c:v>865.94573504299399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4052.6260400012115</c:v>
+                  <c:v>1013.1565100003029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,79 +2096,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9301750004987438</c:v>
+                  <c:v>0.16512613153631683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0184797510822738</c:v>
+                  <c:v>0.35832370543380748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2917963092650044</c:v>
+                  <c:v>0.58436486689387157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7815766823387982</c:v>
+                  <c:v>0.84883302580214648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5246197188351376</c:v>
+                  <c:v>1.1582607717248281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5639800715358554</c:v>
+                  <c:v>1.5202912344543658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.950031684195693</c:v>
+                  <c:v>1.9438668758479245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.741712071007703</c:v>
+                  <c:v>2.4394503762783879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.007978123577757</c:v>
+                  <c:v>3.0192830717820307</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.829509405084718</c:v>
+                  <c:v>3.6976873255212928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.300701004447859</c:v>
+                  <c:v>4.4914203023962287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.53199517570274</c:v>
+                  <c:v>5.4200878853399042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.652609356070947</c:v>
+                  <c:v>6.506628957384005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.813727947101754</c:v>
+                  <c:v>7.7778820116756027</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.192236698607786</c:v>
+                  <c:v>9.2652480851967702</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.995091937869852</c:v>
+                  <c:v>11.005466391216538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73.464432567806469</c:v>
+                  <c:v>13.041521809259665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.883561104832296</c:v>
+                  <c:v>15.423706648370123</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102.58394149315254</c:v>
+                  <c:v>18.210862910129361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.9533865474872</c:v>
+                  <c:v>21.471835736387668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>142.44563726105875</c:v>
+                  <c:v>25.287173943109885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>167.59157059593747</c:v>
+                  <c:v>29.751119644974878</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>197.01231259774556</c:v>
+                  <c:v>34.973936116156921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>231.43458073986102</c:v>
+                  <c:v>41.084631387439913</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>271.70863446613612</c:v>
+                  <c:v>48.234144854841013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,82 +2225,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.6</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.51199999999999</c:v>
+                  <c:v>27.377999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.12903999999997</c:v>
+                  <c:v>32.032259999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.91097679999996</c:v>
+                  <c:v>37.477744199999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175.39584285599994</c:v>
+                  <c:v>43.848960713999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.21313614151993</c:v>
+                  <c:v>51.303284035379981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.09936928557829</c:v>
+                  <c:v>60.024842321394573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280.91626206412656</c:v>
+                  <c:v>70.229065516031639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>328.67202661502807</c:v>
+                  <c:v>82.168006653757018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384.54627113958281</c:v>
+                  <c:v>96.136567784895703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.91913723331186</c:v>
+                  <c:v>112.47978430832796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.40539056297484</c:v>
+                  <c:v>131.60134764074371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>615.89430695868054</c:v>
+                  <c:v>153.97357673967014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>720.59633914165624</c:v>
+                  <c:v>180.14908478541406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.09771679573771</c:v>
+                  <c:v>210.77442919893443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>986.42432865101307</c:v>
+                  <c:v>246.60608216275327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1154.1164645216852</c:v>
+                  <c:v>288.5291161304213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1350.3162634903715</c:v>
+                  <c:v>337.57906587259288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1579.8700282837347</c:v>
+                  <c:v>394.96750707093366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.4479330919694</c:v>
+                  <c:v>462.11198327299235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162.6840817176039</c:v>
+                  <c:v>540.67102042940098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2530.3403756095963</c:v>
+                  <c:v>632.58509390239908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2960.4982394632275</c:v>
+                  <c:v>740.12455986580687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3463.782940171976</c:v>
+                  <c:v>865.94573504299399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4052.6260400012115</c:v>
+                  <c:v>1013.1565100003029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,79 +2315,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.72330561057291531</c:v>
+                  <c:v>1.6595122704451182E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6239546687647084</c:v>
+                  <c:v>2.6524006575287418E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.7386143624187085</c:v>
+                  <c:v>2.5625394855590122E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.1082335862560937</c:v>
+                  <c:v>8.1709420257654042E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.7774833553450495</c:v>
+                  <c:v>-3.3584918013077614E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.794087380924573</c:v>
+                  <c:v>-0.10993587894264478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.208355246599682</c:v>
+                  <c:v>-0.23432500452734129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13.073395724925511</c:v>
+                  <c:v>-0.42398833960340188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-16.446568022013626</c:v>
+                  <c:v>-0.70058779583534925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.392611924074139</c:v>
+                  <c:v>-1.0907477402450474</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24.988504221608434</c:v>
+                  <c:v>-1.6263731363310399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-30.329470644053465</c:v>
+                  <c:v>-2.3445948827052443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-36.53500417607448</c:v>
+                  <c:v>-3.2871762484924965</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-43.753622655484278</c:v>
+                  <c:v>-4.4992479702787991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-52.165742174685711</c:v>
+                  <c:v>-6.0273499662458789</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-61.985257323390847</c:v>
+                  <c:v>-7.9169722364942405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-73.461444080261643</c:v>
+                  <c:v>-10.210108406785707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-86.882841967467996</c:v>
+                  <c:v>-12.943706634788164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-102.58380969827586</c:v>
+                  <c:v>-16.150179321206597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-120.9533689746163</c:v>
+                  <c:v>-19.861083064148836</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-142.4456356453677</c:v>
+                  <c:v>-24.114464857267915</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-167.59157049973899</c:v>
+                  <c:v>-28.965131907125734</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-197.01231259429943</c:v>
+                  <c:v>-34.495597713000599</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-231.43458073979286</c:v>
+                  <c:v>-40.824530568086132</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-271.70863446613544</c:v>
+                  <c:v>-48.1101457164986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,7 +3738,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$D$13" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$D$13" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3750,7 +3750,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10159,8 +10159,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A7:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10200,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -10212,7 +10212,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29">
-        <v>18700</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="B13" s="13">
         <f>B11/B12</f>
-        <v>1.3796791443850267E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B20" s="8">
         <f>B16*0.01*B11*(B12/2)*B14/((B15)^2)</f>
-        <v>23.080694309536767</v>
+        <v>23.919800926021605</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B22" s="16">
         <f>(B11^2)/(2*B13)</f>
-        <v>2412300</v>
+        <v>2500000</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B25" s="17" t="str">
         <f>IF(B11&lt;1000,IF(B11&lt;300,IF(B11&lt;100,"Not Spesified","Avoid Contact"),"0.3 m"),"0.5 m")</f>
-        <v>Avoid Contact</v>
+        <v>0.3 m</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B35" s="15">
         <f>B11/B34</f>
-        <v>1900.9725906277629</v>
+        <v>3684.0554081933392</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -10998,7 +10998,7 @@
   <dimension ref="A2:AC63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11042,27 +11042,27 @@
       </c>
       <c r="X3">
         <f>0.9*B12</f>
-        <v>16830</v>
+        <v>9000</v>
       </c>
       <c r="Y3">
         <f>B11-X3*B$13</f>
-        <v>25.800000000000011</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="26">
         <f>(20+0.534*B$16)*(X3^0.12)</f>
-        <v>201.62117602840087</v>
+        <v>91.48806798634601</v>
       </c>
       <c r="AA3" s="26">
         <f>Y3-Z3</f>
-        <v>-175.82117602840086</v>
+        <v>-41.48806798634601</v>
       </c>
       <c r="AB3">
         <f>-B$13-(20+0.534*B$16)*(X3^-0.88)</f>
-        <v>-2.5776659300558592E-2</v>
+        <v>-6.0165340887371771E-2</v>
       </c>
       <c r="AC3">
         <f>-1/AB3</f>
-        <v>38.794786723131708</v>
+        <v>16.620864857592657</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -11071,27 +11071,27 @@
       </c>
       <c r="X4">
         <f>X3+AC3*AA3</f>
-        <v>10009.054974567993</v>
+        <v>8310.4324287963263</v>
       </c>
       <c r="Y4" s="26">
         <f>B$11-X4*B$13</f>
-        <v>119.90715596585338</v>
+        <v>84.478378560183671</v>
       </c>
       <c r="Z4" s="26">
         <f>(20+0.534*B$16)*(X4^0.12)</f>
-        <v>189.43194509011906</v>
+        <v>90.617106377302875</v>
       </c>
       <c r="AA4" s="26">
         <f t="shared" ref="AA4:AA28" si="0">Y4-Z4</f>
-        <v>-69.524789124265681</v>
+        <v>-6.1387278171192037</v>
       </c>
       <c r="AB4" s="26">
         <f t="shared" ref="AB4:AB28" si="1">-B$13-(20+0.534*B$16)*(X4^-0.88)</f>
-        <v>-3.2722848456370093E-2</v>
+        <v>-6.0904018190835317E-2</v>
       </c>
       <c r="AC4" s="26">
         <f t="shared" ref="AC4:AC28" si="2">-1/AB4</f>
-        <v>30.559686799066906</v>
+        <v>16.419277901609412</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -11100,27 +11100,27 @@
       </c>
       <c r="X5" s="26">
         <f t="shared" ref="X5:X28" si="3">X4+AC4*AA4</f>
-        <v>7884.3991941592603</v>
+        <v>8209.6389508047068</v>
       </c>
       <c r="Y5" s="26">
         <f t="shared" ref="Y5:Y27" si="4">B$11-X5*B$13</f>
-        <v>149.22058865812357</v>
+        <v>89.518052459764647</v>
       </c>
       <c r="Z5" s="26">
         <f t="shared" ref="Z5:Z27" si="5">(20+0.534*B$16)*(X5^0.12)</f>
-        <v>184.08494930925431</v>
+        <v>90.484510690410445</v>
       </c>
       <c r="AA5" s="26">
         <f t="shared" si="0"/>
-        <v>-34.864360651130738</v>
+        <v>-0.96645823064579872</v>
       </c>
       <c r="AB5" s="26">
         <f t="shared" si="1"/>
-        <v>-3.7144791053715799E-2</v>
+        <v>-6.1021740570155192E-2</v>
       </c>
       <c r="AC5" s="26">
         <f t="shared" si="2"/>
-        <v>26.921675196769332</v>
+        <v>16.387602035873176</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -11129,27 +11129,27 @@
       </c>
       <c r="X6" s="26">
         <f t="shared" si="3"/>
-        <v>6945.7922007664929</v>
+        <v>8193.8010179365901</v>
       </c>
       <c r="Y6" s="26">
         <f t="shared" si="4"/>
-        <v>162.17035359370294</v>
+        <v>90.309949103170482</v>
       </c>
       <c r="Z6" s="26">
         <f t="shared" si="5"/>
-        <v>181.30620351361944</v>
+        <v>90.463545497379926</v>
       </c>
       <c r="AA6" s="26">
         <f t="shared" si="0"/>
-        <v>-19.135849919916495</v>
+        <v>-0.15359639420944404</v>
       </c>
       <c r="AB6" s="26">
         <f t="shared" si="1"/>
-        <v>-3.9899818754919492E-2</v>
+        <v>-6.1040486008795095E-2</v>
       </c>
       <c r="AC6" s="26">
         <f t="shared" si="2"/>
-        <v>25.062770488818423</v>
+        <v>16.382569428688914</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -11161,27 +11161,27 @@
       </c>
       <c r="X7" s="26">
         <f t="shared" si="3"/>
-        <v>6466.1947861151511</v>
+        <v>8191.2847143444578</v>
       </c>
       <c r="Y7" s="26">
         <f t="shared" si="4"/>
-        <v>168.78725910065728</v>
+        <v>90.435764282777086</v>
       </c>
       <c r="Z7" s="26">
         <f t="shared" si="5"/>
-        <v>179.75621035135703</v>
+        <v>90.460211301074082</v>
       </c>
       <c r="AA7" s="26">
         <f t="shared" si="0"/>
-        <v>-10.968951250699746</v>
+        <v>-2.4447018296996248E-2</v>
       </c>
       <c r="AB7" s="26">
         <f t="shared" si="1"/>
-        <v>-4.1596172114743028E-2</v>
+        <v>-6.1043470524551724E-2</v>
       </c>
       <c r="AC7" s="26">
         <f t="shared" si="2"/>
-        <v>24.040673676450332</v>
+        <v>16.38176845790246</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -11193,27 +11193,27 @@
       </c>
       <c r="X8" s="26">
         <f t="shared" si="3"/>
-        <v>6202.4938085241865</v>
+        <v>8190.8842289512304</v>
       </c>
       <c r="Y8" s="26">
         <f t="shared" si="4"/>
-        <v>172.42548649201925</v>
+        <v>90.455788552438435</v>
       </c>
       <c r="Z8" s="26">
         <f t="shared" si="5"/>
-        <v>178.86032287930382</v>
+        <v>90.459680559820242</v>
       </c>
       <c r="AA8" s="26">
         <f t="shared" si="0"/>
-        <v>-6.4348363872845766</v>
+        <v>-3.8920073818076162E-3</v>
       </c>
       <c r="AB8" s="26">
         <f t="shared" si="1"/>
-        <v>-4.2633631656974411E-2</v>
+        <v>-6.1043945687827499E-2</v>
       </c>
       <c r="AC8" s="26">
         <f t="shared" si="2"/>
-        <v>23.45566073389881</v>
+        <v>16.381640942967511</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -11223,27 +11223,27 @@
       </c>
       <c r="X9" s="26">
         <f t="shared" si="3"/>
-        <v>6051.5604693458927</v>
+        <v>8190.8204714837539</v>
       </c>
       <c r="Y9" s="26">
         <f t="shared" si="4"/>
-        <v>174.50788229458607</v>
+        <v>90.458976425812295</v>
       </c>
       <c r="Z9" s="26">
         <f t="shared" si="5"/>
-        <v>178.3323509698223</v>
+        <v>90.459596063449894</v>
       </c>
       <c r="AA9" s="26">
         <f t="shared" si="0"/>
-        <v>-3.8244686752362327</v>
+        <v>-6.1963763759820267E-4</v>
       </c>
       <c r="AB9" s="26">
         <f t="shared" si="1"/>
-        <v>-4.3265612233655257E-2</v>
+        <v>-6.1044021338080096E-2</v>
       </c>
       <c r="AC9" s="26">
         <f t="shared" si="2"/>
-        <v>23.113044017487045</v>
+        <v>16.381620641630082</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -11261,27 +11261,27 @@
       </c>
       <c r="X10" s="26">
         <f t="shared" si="3"/>
-        <v>5963.1653565116576</v>
+        <v>8190.8103208150396</v>
       </c>
       <c r="Y10" s="26">
         <f t="shared" si="4"/>
-        <v>175.72745123101564</v>
+        <v>90.459483959248018</v>
       </c>
       <c r="Z10" s="26">
         <f t="shared" si="5"/>
-        <v>178.01773538829366</v>
+        <v>90.459582610938341</v>
       </c>
       <c r="AA10" s="26">
         <f t="shared" si="0"/>
-        <v>-2.2902841572780233</v>
+        <v>-9.865169032252652E-5</v>
       </c>
       <c r="AB10" s="26">
         <f t="shared" si="1"/>
-        <v>-4.3649684118359428E-2</v>
+        <v>-6.1044033382271871E-2</v>
       </c>
       <c r="AC10" s="26">
         <f t="shared" si="2"/>
-        <v>22.909673235857198</v>
+        <v>16.381617409481585</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -11289,7 +11289,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -11299,27 +11299,27 @@
       </c>
       <c r="X11" s="26">
         <f t="shared" si="3"/>
-        <v>5910.6956948511579</v>
+        <v>8190.8087047407917</v>
       </c>
       <c r="Y11" s="26">
         <f t="shared" si="4"/>
-        <v>176.45136421007493</v>
+        <v>90.459564762960383</v>
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="5"/>
-        <v>177.82903909588612</v>
+        <v>90.459580469180779</v>
       </c>
       <c r="AA11" s="26">
         <f t="shared" si="0"/>
-        <v>-1.3776748858111887</v>
+        <v>-1.5706220395372839E-5</v>
       </c>
       <c r="AB11" s="26">
         <f t="shared" si="1"/>
-        <v>-4.3882765798915452E-2</v>
+        <v>-6.1044035299813962E-2</v>
       </c>
       <c r="AC11" s="26">
         <f t="shared" si="2"/>
-        <v>22.787989357423655</v>
+        <v>16.381616894895014</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -11327,7 +11327,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29">
-        <v>18700</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -11343,27 +11343,27 @@
       </c>
       <c r="X12" s="26">
         <f t="shared" si="3"/>
-        <v>5879.3012542153028</v>
+        <v>8190.8084474475063</v>
       </c>
       <c r="Y12" s="26">
         <f t="shared" si="4"/>
-        <v>176.88450676002418</v>
+        <v>90.45957762762464</v>
       </c>
       <c r="Z12" s="26">
         <f t="shared" si="5"/>
-        <v>177.71542944091101</v>
+        <v>90.459580128194048</v>
       </c>
       <c r="AA12" s="26">
         <f t="shared" si="0"/>
-        <v>-0.83092268088682886</v>
+        <v>-2.5005694084256902E-6</v>
       </c>
       <c r="AB12" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4024095974893609E-2</v>
+        <v>-6.1044035605103651E-2</v>
       </c>
       <c r="AC12" s="26">
         <f t="shared" si="2"/>
-        <v>22.714833271540375</v>
+        <v>16.381616812968275</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="B13" s="13">
         <f>B11/B12</f>
-        <v>1.3796791443850267E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -11388,27 +11388,27 @@
       </c>
       <c r="X13" s="26">
         <f t="shared" si="3"/>
-        <v>5860.426984057417</v>
+        <v>8190.8084064841369</v>
       </c>
       <c r="Y13" s="26">
         <f t="shared" si="4"/>
-        <v>177.14491112904739</v>
+        <v>90.459579675793123</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="5"/>
-        <v>177.64687034370249</v>
+        <v>90.459580073905926</v>
       </c>
       <c r="AA13" s="26">
         <f t="shared" si="0"/>
-        <v>-0.50195921465510196</v>
+        <v>-3.9811280316826014E-7</v>
       </c>
       <c r="AB13" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4109748302961237E-2</v>
+        <v>-6.104403565370848E-2</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="2"/>
-        <v>22.670725598605753</v>
+        <v>16.38161679992481</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -11430,27 +11430,27 @@
       </c>
       <c r="X14" s="26">
         <f t="shared" si="3"/>
-        <v>5849.0472044402795</v>
+        <v>8190.8083999624059</v>
       </c>
       <c r="Y14" s="26">
         <f t="shared" si="4"/>
-        <v>177.30191557510204</v>
+        <v>90.459580001879658</v>
       </c>
       <c r="Z14" s="26">
         <f t="shared" si="5"/>
-        <v>177.60544036117403</v>
+        <v>90.459580065262799</v>
       </c>
       <c r="AA14" s="26">
         <f t="shared" si="0"/>
-        <v>-0.30352478607198918</v>
+        <v>-6.3383140513906255E-8</v>
       </c>
       <c r="AB14" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4161641333648652E-2</v>
+        <v>-6.1044035661446797E-2</v>
       </c>
       <c r="AC14" s="26">
         <f t="shared" si="2"/>
-        <v>22.644085903529518</v>
+        <v>16.381616797848178</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -11472,27 +11472,27 @@
       </c>
       <c r="X15" s="26">
         <f t="shared" si="3"/>
-        <v>5842.1741631106152</v>
+        <v>8190.8083989240877</v>
       </c>
       <c r="Y15" s="26">
         <f t="shared" si="4"/>
-        <v>177.39674149291238</v>
+        <v>90.459580053795605</v>
       </c>
       <c r="Z15" s="26">
         <f t="shared" si="5"/>
-        <v>177.58038353898777</v>
+        <v>90.459580063886719</v>
       </c>
       <c r="AA15" s="26">
         <f t="shared" si="0"/>
-        <v>-0.18364204607539136</v>
+        <v>-1.0091113722410228E-8</v>
       </c>
       <c r="AB15" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4193075187030653E-2</v>
+        <v>-6.1044035662678811E-2</v>
       </c>
       <c r="AC15" s="26">
         <f t="shared" si="2"/>
-        <v>22.627979514163119</v>
+        <v>16.381616797517555</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -11500,7 +11500,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="27">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -11514,27 +11514,27 @@
       </c>
       <c r="X16" s="26">
         <f t="shared" si="3"/>
-        <v>5838.018714654082</v>
+        <v>8190.8083987587788</v>
       </c>
       <c r="Y16" s="26">
         <f t="shared" si="4"/>
-        <v>177.45407334862284</v>
+        <v>90.459580062061036</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="5"/>
-        <v>177.56522157034487</v>
+        <v>90.45958006366763</v>
       </c>
       <c r="AA16" s="26">
         <f t="shared" si="0"/>
-        <v>-0.11114822172203276</v>
+        <v>-1.6065939689724473E-9</v>
       </c>
       <c r="AB16" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4212113875865836E-2</v>
+        <v>-6.104403566287496E-2</v>
       </c>
       <c r="AC16" s="26">
         <f t="shared" si="2"/>
-        <v>22.618235418638786</v>
+        <v>16.381616797464918</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -11557,27 +11557,27 @@
       </c>
       <c r="X17" s="26">
         <f t="shared" si="3"/>
-        <v>5835.5047380088099</v>
+        <v>8190.8083987324599</v>
       </c>
       <c r="Y17" s="26">
         <f t="shared" si="4"/>
-        <v>177.48875816009235</v>
+        <v>90.459580063376961</v>
       </c>
       <c r="Z17" s="26">
         <f t="shared" si="5"/>
-        <v>177.55604422211064</v>
+        <v>90.459580063632757</v>
       </c>
       <c r="AA17" s="26">
         <f t="shared" si="0"/>
-        <v>-6.7286062018297343E-2</v>
+        <v>-2.5579538487363607E-10</v>
       </c>
       <c r="AB17" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4223644337246501E-2</v>
+        <v>-6.1044035662906192E-2</v>
       </c>
       <c r="AC17" s="26">
         <f t="shared" si="2"/>
-        <v>22.612338150471455</v>
+        <v>16.381616797456537</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -11587,27 +11587,27 @@
       </c>
       <c r="X18" s="26">
         <f t="shared" si="3"/>
-        <v>5833.9832428216387</v>
+        <v>8190.8083987282698</v>
       </c>
       <c r="Y18" s="26">
         <f t="shared" si="4"/>
-        <v>177.50974991187258</v>
+        <v>90.459580063586486</v>
       </c>
       <c r="Z18" s="26">
         <f t="shared" si="5"/>
-        <v>177.55048826746358</v>
+        <v>90.459580063627214</v>
       </c>
       <c r="AA18" s="26">
         <f t="shared" si="0"/>
-        <v>-4.0738355591003028E-2</v>
+        <v>-4.0728309613768943E-11</v>
       </c>
       <c r="AB18" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4230627277357118E-2</v>
+        <v>-6.1044035662911153E-2</v>
       </c>
       <c r="AC18" s="26">
         <f t="shared" si="2"/>
-        <v>22.608768212336155</v>
+        <v>16.381616797455205</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -11625,27 +11625,27 @@
       </c>
       <c r="X19" s="26">
         <f t="shared" si="3"/>
-        <v>5833.0621987827299</v>
+        <v>8190.8083987276023</v>
       </c>
       <c r="Y19" s="26">
         <f t="shared" si="4"/>
-        <v>177.522457364388</v>
+        <v>90.459580063619853</v>
       </c>
       <c r="Z19" s="26">
         <f t="shared" si="5"/>
-        <v>177.54712432541044</v>
+        <v>90.459580063626291</v>
       </c>
       <c r="AA19" s="26">
         <f t="shared" si="0"/>
-        <v>-2.4666961022433043E-2</v>
+        <v>-6.4375171859865077E-12</v>
       </c>
       <c r="AB19" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4234856095802987E-2</v>
+        <v>-6.1044035662911951E-2</v>
       </c>
       <c r="AC19" s="26">
         <f t="shared" si="2"/>
-        <v>22.6066068313689</v>
+        <v>16.381616797454992</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="B20" s="9">
         <f>X28</f>
-        <v>5831.6640769698624</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -11664,27 +11664,27 @@
       </c>
       <c r="X20" s="26">
         <f t="shared" si="3"/>
-        <v>5832.5045624931709</v>
+        <v>8190.8083987274968</v>
       </c>
       <c r="Y20" s="26">
         <f t="shared" si="4"/>
-        <v>177.53015095597658</v>
+        <v>90.45958006362514</v>
       </c>
       <c r="Z20" s="26">
         <f t="shared" si="5"/>
-        <v>177.54508743539776</v>
+        <v>90.459580063626177</v>
       </c>
       <c r="AA20" s="26">
         <f t="shared" si="0"/>
-        <v>-1.4936479421180593E-2</v>
+        <v>-1.0373923942097463E-12</v>
       </c>
       <c r="AB20" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4237416998972698E-2</v>
+        <v>-6.1044035662912076E-2</v>
       </c>
       <c r="AC20" s="26">
         <f t="shared" si="2"/>
-        <v>22.60529813535954</v>
+        <v>16.38161679745496</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B21" s="28">
         <f>Y28</f>
-        <v>177.54174695945323</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -11703,27 +11703,27 @@
       </c>
       <c r="X21" s="26">
         <f t="shared" si="3"/>
-        <v>5832.1669189227623</v>
+        <v>8190.8083987274795</v>
       </c>
       <c r="Y21" s="26">
         <f t="shared" si="4"/>
-        <v>177.53480935389985</v>
+        <v>90.459580063625992</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="5"/>
-        <v>177.54385403420096</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA21" s="26">
         <f t="shared" si="0"/>
-        <v>-9.0446803011161592E-3</v>
+        <v>-1.7053025658242404E-13</v>
       </c>
       <c r="AB21" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4238967825694038E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC21" s="26">
         <f t="shared" si="2"/>
-        <v>22.604505691455103</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B22" s="28">
         <f>Z28</f>
-        <v>177.54201705210099</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -11742,27 +11742,27 @@
       </c>
       <c r="X22" s="26">
         <f t="shared" si="3"/>
-        <v>5831.962468395418</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y22" s="26">
         <f t="shared" si="4"/>
-        <v>177.53763011518623</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z22" s="26">
         <f t="shared" si="5"/>
-        <v>177.54310715239882</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA22" s="26">
         <f t="shared" si="0"/>
-        <v>-5.4770372125858557E-3</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4239906967062384E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC22" s="26">
         <f t="shared" si="2"/>
-        <v>22.604025834514587</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B23" s="9">
         <f>B21-B22</f>
-        <v>-2.7009264775301745E-4</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -11781,27 +11781,27 @@
       </c>
       <c r="X23" s="26">
         <f t="shared" si="3"/>
-        <v>5831.8386653047683</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y23" s="26">
         <f t="shared" si="4"/>
-        <v>177.53933820060803</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z23" s="26">
         <f t="shared" si="5"/>
-        <v>177.54265487395946</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA23" s="26">
         <f t="shared" si="0"/>
-        <v>-3.3166733514349289E-3</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4240475685358889E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC23" s="26">
         <f t="shared" si="2"/>
-        <v>22.603735256195353</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11817,27 +11817,27 @@
       </c>
       <c r="X24" s="26">
         <f t="shared" si="3"/>
-        <v>5831.7636960984009</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y24" s="26">
         <f t="shared" si="4"/>
-        <v>177.54037253511297</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z24" s="26">
         <f t="shared" si="5"/>
-        <v>177.54238099174873</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA24" s="26">
         <f t="shared" si="0"/>
-        <v>-2.0084566357638778E-3</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4240820084881963E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC24" s="26">
         <f t="shared" si="2"/>
-        <v>22.603559293913754</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -11850,27 +11850,27 @@
       </c>
       <c r="X25" s="26">
         <f t="shared" si="3"/>
-        <v>5831.7182978297451</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y25" s="26">
         <f t="shared" si="4"/>
-        <v>177.54099888555754</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z25" s="26">
         <f t="shared" si="5"/>
-        <v>177.54221513843768</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA25" s="26">
         <f t="shared" si="0"/>
-        <v>-1.2162528801411554E-3</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4241028643117838E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC25" s="26">
         <f t="shared" si="2"/>
-        <v>22.603452737656013</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -11883,27 +11883,27 @@
       </c>
       <c r="X26" s="26">
         <f t="shared" si="3"/>
-        <v>5831.6908063152514</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y26" s="26">
         <f t="shared" si="4"/>
-        <v>177.54137818024947</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="5"/>
-        <v>177.5421147032468</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA26" s="26">
         <f t="shared" si="0"/>
-        <v>-7.3652299732884785E-4</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4241154939765166E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC26" s="26">
         <f t="shared" si="2"/>
-        <v>22.603388210852799</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11916,27 +11916,27 @@
       </c>
       <c r="X27" s="26">
         <f t="shared" si="3"/>
-        <v>5831.6741584000165</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y27" s="26">
         <f t="shared" si="4"/>
-        <v>177.54160786806395</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z27" s="26">
         <f t="shared" si="5"/>
-        <v>177.54205388294844</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA27" s="26">
         <f t="shared" si="0"/>
-        <v>-4.4601488448847704E-4</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4241231421213278E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC27" s="26">
         <f t="shared" si="2"/>
-        <v>22.603349135542118</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -11946,27 +11946,27 @@
       </c>
       <c r="X28" s="26">
         <f t="shared" si="3"/>
-        <v>5831.6640769698624</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="Y28" s="26">
         <f>B$11-X28*B$13</f>
-        <v>177.54174695945323</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="Z28" s="26">
         <f>(20+0.534*B$16)*(X28^0.12)</f>
-        <v>177.54201705210099</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AA28" s="26">
         <f t="shared" si="0"/>
-        <v>-2.7009264775301745E-4</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="26">
         <f t="shared" si="1"/>
-        <v>-4.4241277736063428E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AC28" s="26">
         <f t="shared" si="2"/>
-        <v>22.603325472782323</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="B30" s="8">
         <f>B17*B48*B49*B22*B20*B14/((B15)^2)</f>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="B31" s="8">
         <f>Y63</f>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B32" s="16">
         <f>(B11^2)/(2*B13)</f>
-        <v>2412300</v>
+        <v>2500000</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B35" s="17" t="str">
         <f>IF(B11&lt;1000,IF(B11&lt;300,IF(B11&lt;100,"Not Spesified","Avoid Contact"),"0.3 m"),"0.5 m")</f>
-        <v>Avoid Contact</v>
+        <v>0.3 m</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -12085,11 +12085,11 @@
       </c>
       <c r="X38" s="6">
         <f>B30</f>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y38" s="26">
         <f>$B$15*SQRT(X38/1.2)</f>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -12108,11 +12108,11 @@
       </c>
       <c r="X39" s="26">
         <f>X38/W38*W39</f>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y39" s="26">
         <f>$B$15*SQRT(X39/1.2)</f>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -12131,11 +12131,11 @@
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40:X63" si="7">X39/W39*W40</f>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40:Y63" si="8">$B$15*SQRT(X40/1.2)</f>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -12154,11 +12154,11 @@
       </c>
       <c r="X41" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y41" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -12177,11 +12177,11 @@
       </c>
       <c r="X42" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y42" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -12200,11 +12200,11 @@
       </c>
       <c r="X43" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y43" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -12224,11 +12224,11 @@
       </c>
       <c r="X44" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y44" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="B45" s="15">
         <f>B11/B44</f>
-        <v>11287.511287511288</v>
+        <v>21875.021875021877</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>8</v>
@@ -12248,11 +12248,11 @@
       </c>
       <c r="X45" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y45" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -12263,11 +12263,11 @@
       </c>
       <c r="X46" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y46" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -12281,11 +12281,11 @@
       </c>
       <c r="X47" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y47" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -12302,11 +12302,11 @@
       </c>
       <c r="X48" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y48" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -12323,11 +12323,11 @@
       </c>
       <c r="X49" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y49" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="X50" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y50" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -12358,11 +12358,11 @@
       </c>
       <c r="X51" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y51" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -12372,11 +12372,11 @@
       </c>
       <c r="X52" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y52" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -12386,11 +12386,11 @@
       </c>
       <c r="X53" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y53" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -12400,11 +12400,11 @@
       </c>
       <c r="X54" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y54" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -12414,11 +12414,11 @@
       </c>
       <c r="X55" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y55" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -12428,11 +12428,11 @@
       </c>
       <c r="X56" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y56" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -12442,11 +12442,11 @@
       </c>
       <c r="X57" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y57" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -12456,11 +12456,11 @@
       </c>
       <c r="X58" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y58" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -12470,11 +12470,11 @@
       </c>
       <c r="X59" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y59" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -12484,11 +12484,11 @@
       </c>
       <c r="X60" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y60" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -12498,11 +12498,11 @@
       </c>
       <c r="X61" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y61" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -12512,11 +12512,11 @@
       </c>
       <c r="X62" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y62" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -12526,11 +12526,11 @@
       </c>
       <c r="X63" s="26">
         <f t="shared" si="7"/>
-        <v>18.840795595255113</v>
+        <v>13.483012070928762</v>
       </c>
       <c r="Y63" s="26">
         <f t="shared" si="8"/>
-        <v>181.16121205388842</v>
+        <v>153.25302666745958</v>
       </c>
     </row>
   </sheetData>
@@ -12693,7 +12693,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A7:BD134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -12760,7 +12760,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -12770,27 +12770,27 @@
       </c>
       <c r="AC11" s="26">
         <f>0.9*B12</f>
-        <v>16830</v>
+        <v>9000</v>
       </c>
       <c r="AD11" s="26">
         <f>B$11-AC11*B$13</f>
-        <v>25.800000000000011</v>
+        <v>50</v>
       </c>
       <c r="AE11" s="26">
         <f>(20+0.534*B$16)*(AC11^0.12)</f>
-        <v>201.62117602840087</v>
+        <v>91.48806798634601</v>
       </c>
       <c r="AF11" s="26">
         <f>AD11-AE11</f>
-        <v>-175.82117602840086</v>
+        <v>-41.48806798634601</v>
       </c>
       <c r="AG11" s="26">
         <f>-B$13-(20+0.534*B$16)*(AC11^-0.88)</f>
-        <v>-2.5776659300558592E-2</v>
+        <v>-6.0165340887371771E-2</v>
       </c>
       <c r="AH11" s="26">
         <f>-1/AG11</f>
-        <v>38.794786723131708</v>
+        <v>16.620864857592657</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -12798,7 +12798,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29">
-        <v>18700</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -12811,27 +12811,27 @@
       </c>
       <c r="AC12" s="26">
         <f>AC11+AH11*AF11</f>
-        <v>10009.054974567993</v>
+        <v>8310.4324287963263</v>
       </c>
       <c r="AD12" s="26">
         <f>B$11-AC12*B$13</f>
-        <v>119.90715596585338</v>
+        <v>84.478378560183671</v>
       </c>
       <c r="AE12" s="26">
         <f>(20+0.534*B$16)*(AC12^0.12)</f>
-        <v>189.43194509011906</v>
+        <v>90.617106377302875</v>
       </c>
       <c r="AF12" s="26">
         <f>AD12-AE12</f>
-        <v>-69.524789124265681</v>
+        <v>-6.1387278171192037</v>
       </c>
       <c r="AG12" s="26">
         <f>-B$13-(20+0.534*B$16)*(AC12^-0.88)</f>
-        <v>-3.2722848456370093E-2</v>
+        <v>-6.0904018190835317E-2</v>
       </c>
       <c r="AH12" s="26">
         <f>-1/AG12</f>
-        <v>30.559686799066906</v>
+        <v>16.419277901609412</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -12840,13 +12840,13 @@
       </c>
       <c r="B13" s="13">
         <f>B11/B12</f>
-        <v>1.3796791443850267E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -12860,27 +12860,27 @@
       </c>
       <c r="AC13" s="26">
         <f t="shared" ref="AC13:AC36" si="0">AC12+AH12*AF12</f>
-        <v>7884.3991941592603</v>
+        <v>8209.6389508047068</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" ref="AD13:AD36" si="1">B$11-AC13*B$13</f>
-        <v>149.22058865812357</v>
+        <v>89.518052459764647</v>
       </c>
       <c r="AE13" s="26">
         <f t="shared" ref="AE13:AE36" si="2">(20+0.534*B$16)*(AC13^0.12)</f>
-        <v>184.08494930925431</v>
+        <v>90.484510690410445</v>
       </c>
       <c r="AF13" s="26">
         <f t="shared" ref="AF13:AF36" si="3">AD13-AE13</f>
-        <v>-34.864360651130738</v>
+        <v>-0.96645823064579872</v>
       </c>
       <c r="AG13" s="26">
         <f t="shared" ref="AG13:AG36" si="4">-B$13-(20+0.534*B$16)*(AC13^-0.88)</f>
-        <v>-3.7144791053715799E-2</v>
+        <v>-6.1021740570155192E-2</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" ref="AH13:AH36" si="5">-1/AG13</f>
-        <v>26.921675196769332</v>
+        <v>16.387602035873176</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -12906,27 +12906,27 @@
       </c>
       <c r="AC14" s="26">
         <f t="shared" si="0"/>
-        <v>6945.7922007664929</v>
+        <v>8193.8010179365901</v>
       </c>
       <c r="AD14" s="26">
         <f t="shared" si="1"/>
-        <v>162.17035359370294</v>
+        <v>90.309949103170482</v>
       </c>
       <c r="AE14" s="26">
         <f t="shared" si="2"/>
-        <v>181.30620351361944</v>
+        <v>90.463545497379926</v>
       </c>
       <c r="AF14" s="26">
         <f t="shared" si="3"/>
-        <v>-19.135849919916495</v>
+        <v>-0.15359639420944404</v>
       </c>
       <c r="AG14" s="26">
         <f t="shared" si="4"/>
-        <v>-3.9899818754919492E-2</v>
+        <v>-6.1040486008795095E-2</v>
       </c>
       <c r="AH14" s="26">
         <f t="shared" si="5"/>
-        <v>25.062770488818423</v>
+        <v>16.382569428688914</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -12952,27 +12952,27 @@
       </c>
       <c r="AC15" s="26">
         <f t="shared" si="0"/>
-        <v>6466.1947861151511</v>
+        <v>8191.2847143444578</v>
       </c>
       <c r="AD15" s="26">
         <f t="shared" si="1"/>
-        <v>168.78725910065728</v>
+        <v>90.435764282777086</v>
       </c>
       <c r="AE15" s="26">
         <f t="shared" si="2"/>
-        <v>179.75621035135703</v>
+        <v>90.460211301074082</v>
       </c>
       <c r="AF15" s="26">
         <f t="shared" si="3"/>
-        <v>-10.968951250699746</v>
+        <v>-2.4447018296996248E-2</v>
       </c>
       <c r="AG15" s="26">
         <f t="shared" si="4"/>
-        <v>-4.1596172114743028E-2</v>
+        <v>-6.1043470524551724E-2</v>
       </c>
       <c r="AH15" s="26">
         <f t="shared" si="5"/>
-        <v>24.040673676450332</v>
+        <v>16.38176845790246</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -12980,7 +12980,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="27">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -12998,27 +12998,27 @@
       </c>
       <c r="AC16" s="26">
         <f t="shared" si="0"/>
-        <v>6202.4938085241865</v>
+        <v>8190.8842289512304</v>
       </c>
       <c r="AD16" s="26">
         <f t="shared" si="1"/>
-        <v>172.42548649201925</v>
+        <v>90.455788552438435</v>
       </c>
       <c r="AE16" s="26">
         <f t="shared" si="2"/>
-        <v>178.86032287930382</v>
+        <v>90.459680559820242</v>
       </c>
       <c r="AF16" s="26">
         <f t="shared" si="3"/>
-        <v>-6.4348363872845766</v>
+        <v>-3.8920073818076162E-3</v>
       </c>
       <c r="AG16" s="26">
         <f t="shared" si="4"/>
-        <v>-4.2633631656974411E-2</v>
+        <v>-6.1043945687827499E-2</v>
       </c>
       <c r="AH16" s="26">
         <f t="shared" si="5"/>
-        <v>23.45566073389881</v>
+        <v>16.381640942967511</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -13027,7 +13027,7 @@
       </c>
       <c r="B17" s="28">
         <f>IF(CHOOSE(D13,1,3,5.22761/(1+(95/B15)^2),3.9207/(1+(40/B15)^2),1.59593/(1+(10/B15)^2))&lt;1,1,CHOOSE(D13,1,3,5.22761/(1+(95/B15)^2),3.9207/(1+(40/B15)^2),1.59593/(1+(10/B15)^2)))</f>
-        <v>2.2208141581712839</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -13045,27 +13045,27 @@
       </c>
       <c r="AC17" s="26">
         <f t="shared" si="0"/>
-        <v>6051.5604693458927</v>
+        <v>8190.8204714837539</v>
       </c>
       <c r="AD17" s="26">
         <f t="shared" si="1"/>
-        <v>174.50788229458607</v>
+        <v>90.458976425812295</v>
       </c>
       <c r="AE17" s="26">
         <f t="shared" si="2"/>
-        <v>178.3323509698223</v>
+        <v>90.459596063449894</v>
       </c>
       <c r="AF17" s="26">
         <f t="shared" si="3"/>
-        <v>-3.8244686752362327</v>
+        <v>-6.1963763759820267E-4</v>
       </c>
       <c r="AG17" s="26">
         <f t="shared" si="4"/>
-        <v>-4.3265612233655257E-2</v>
+        <v>-6.1044021338080096E-2</v>
       </c>
       <c r="AH17" s="26">
         <f t="shared" si="5"/>
-        <v>23.113044017487045</v>
+        <v>16.381620641630082</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -13076,27 +13076,27 @@
       </c>
       <c r="AC18" s="26">
         <f t="shared" si="0"/>
-        <v>5963.1653565116576</v>
+        <v>8190.8103208150396</v>
       </c>
       <c r="AD18" s="26">
         <f t="shared" si="1"/>
-        <v>175.72745123101564</v>
+        <v>90.459483959248018</v>
       </c>
       <c r="AE18" s="26">
         <f t="shared" si="2"/>
-        <v>178.01773538829366</v>
+        <v>90.459582610938341</v>
       </c>
       <c r="AF18" s="26">
         <f t="shared" si="3"/>
-        <v>-2.2902841572780233</v>
+        <v>-9.865169032252652E-5</v>
       </c>
       <c r="AG18" s="26">
         <f t="shared" si="4"/>
-        <v>-4.3649684118359428E-2</v>
+        <v>-6.1044033382271871E-2</v>
       </c>
       <c r="AH18" s="26">
         <f t="shared" si="5"/>
-        <v>22.909673235857198</v>
+        <v>16.381617409481585</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -13109,27 +13109,27 @@
       </c>
       <c r="AC19" s="26">
         <f t="shared" si="0"/>
-        <v>5910.6956948511579</v>
+        <v>8190.8087047407917</v>
       </c>
       <c r="AD19" s="26">
         <f t="shared" si="1"/>
-        <v>176.45136421007493</v>
+        <v>90.459564762960383</v>
       </c>
       <c r="AE19" s="26">
         <f t="shared" si="2"/>
-        <v>177.82903909588612</v>
+        <v>90.459580469180779</v>
       </c>
       <c r="AF19" s="26">
         <f t="shared" si="3"/>
-        <v>-1.3776748858111887</v>
+        <v>-1.5706220395372839E-5</v>
       </c>
       <c r="AG19" s="26">
         <f t="shared" si="4"/>
-        <v>-4.3882765798915452E-2</v>
+        <v>-6.1044035299813962E-2</v>
       </c>
       <c r="AH19" s="26">
         <f t="shared" si="5"/>
-        <v>22.787989357423655</v>
+        <v>16.381616894895014</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -13147,27 +13147,27 @@
       </c>
       <c r="AC20" s="26">
         <f t="shared" si="0"/>
-        <v>5879.3012542153028</v>
+        <v>8190.8084474475063</v>
       </c>
       <c r="AD20" s="26">
         <f t="shared" si="1"/>
-        <v>176.88450676002418</v>
+        <v>90.45957762762464</v>
       </c>
       <c r="AE20" s="26">
         <f t="shared" si="2"/>
-        <v>177.71542944091101</v>
+        <v>90.459580128194048</v>
       </c>
       <c r="AF20" s="26">
         <f t="shared" si="3"/>
-        <v>-0.83092268088682886</v>
+        <v>-2.5005694084256902E-6</v>
       </c>
       <c r="AG20" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4024095974893609E-2</v>
+        <v>-6.1044035605103651E-2</v>
       </c>
       <c r="AH20" s="26">
         <f t="shared" si="5"/>
-        <v>22.714833271540375</v>
+        <v>16.381616812968275</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -13191,27 +13191,27 @@
       </c>
       <c r="AC21" s="26">
         <f t="shared" si="0"/>
-        <v>5860.426984057417</v>
+        <v>8190.8084064841369</v>
       </c>
       <c r="AD21" s="26">
         <f t="shared" si="1"/>
-        <v>177.14491112904739</v>
+        <v>90.459579675793123</v>
       </c>
       <c r="AE21" s="26">
         <f t="shared" si="2"/>
-        <v>177.64687034370249</v>
+        <v>90.459580073905926</v>
       </c>
       <c r="AF21" s="26">
         <f t="shared" si="3"/>
-        <v>-0.50195921465510196</v>
+        <v>-3.9811280316826014E-7</v>
       </c>
       <c r="AG21" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4109748302961237E-2</v>
+        <v>-6.104403565370848E-2</v>
       </c>
       <c r="AH21" s="26">
         <f t="shared" si="5"/>
-        <v>22.670725598605753</v>
+        <v>16.38161679992481</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -13235,27 +13235,27 @@
       </c>
       <c r="AC22" s="26">
         <f t="shared" si="0"/>
-        <v>5849.0472044402795</v>
+        <v>8190.8083999624059</v>
       </c>
       <c r="AD22" s="26">
         <f t="shared" si="1"/>
-        <v>177.30191557510204</v>
+        <v>90.459580001879658</v>
       </c>
       <c r="AE22" s="26">
         <f t="shared" si="2"/>
-        <v>177.60544036117403</v>
+        <v>90.459580065262799</v>
       </c>
       <c r="AF22" s="26">
         <f t="shared" si="3"/>
-        <v>-0.30352478607198918</v>
+        <v>-6.3383140513906255E-8</v>
       </c>
       <c r="AG22" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4161641333648652E-2</v>
+        <v>-6.1044035661446797E-2</v>
       </c>
       <c r="AH22" s="26">
         <f t="shared" si="5"/>
-        <v>22.644085903529518</v>
+        <v>16.381616797848178</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="B23" s="23">
         <f>IF(B20="Closed Parallel",'Model Parameters'!B$8*B11+'Model Parameters'!B$9,IF(B20="Open Parallel",'Model Parameters'!B$20*B11^'Model Parameters'!B$21 + 'Model Parameters'!B$22*B11^'Model Parameters'!B$23,'Model Parameters'!B$36*B11^'Model Parameters'!B$37 + 'Model Parameters'!B$38*B11^'Model Parameters'!B$39))</f>
-        <v>8.1153894449913049E-3</v>
+        <v>6.1220230412874239E-3</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -13280,27 +13280,27 @@
       </c>
       <c r="AC23" s="26">
         <f t="shared" si="0"/>
-        <v>5842.1741631106152</v>
+        <v>8190.8083989240877</v>
       </c>
       <c r="AD23" s="26">
         <f t="shared" si="1"/>
-        <v>177.39674149291238</v>
+        <v>90.459580053795605</v>
       </c>
       <c r="AE23" s="26">
         <f t="shared" si="2"/>
-        <v>177.58038353898777</v>
+        <v>90.459580063886719</v>
       </c>
       <c r="AF23" s="26">
         <f t="shared" si="3"/>
-        <v>-0.18364204607539136</v>
+        <v>-1.0091113722410228E-8</v>
       </c>
       <c r="AG23" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4193075187030653E-2</v>
+        <v>-6.1044035662678811E-2</v>
       </c>
       <c r="AH23" s="26">
         <f t="shared" si="5"/>
-        <v>22.627979514163119</v>
+        <v>16.381616797517555</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -13309,34 +13309,34 @@
       </c>
       <c r="B24" s="23">
         <f>IF(B20="Closed Parallel",'Model Parameters'!B$5*B11+'Model Parameters'!B$6,IF(B20="Open Parallel",'Model Parameters'!B$15*B11^'Model Parameters'!B$16+'Model Parameters'!B$17*B11^'Model Parameters'!B$18,'Model Parameters'!B$31*B11^'Model Parameters'!B$32+'Model Parameters'!B$33*B11^'Model Parameters'!B$34))</f>
-        <v>1.8191239586497984E-2</v>
+        <v>1.1589573740963578E-2</v>
       </c>
       <c r="AB24" s="26">
         <v>13</v>
       </c>
       <c r="AC24" s="26">
         <f t="shared" si="0"/>
-        <v>5838.018714654082</v>
+        <v>8190.8083987587788</v>
       </c>
       <c r="AD24" s="26">
         <f t="shared" si="1"/>
-        <v>177.45407334862284</v>
+        <v>90.459580062061036</v>
       </c>
       <c r="AE24" s="26">
         <f t="shared" si="2"/>
-        <v>177.56522157034487</v>
+        <v>90.45958006366763</v>
       </c>
       <c r="AF24" s="26">
         <f t="shared" si="3"/>
-        <v>-0.11114822172203276</v>
+        <v>-1.6065939689724473E-9</v>
       </c>
       <c r="AG24" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4212113875865836E-2</v>
+        <v>-6.104403566287496E-2</v>
       </c>
       <c r="AH24" s="26">
         <f t="shared" si="5"/>
-        <v>22.618235418638786</v>
+        <v>16.381616797464918</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -13346,27 +13346,27 @@
       </c>
       <c r="AC25" s="26">
         <f t="shared" si="0"/>
-        <v>5835.5047380088099</v>
+        <v>8190.8083987324599</v>
       </c>
       <c r="AD25" s="26">
         <f t="shared" si="1"/>
-        <v>177.48875816009235</v>
+        <v>90.459580063376961</v>
       </c>
       <c r="AE25" s="26">
         <f t="shared" si="2"/>
-        <v>177.55604422211064</v>
+        <v>90.459580063632757</v>
       </c>
       <c r="AF25" s="26">
         <f t="shared" si="3"/>
-        <v>-6.7286062018297343E-2</v>
+        <v>-2.5579538487363607E-10</v>
       </c>
       <c r="AG25" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4223644337246501E-2</v>
+        <v>-6.1044035662906192E-2</v>
       </c>
       <c r="AH25" s="26">
         <f t="shared" si="5"/>
-        <v>22.612338150471455</v>
+        <v>16.381616797456537</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -13384,27 +13384,27 @@
       </c>
       <c r="AC26" s="26">
         <f t="shared" si="0"/>
-        <v>5833.9832428216387</v>
+        <v>8190.8083987282698</v>
       </c>
       <c r="AD26" s="26">
         <f t="shared" si="1"/>
-        <v>177.50974991187258</v>
+        <v>90.459580063586486</v>
       </c>
       <c r="AE26" s="26">
         <f t="shared" si="2"/>
-        <v>177.55048826746358</v>
+        <v>90.459580063627214</v>
       </c>
       <c r="AF26" s="26">
         <f t="shared" si="3"/>
-        <v>-4.0738355591003028E-2</v>
+        <v>-4.0728309613768943E-11</v>
       </c>
       <c r="AG26" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4230627277357118E-2</v>
+        <v>-6.1044035662911153E-2</v>
       </c>
       <c r="AH26" s="26">
         <f t="shared" si="5"/>
-        <v>22.608768212336155</v>
+        <v>16.381616797455205</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B27" s="9">
         <f>AC36</f>
-        <v>5831.6640769698624</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -13423,27 +13423,27 @@
       </c>
       <c r="AC27" s="26">
         <f t="shared" si="0"/>
-        <v>5833.0621987827299</v>
+        <v>8190.8083987276023</v>
       </c>
       <c r="AD27" s="26">
         <f t="shared" si="1"/>
-        <v>177.522457364388</v>
+        <v>90.459580063619853</v>
       </c>
       <c r="AE27" s="26">
         <f t="shared" si="2"/>
-        <v>177.54712432541044</v>
+        <v>90.459580063626291</v>
       </c>
       <c r="AF27" s="26">
         <f t="shared" si="3"/>
-        <v>-2.4666961022433043E-2</v>
+        <v>-6.4375171859865077E-12</v>
       </c>
       <c r="AG27" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4234856095802987E-2</v>
+        <v>-6.1044035662911951E-2</v>
       </c>
       <c r="AH27" s="26">
         <f t="shared" si="5"/>
-        <v>22.6066068313689</v>
+        <v>16.381616797454992</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="B28" s="8">
         <f>AD36</f>
-        <v>177.54174695945323</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -13462,27 +13462,27 @@
       </c>
       <c r="AC28" s="26">
         <f t="shared" si="0"/>
-        <v>5832.5045624931709</v>
+        <v>8190.8083987274968</v>
       </c>
       <c r="AD28" s="26">
         <f t="shared" si="1"/>
-        <v>177.53015095597658</v>
+        <v>90.45958006362514</v>
       </c>
       <c r="AE28" s="26">
         <f t="shared" si="2"/>
-        <v>177.54508743539776</v>
+        <v>90.459580063626177</v>
       </c>
       <c r="AF28" s="26">
         <f t="shared" si="3"/>
-        <v>-1.4936479421180593E-2</v>
+        <v>-1.0373923942097463E-12</v>
       </c>
       <c r="AG28" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4237416998972698E-2</v>
+        <v>-6.1044035662912076E-2</v>
       </c>
       <c r="AH28" s="26">
         <f t="shared" si="5"/>
-        <v>22.60529813535954</v>
+        <v>16.38161679745496</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="B29" s="8">
         <f>AE36</f>
-        <v>177.54201705210099</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -13501,27 +13501,27 @@
       </c>
       <c r="AC29" s="26">
         <f t="shared" si="0"/>
-        <v>5832.1669189227623</v>
+        <v>8190.8083987274795</v>
       </c>
       <c r="AD29" s="26">
         <f t="shared" si="1"/>
-        <v>177.53480935389985</v>
+        <v>90.459580063625992</v>
       </c>
       <c r="AE29" s="26">
         <f t="shared" si="2"/>
-        <v>177.54385403420096</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF29" s="26">
         <f t="shared" si="3"/>
-        <v>-9.0446803011161592E-3</v>
+        <v>-1.7053025658242404E-13</v>
       </c>
       <c r="AG29" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4238967825694038E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH29" s="26">
         <f t="shared" si="5"/>
-        <v>22.604505691455103</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="B30" s="9">
         <f>B28-B29</f>
-        <v>-2.7009264775301745E-4</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -13540,27 +13540,27 @@
       </c>
       <c r="AC30" s="26">
         <f t="shared" si="0"/>
-        <v>5831.962468395418</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD30" s="26">
         <f t="shared" si="1"/>
-        <v>177.53763011518623</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE30" s="26">
         <f t="shared" si="2"/>
-        <v>177.54310715239882</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF30" s="26">
         <f t="shared" si="3"/>
-        <v>-5.4770372125858557E-3</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4239906967062384E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH30" s="26">
         <f t="shared" si="5"/>
-        <v>22.604025834514587</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -13576,32 +13576,32 @@
       </c>
       <c r="AC31" s="26">
         <f t="shared" si="0"/>
-        <v>5831.8386653047683</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD31" s="26">
         <f t="shared" si="1"/>
-        <v>177.53933820060803</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE31" s="26">
         <f t="shared" si="2"/>
-        <v>177.54265487395946</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF31" s="26">
         <f t="shared" si="3"/>
-        <v>-3.3166733514349289E-3</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4240475685358889E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH31" s="26">
         <f t="shared" si="5"/>
-        <v>22.603735256195353</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
-        <f>IF(B11&gt;150,"Battery Voltage Good", "Battery Voltage &lt;150 V: Low arc flash risk")</f>
+        <f>IF(B11&gt;150,IF(B20="Open Parallel",IF(B11&lt;=1000,"Battery Voltage Good","Battery Voltage Above Training Set for Configuration"),IF(B11&lt;=600,"Battery Voltage Good", "Battery Voltage Above Training Set for Configuration")), "Battery Voltage &lt;150 V: Low arc flash risk")</f>
         <v>Battery Voltage Good</v>
       </c>
       <c r="AB32" s="26">
@@ -13609,27 +13609,27 @@
       </c>
       <c r="AC32" s="26">
         <f t="shared" si="0"/>
-        <v>5831.7636960984009</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD32" s="26">
         <f t="shared" si="1"/>
-        <v>177.54037253511297</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE32" s="26">
         <f t="shared" si="2"/>
-        <v>177.54238099174873</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF32" s="26">
         <f t="shared" si="3"/>
-        <v>-2.0084566357638778E-3</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4240820084881963E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH32" s="26">
         <f t="shared" si="5"/>
-        <v>22.603559293913754</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -13642,27 +13642,27 @@
       </c>
       <c r="AC33" s="26">
         <f t="shared" si="0"/>
-        <v>5831.7182978297451</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD33" s="26">
         <f t="shared" si="1"/>
-        <v>177.54099888555754</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE33" s="26">
         <f t="shared" si="2"/>
-        <v>177.54221513843768</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF33" s="26">
         <f t="shared" si="3"/>
-        <v>-1.2162528801411554E-3</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4241028643117838E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH33" s="26">
         <f t="shared" si="5"/>
-        <v>22.603452737656013</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
@@ -13675,27 +13675,27 @@
       </c>
       <c r="AC34" s="26">
         <f t="shared" si="0"/>
-        <v>5831.6908063152514</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD34" s="26">
         <f t="shared" si="1"/>
-        <v>177.54137818024947</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE34" s="26">
         <f t="shared" si="2"/>
-        <v>177.5421147032468</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF34" s="26">
         <f t="shared" si="3"/>
-        <v>-7.3652299732884785E-4</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4241154939765166E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="5"/>
-        <v>22.603388210852799</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
@@ -13704,27 +13704,27 @@
       </c>
       <c r="AC35" s="26">
         <f t="shared" si="0"/>
-        <v>5831.6741584000165</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD35" s="26">
         <f t="shared" si="1"/>
-        <v>177.54160786806395</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE35" s="26">
         <f t="shared" si="2"/>
-        <v>177.54205388294844</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF35" s="26">
         <f t="shared" si="3"/>
-        <v>-4.4601488448847704E-4</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4241231421213278E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH35" s="26">
         <f t="shared" si="5"/>
-        <v>22.603349135542118</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
@@ -13736,27 +13736,27 @@
       </c>
       <c r="AC36" s="26">
         <f t="shared" si="0"/>
-        <v>5831.6640769698624</v>
+        <v>8190.8083987274767</v>
       </c>
       <c r="AD36" s="26">
         <f t="shared" si="1"/>
-        <v>177.54174695945323</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AE36" s="26">
         <f t="shared" si="2"/>
-        <v>177.54201705210099</v>
+        <v>90.459580063626163</v>
       </c>
       <c r="AF36" s="26">
         <f t="shared" si="3"/>
-        <v>-2.7009264775301745E-4</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="26">
         <f t="shared" si="4"/>
-        <v>-4.4241277736063428E-2</v>
+        <v>-6.104403566291209E-2</v>
       </c>
       <c r="AH36" s="26">
         <f t="shared" si="5"/>
-        <v>22.603325472782323</v>
+        <v>16.381616797454956</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="B37" s="28">
         <f>AC67</f>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>13</v>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="B38" s="8">
         <f>AD67</f>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>8</v>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="B39" s="8">
         <f>AE67</f>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>7</v>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="B40" s="8">
         <f>B16-B37</f>
-        <v>-176.42679146617985</v>
+        <v>-470.55817114152734</v>
       </c>
       <c r="C40" s="19"/>
       <c r="AB40" s="1" t="s">
@@ -13847,31 +13847,31 @@
       </c>
       <c r="AC42" s="32">
         <f>B11</f>
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="AD42" s="26">
         <f>10+0.2*AC42</f>
-        <v>61.6</v>
+        <v>110</v>
       </c>
       <c r="AE42" s="26">
         <f>(20+0.534*AC42)*(AD42^0.12)</f>
-        <v>258.68998543643977</v>
+        <v>504.48588421738009</v>
       </c>
       <c r="AF42" s="26">
         <f>B$11-AD42*B$13</f>
-        <v>257.15011764705883</v>
+        <v>494.5</v>
       </c>
       <c r="AG42" s="26">
         <f>AF42-AE42</f>
-        <v>-1.5398677893809349</v>
+        <v>-9.9858842173800895</v>
       </c>
       <c r="AH42" s="26">
         <f>-0.534*(AC42^0.12)</f>
-        <v>-1.0397660232197097</v>
+        <v>-1.1256870178384082</v>
       </c>
       <c r="AI42" s="26">
         <f>-1/AH42</f>
-        <v>0.96175483490355707</v>
+        <v>0.88834639127334192</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B43" s="28">
         <f>IF(B20="Inline",AC98,B16)</f>
-        <v>80.000007554035236</v>
+        <v>39.042884145963484</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -13890,31 +13890,31 @@
       </c>
       <c r="AC43" s="26">
         <f>AC42+AI42*AG42</f>
-        <v>256.51902470845062</v>
+        <v>491.129075791817</v>
       </c>
       <c r="AD43" s="26">
         <f>10+0.2*AC43</f>
-        <v>61.303804941690125</v>
+        <v>108.2258151583634</v>
       </c>
       <c r="AE43" s="26">
         <f>(20+0.534*AC43)*(AD43^0.12)</f>
-        <v>257.24445573631351</v>
+        <v>495.19191325703133</v>
       </c>
       <c r="AF43" s="26">
         <f>B$11-AD43*B$13</f>
-        <v>257.15420418850505</v>
+        <v>494.58870924208185</v>
       </c>
       <c r="AG43" s="26">
         <f>AF43-AE43</f>
-        <v>-9.0251547808463783E-2</v>
+        <v>-0.60320401494948328</v>
       </c>
       <c r="AH43" s="26">
         <f>-0.534*(AC43^0.12)</f>
-        <v>-1.0390479901624472</v>
+        <v>-1.1232714859762469</v>
       </c>
       <c r="AI43" s="26">
         <f>-1/AH43</f>
-        <v>0.96241945460445733</v>
+        <v>0.89025672999336358</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B44" s="8">
         <f>AE98</f>
-        <v>5.1665990654427616E-7</v>
+        <v>0.9248464095050617</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -13933,31 +13933,31 @@
       </c>
       <c r="AC44" s="26">
         <f t="shared" ref="AC44:AC67" si="6">AC43+AI43*AG43</f>
-        <v>256.43216486303157</v>
+        <v>490.59206935794919</v>
       </c>
       <c r="AD44" s="26">
         <f t="shared" ref="AD44:AD67" si="7">10+0.2*AC44</f>
-        <v>61.28643297260632</v>
+        <v>108.11841387158984</v>
       </c>
       <c r="AE44" s="26">
         <f t="shared" ref="AE44:AE67" si="8">(20+0.534*AC44)*(AD44^0.12)</f>
-        <v>257.15970171923811</v>
+        <v>494.6298931825022</v>
       </c>
       <c r="AF44" s="26">
         <f t="shared" ref="AF44:AF67" si="9">B$11-AD44*B$13</f>
-        <v>257.15444386593947</v>
+        <v>494.5940793064205</v>
       </c>
       <c r="AG44" s="26">
         <f t="shared" ref="AG44:AG67" si="10">AF44-AE44</f>
-        <v>-5.257853298644477E-3</v>
+        <v>-3.5813876081704166E-2</v>
       </c>
       <c r="AH44" s="26">
         <f t="shared" ref="AH44:AH67" si="11">-0.534*(AC44^0.12)</f>
-        <v>-1.0390057640559713</v>
+        <v>-1.1231240311960038</v>
       </c>
       <c r="AI44" s="26">
         <f t="shared" ref="AI44:AI67" si="12">-1/AH44</f>
-        <v>0.962458568176076</v>
+        <v>0.89037361166166995</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="B45" s="28">
         <f>IF(B44&gt;B$22,B44,B$22)</f>
-        <v>0.05</v>
+        <v>0.9248464095050617</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>20</v>
@@ -13976,31 +13976,31 @@
       </c>
       <c r="AC45" s="26">
         <f>AC44+AI44*AG44</f>
-        <v>256.42710439707406</v>
+        <v>490.56018162775473</v>
       </c>
       <c r="AD45" s="26">
         <f t="shared" si="7"/>
-        <v>61.285420879414815</v>
+        <v>108.11203632555095</v>
       </c>
       <c r="AE45" s="26">
         <f t="shared" si="8"/>
-        <v>257.15476403124057</v>
+        <v>494.59652227916303</v>
       </c>
       <c r="AF45" s="26">
         <f>B$11-AD45*B$13</f>
-        <v>257.15445782957812</v>
+        <v>494.59439818372243</v>
       </c>
       <c r="AG45" s="26">
         <f t="shared" si="10"/>
-        <v>-3.062016624539865E-4</v>
+        <v>-2.124095440592555E-3</v>
       </c>
       <c r="AH45" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390033035694928</v>
+        <v>-1.1231152707852399</v>
       </c>
       <c r="AI45" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246084739529025</v>
+        <v>0.89038055666435534</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="B46" s="8">
         <f>IF(B45&gt;B14,B14,B45)</f>
-        <v>0.05</v>
+        <v>0.9248464095050617</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>20</v>
@@ -14019,31 +14019,31 @@
       </c>
       <c r="AC46" s="26">
         <f t="shared" si="6"/>
-        <v>256.42680968996257</v>
+        <v>490.55829037447393</v>
       </c>
       <c r="AD46" s="26">
         <f t="shared" si="7"/>
-        <v>61.285361937992519</v>
+        <v>108.11165807489479</v>
       </c>
       <c r="AE46" s="26">
         <f t="shared" si="8"/>
-        <v>257.15447647468005</v>
+        <v>494.59454306682971</v>
       </c>
       <c r="AF46" s="26">
         <f>B$11-AD46*B$13</f>
-        <v>257.15445864278064</v>
+        <v>494.59441709625526</v>
       </c>
       <c r="AG46" s="26">
         <f t="shared" si="10"/>
-        <v>-1.7831899413067731E-5</v>
+        <v>-1.2597057445873361E-4</v>
       </c>
       <c r="AH46" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031602764576</v>
+        <v>-1.1231147511917325</v>
       </c>
       <c r="AI46" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098013207237</v>
+        <v>0.8903809685866062</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="B47" s="8">
         <f>(B38-B27)/B45</f>
-        <v>-115407.57437353252</v>
+        <v>-8739.5016960975008</v>
       </c>
       <c r="C47" t="s">
         <v>113</v>
@@ -14063,31 +14063,31 @@
       </c>
       <c r="AC47" s="26">
         <f>AC46+AI46*AG46</f>
-        <v>256.42679252745518</v>
+        <v>490.55817821267181</v>
       </c>
       <c r="AD47" s="26">
         <f t="shared" si="7"/>
-        <v>61.28535850549104</v>
+        <v>108.11163564253437</v>
       </c>
       <c r="AE47" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544597285918</v>
+        <v>494.59442568859492</v>
       </c>
       <c r="AF47" s="26">
         <f t="shared" si="9"/>
-        <v>257.15445869013814</v>
+        <v>494.59441821787328</v>
       </c>
       <c r="AG47" s="26">
         <f t="shared" si="10"/>
-        <v>-1.0384536608398776E-6</v>
+        <v>-7.4707216413116839E-6</v>
       </c>
       <c r="AH47" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031519316671</v>
+        <v>-1.1231147203769025</v>
       </c>
       <c r="AI47" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098786211165</v>
+        <v>0.89038099301593443</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="B48" s="28">
         <f>(B39-B28)/B45</f>
-        <v>1592.2542346722673</v>
+        <v>436.97508480487539</v>
       </c>
       <c r="C48" t="s">
         <v>115</v>
@@ -14106,31 +14106,31 @@
       </c>
       <c r="AC48" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679152798405</v>
+        <v>490.55817156088324</v>
       </c>
       <c r="AD48" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358305596816</v>
+        <v>108.11163431217665</v>
       </c>
       <c r="AE48" s="26">
         <f t="shared" si="8"/>
-        <v>257.15445875337122</v>
+        <v>494.59441872744441</v>
       </c>
       <c r="AF48" s="26">
         <f t="shared" si="9"/>
-        <v>257.15445869289607</v>
+        <v>494.59441828439117</v>
       </c>
       <c r="AG48" s="26">
         <f t="shared" si="10"/>
-        <v>-6.0475144891825039E-8</v>
+        <v>-4.4305323854132439E-7</v>
       </c>
       <c r="AH48" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514457021</v>
+        <v>-1.1231147185494197</v>
       </c>
       <c r="AI48" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098831227622</v>
+        <v>0.89038099446472319</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="B49" s="8">
         <f>IF(B20="Inline",B16+B21*((B38+B27)/2)*B46,B16)</f>
-        <v>80.73104523303185</v>
+        <v>39.042884145963484</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -14149,31 +14149,31 @@
       </c>
       <c r="AC49" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146977906</v>
+        <v>490.55817116639707</v>
       </c>
       <c r="AD49" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293955817</v>
+        <v>108.11163423327942</v>
       </c>
       <c r="AE49" s="26">
         <f t="shared" si="8"/>
-        <v>257.15445869657844</v>
+        <v>494.5944183146114</v>
       </c>
       <c r="AF49" s="26">
         <f t="shared" si="9"/>
-        <v>257.15445869305665</v>
+        <v>494.59441828833604</v>
       </c>
       <c r="AG49" s="26">
         <f t="shared" si="10"/>
-        <v>-3.5217908589402214E-9</v>
+        <v>-2.6275358777638758E-8</v>
       </c>
       <c r="AH49" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514174016</v>
+        <v>-1.1231147184410404</v>
       </c>
       <c r="AI49" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098833849181</v>
+        <v>0.89038099455064401</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="B50" s="28">
         <f>(B17*B84*B85/(B15^2))*((B47*B48/3)*B46^3 +  ((B48*B27+B47*B28)/2)*B46^2 + B27*B28*B46)</f>
-        <v>0.60834010014059581</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -14192,31 +14192,31 @@
       </c>
       <c r="AC50" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146638949</v>
+        <v>490.55817114300197</v>
       </c>
       <c r="AD50" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293277902</v>
+        <v>108.11163422860039</v>
       </c>
       <c r="AE50" s="26">
         <f t="shared" si="8"/>
-        <v>257.15445869327112</v>
+        <v>494.59441829012815</v>
       </c>
       <c r="AF50" s="26">
         <f t="shared" si="9"/>
-        <v>257.15445869306603</v>
+        <v>494.59441828856995</v>
       </c>
       <c r="AG50" s="26">
         <f t="shared" si="10"/>
-        <v>-2.0509105524979532E-10</v>
+        <v>-1.5581917978124693E-9</v>
       </c>
       <c r="AH50" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514157534</v>
+        <v>-1.1231147184346129</v>
       </c>
       <c r="AI50" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834001859</v>
+        <v>0.8903809945557396</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
@@ -14225,31 +14225,31 @@
       </c>
       <c r="AC51" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146619207</v>
+        <v>490.55817114161459</v>
       </c>
       <c r="AD51" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293238417</v>
+        <v>108.11163422832293</v>
       </c>
       <c r="AE51" s="26">
         <f t="shared" si="8"/>
-        <v>257.15445869307854</v>
+        <v>494.59441828867637</v>
       </c>
       <c r="AF51" s="26">
         <f t="shared" si="9"/>
-        <v>257.15445869306654</v>
+        <v>494.59441828858382</v>
       </c>
       <c r="AG51" s="26">
         <f t="shared" si="10"/>
-        <v>-1.1993961379630491E-11</v>
+        <v>-9.2541085905395448E-11</v>
       </c>
       <c r="AH51" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156575</v>
+        <v>-1.1231147184342316</v>
       </c>
       <c r="AI51" s="26">
         <f t="shared" si="12"/>
-        <v>0.9624609883401074</v>
+        <v>0.8903809945560418</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
@@ -14261,31 +14261,31 @@
       </c>
       <c r="AC52" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146618053</v>
+        <v>490.55817114153217</v>
       </c>
       <c r="AD52" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293236108</v>
+        <v>108.11163422830644</v>
       </c>
       <c r="AE52" s="26">
         <f t="shared" si="8"/>
-        <v>257.15445869306728</v>
+        <v>494.59441828859008</v>
       </c>
       <c r="AF52" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858468</v>
       </c>
       <c r="AG52" s="26">
         <f t="shared" si="10"/>
-        <v>-6.8212102632969618E-13</v>
+        <v>-5.4001247917767614E-12</v>
       </c>
       <c r="AH52" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156519</v>
+        <v>-1.1231147184342092</v>
       </c>
       <c r="AI52" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011262</v>
+        <v>0.89038099455605957</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="B53" s="28">
         <f>IF(B20="Inline",AC129,B16)</f>
-        <v>80.026885332003033</v>
+        <v>108.48349546563502</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -14304,19 +14304,19 @@
       </c>
       <c r="AC53" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD53" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE53" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF53" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG53" s="26">
         <f t="shared" si="10"/>
@@ -14324,11 +14324,11 @@
       </c>
       <c r="AH53" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI53" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="B54" s="8">
         <f>AD129</f>
-        <v>6.0529847165705477E-4</v>
+        <v>4.2952810806022388</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -14347,19 +14347,19 @@
       </c>
       <c r="AC54" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD54" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE54" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF54" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG54" s="26">
         <f t="shared" si="10"/>
@@ -14367,11 +14367,11 @@
       </c>
       <c r="AH54" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI54" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="B55" s="28">
         <f>IF(B54&gt;B$22,B54,B$22)</f>
-        <v>0.05</v>
+        <v>4.2952810806022388</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>20</v>
@@ -14390,19 +14390,19 @@
       </c>
       <c r="AC55" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD55" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE55" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF55" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG55" s="26">
         <f t="shared" si="10"/>
@@ -14410,11 +14410,11 @@
       </c>
       <c r="AH55" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI55" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="B56" s="8">
         <f>IF(B55&gt;B14,B14,B55)</f>
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>20</v>
@@ -14433,19 +14433,19 @@
       </c>
       <c r="AC56" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD56" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE56" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF56" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG56" s="26">
         <f t="shared" si="10"/>
@@ -14453,11 +14453,11 @@
       </c>
       <c r="AH56" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI56" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="57" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="B57" s="28">
         <f>(B38-B27)/B55</f>
-        <v>-115407.57437353252</v>
+        <v>-1881.762011105895</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>113</v>
@@ -14476,19 +14476,19 @@
       </c>
       <c r="AC57" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD57" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE57" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF57" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG57" s="26">
         <f t="shared" si="10"/>
@@ -14496,11 +14496,11 @@
       </c>
       <c r="AH57" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI57" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="B58" s="28">
         <f>(B39-B28)/B55</f>
-        <v>1592.2542346722673</v>
+        <v>94.08810055529483</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>115</v>
@@ -14519,19 +14519,19 @@
       </c>
       <c r="AC58" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD58" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE58" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF58" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG58" s="26">
         <f t="shared" si="10"/>
@@ -14539,11 +14539,11 @@
       </c>
       <c r="AH58" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI58" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B59" s="8">
         <f>IF(B20="Inline",B16+B21*((B38+B27)/2)*B56,B16)</f>
-        <v>80.73104523303185</v>
+        <v>61.180641348122705</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -14562,19 +14562,19 @@
       </c>
       <c r="AC59" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD59" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE59" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF59" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG59" s="26">
         <f t="shared" si="10"/>
@@ -14582,11 +14582,11 @@
       </c>
       <c r="AH59" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI59" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="B60" s="8">
         <f>(B17*B84*B85/(B15^2))*((B57*B58/3)*B56^3 +  ((B58*B27+B57*B28)/2)*B56^2 + B27*B28*B56)</f>
-        <v>0.60834010014059581</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="C60" t="s">
         <v>21</v>
@@ -14605,19 +14605,19 @@
       </c>
       <c r="AC60" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD60" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE60" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF60" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG60" s="26">
         <f t="shared" si="10"/>
@@ -14625,11 +14625,11 @@
       </c>
       <c r="AH60" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI60" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
@@ -14638,19 +14638,19 @@
       </c>
       <c r="AC61" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD61" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE61" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF61" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG61" s="26">
         <f t="shared" si="10"/>
@@ -14658,11 +14658,11 @@
       </c>
       <c r="AH61" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI61" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
@@ -14672,19 +14672,19 @@
       </c>
       <c r="AC62" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD62" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE62" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF62" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG62" s="26">
         <f t="shared" si="10"/>
@@ -14692,11 +14692,11 @@
       </c>
       <c r="AH62" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI62" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
@@ -14714,19 +14714,19 @@
       </c>
       <c r="AC63" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD63" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE63" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF63" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG63" s="26">
         <f t="shared" si="10"/>
@@ -14734,11 +14734,11 @@
       </c>
       <c r="AH63" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI63" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="B64" s="8">
         <f>B50</f>
-        <v>0.60834010014059581</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -14757,19 +14757,19 @@
       </c>
       <c r="AC64" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD64" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE64" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF64" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG64" s="26">
         <f t="shared" si="10"/>
@@ -14777,11 +14777,11 @@
       </c>
       <c r="AH64" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI64" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.25">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="B65" s="8">
         <f>BD98</f>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -14800,19 +14800,19 @@
       </c>
       <c r="AC65" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD65" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE65" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF65" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG65" s="26">
         <f t="shared" si="10"/>
@@ -14820,11 +14820,11 @@
       </c>
       <c r="AH65" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI65" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.25">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="B66" s="8">
         <f>B60</f>
-        <v>0.60834010014059581</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
@@ -14843,19 +14843,19 @@
       </c>
       <c r="AC66" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD66" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE66" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF66" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG66" s="26">
         <f t="shared" si="10"/>
@@ -14863,11 +14863,11 @@
       </c>
       <c r="AH66" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI66" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.25">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="B67" s="28">
         <f>BD129</f>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -14886,19 +14886,19 @@
       </c>
       <c r="AC67" s="26">
         <f t="shared" si="6"/>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD67" s="26">
         <f t="shared" si="7"/>
-        <v>61.285358293235973</v>
+        <v>108.11163422830548</v>
       </c>
       <c r="AE67" s="26">
         <f t="shared" si="8"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858502</v>
       </c>
       <c r="AF67" s="26">
         <f t="shared" si="9"/>
-        <v>257.1544586930666</v>
+        <v>494.59441828858473</v>
       </c>
       <c r="AG67" s="26">
         <f t="shared" si="10"/>
@@ -14906,11 +14906,11 @@
       </c>
       <c r="AH67" s="26">
         <f t="shared" si="11"/>
-        <v>-1.0390031514156515</v>
+        <v>-1.1231147184342078</v>
       </c>
       <c r="AI67" s="26">
         <f t="shared" si="12"/>
-        <v>0.96246098834011296</v>
+        <v>0.89038099455606068</v>
       </c>
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.25">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="B68" s="16">
         <f>(B11^2)/(2*B13)</f>
-        <v>2412300</v>
+        <v>2500000</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="B71" s="17" t="str">
         <f>IF(B11&lt;1000,IF(B11&lt;300,IF(B11&lt;100,"Not Spesified","Avoid Contact"),"0.3 m"),"0.5 m")</f>
-        <v>Avoid Contact</v>
+        <v>0.3 m</v>
       </c>
       <c r="N71" s="1"/>
       <c r="U71" s="1"/>
@@ -15021,56 +15021,56 @@
       </c>
       <c r="AC73">
         <f>AC67</f>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD73">
-        <f t="shared" ref="AD73:AD98" si="13">IF(B$20="Inline",0.5*B$23*($AC73-$B$16)/EXP(B$23*($AC73-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
-        <v>0.71588606063915894</v>
+        <f>IF(B$20="Inline",0.5*B$23*($AC73-$B$16)/EXP(B$23*($AC73-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
+        <v>1.4403839829972507</v>
       </c>
       <c r="AE73">
         <f>IF(B$20="Inline",2*(AC73-B$16)/(B$21*(B$38+B$27)),AD$73)</f>
-        <v>12.066749326473948</v>
+        <v>22.853367783354283</v>
       </c>
       <c r="AF73">
         <f>AD73-AE73</f>
-        <v>-11.350863265834789</v>
+        <v>-21.412983800357033</v>
       </c>
       <c r="AG73" s="21">
         <f>0.5*((B$23^2)*B$16+B$23-(B$23^2)*AC73)*EXP(-B$23*(AC73-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-7.0147220082739437E-2</v>
+        <v>-5.4323561686954125E-2</v>
       </c>
       <c r="AH73" s="26">
         <f>-0.5/AG73</f>
-        <v>7.1278662135184314</v>
+        <v>9.2041093122963566</v>
       </c>
       <c r="AJ73" s="21"/>
       <c r="AL73" s="6">
         <f>B16</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM73" s="26">
-        <f t="shared" ref="AM73:AM98" si="14">IF(B$20="Inline",0.5*B$23*($AL73-$B$16)/EXP(B$23*($AL73-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
+        <f t="shared" ref="AM73:AM98" si="13">IF(B$20="Inline",0.5*B$23*($AL73-$B$16)/EXP(B$23*($AL73-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
         <v>0</v>
       </c>
       <c r="AN73" s="26">
-        <f t="shared" ref="AN73:AN98" si="15">IF(B$20="Inline",2*(AL73-B$16)/(B$21*(B$38+B$27)),AM$73)</f>
+        <f t="shared" ref="AN73:AN98" si="14">IF(B$20="Inline",2*(AL73-B$16)/(B$21*(B$38+B$27)),AM$73)</f>
         <v>0</v>
       </c>
       <c r="AO73" s="26">
-        <f t="shared" ref="AO73:AO98" si="16">AM73-AN73</f>
+        <f t="shared" ref="AO73:AO98" si="15">AM73-AN73</f>
         <v>0</v>
       </c>
       <c r="BB73" s="6">
         <f>B17</f>
-        <v>2.2208141581712839</v>
+        <v>1</v>
       </c>
       <c r="BC73" s="6">
         <f>B50</f>
-        <v>0.60834010014059581</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD73">
         <f>$B$15*SQRT(BC73/1.2)</f>
-        <v>32.552835319186997</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.25">
@@ -15088,55 +15088,55 @@
       </c>
       <c r="AC74">
         <f>AC73+AH73*AF73</f>
-        <v>175.51935669936859</v>
+        <v>293.47072754061014</v>
       </c>
       <c r="AD74" s="26">
-        <f t="shared" si="13"/>
-        <v>0.74735422314307687</v>
+        <f t="shared" ref="AD73:AD98" si="16">IF(B$20="Inline",0.5*B$23*($AC74-$B$16)/EXP(B$23*($AC74-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
+        <v>2.7975907561814335</v>
       </c>
       <c r="AE74" s="26">
         <f t="shared" ref="AE74:AE98" si="17">IF(B$20="Inline",2*(AC74-B$16)/(B$21*(B$38+B$27)),AD$73)</f>
-        <v>6.5330674754025662</v>
+        <v>13.281518625647962</v>
       </c>
       <c r="AF74" s="26">
         <f>AD74-AE74</f>
-        <v>-5.7857132522594892</v>
+        <v>-10.483927869466529</v>
       </c>
       <c r="AG74" s="26">
         <f t="shared" ref="AG74:AG98" si="18">0.5*((B$23^2)*B$16+B$23-(B$23^2)*AC74)*EXP(-B$23*(AC74-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-6.6636178380816868E-2</v>
+        <v>-5.5463478414810953E-2</v>
       </c>
       <c r="AH74" s="26">
         <f t="shared" ref="AH74:AH98" si="19">-0.5/AG74</f>
-        <v>7.5034315014670669</v>
+        <v>9.0149412602740782</v>
       </c>
       <c r="AL74" s="26">
         <f t="shared" ref="AL74:AL98" si="20">AL73*1.17</f>
-        <v>93.6</v>
+        <v>23.4</v>
       </c>
       <c r="AM74" s="26">
+        <f t="shared" si="13"/>
+        <v>0.18172125424076802</v>
+      </c>
+      <c r="AN74" s="26">
         <f t="shared" si="14"/>
-        <v>0.20686938992582846</v>
-      </c>
-      <c r="AN74" s="26">
+        <v>0.16512613153631683</v>
+      </c>
+      <c r="AO74" s="26">
         <f t="shared" si="15"/>
-        <v>0.9301750004987438</v>
-      </c>
-      <c r="AO74" s="26">
-        <f t="shared" si="16"/>
-        <v>-0.72330561057291531</v>
+        <v>1.6595122704451182E-2</v>
       </c>
       <c r="BB74" s="6">
         <f>IF(CHOOSE($D$13,1,3,5.22761/(1+(95/BD73)^2),3.9207/(1+(40/BD73)^2),1.59593/(1+(10/BD73)^2))&lt;1,1,CHOOSE($D$13,1,3,5.22761/(1+(95/BD73)^2),3.9207/(1+(40/BD73)^2),1.59593/(1+(10/BD73)^2)))</f>
-        <v>1.5621067542338256</v>
+        <v>1</v>
       </c>
       <c r="BC74">
         <f>BC73/BB73*BB74</f>
-        <v>0.42790261211384706</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD74" s="26">
         <f>$B$15*SQRT(BC74/1.2)</f>
-        <v>27.301597992145034</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.25">
@@ -15154,55 +15154,55 @@
       </c>
       <c r="AC75" s="26">
         <f t="shared" ref="AC75:AC98" si="21">AC74+AH74*AF74</f>
-        <v>132.10665362390927</v>
+        <v>198.95873362041903</v>
       </c>
       <c r="AD75" s="26">
-        <f t="shared" si="13"/>
-        <v>0.5798758296292178</v>
+        <f t="shared" si="16"/>
+        <v>3.2652092869774108</v>
       </c>
       <c r="AE75" s="26">
         <f t="shared" si="17"/>
-        <v>3.5638460706329189</v>
+        <v>8.6914009962876495</v>
       </c>
       <c r="AF75" s="26">
         <f t="shared" ref="AF75:AF98" si="22">AD75-AE75</f>
-        <v>-2.9839702410037012</v>
+        <v>-5.4261917093102383</v>
       </c>
       <c r="AG75" s="26">
         <f t="shared" si="18"/>
-        <v>-6.1972505723985896E-2</v>
+        <v>-5.0310596788405708E-2</v>
       </c>
       <c r="AH75" s="26">
         <f t="shared" si="19"/>
-        <v>8.0680939742360547</v>
+        <v>9.9382641415064104</v>
       </c>
       <c r="AL75" s="26">
         <f t="shared" si="20"/>
-        <v>109.51199999999999</v>
+        <v>27.377999999999997</v>
       </c>
       <c r="AM75" s="26">
+        <f t="shared" si="13"/>
+        <v>0.3848477120090949</v>
+      </c>
+      <c r="AN75" s="26">
         <f t="shared" si="14"/>
-        <v>0.3945250823175655</v>
-      </c>
-      <c r="AN75" s="26">
+        <v>0.35832370543380748</v>
+      </c>
+      <c r="AO75" s="26">
         <f t="shared" si="15"/>
-        <v>2.0184797510822738</v>
-      </c>
-      <c r="AO75" s="26">
-        <f t="shared" si="16"/>
-        <v>-1.6239546687647084</v>
+        <v>2.6524006575287418E-2</v>
       </c>
       <c r="BB75" s="6">
         <f t="shared" ref="BB75:BB98" si="23">IF(CHOOSE($D$13,1,3,5.22761/(1+(95/BD74)^2),3.9207/(1+(40/BD74)^2),1.59593/(1+(10/BD74)^2))&lt;1,1,CHOOSE($D$13,1,3,5.22761/(1+(95/BD74)^2),3.9207/(1+(40/BD74)^2),1.59593/(1+(10/BD74)^2)))</f>
-        <v>1.2460258117953578</v>
+        <v>1</v>
       </c>
       <c r="BC75" s="26">
         <f t="shared" ref="BC75:BC98" si="24">BC74/BB74*BB75</f>
-        <v>0.34131963016190958</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD75" s="26">
         <f t="shared" ref="BD75:BD98" si="25">$B$15*SQRT(BC75/1.2)</f>
-        <v>24.383510534933141</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.25">
@@ -15220,55 +15220,55 @@
       </c>
       <c r="AC76" s="26">
         <f t="shared" si="21"/>
-        <v>108.03170130316759</v>
+        <v>145.03180713084171</v>
       </c>
       <c r="AD76" s="26">
-        <f t="shared" si="13"/>
-        <v>0.37926494248330711</v>
+        <f t="shared" si="16"/>
+        <v>3.1736383318239882</v>
       </c>
       <c r="AE76" s="26">
         <f t="shared" si="17"/>
-        <v>1.9172343951216593</v>
+        <v>6.0723584207384622</v>
       </c>
       <c r="AF76" s="26">
         <f>AD76-AE76</f>
-        <v>-1.5379694526383521</v>
+        <v>-2.898720088914474</v>
       </c>
       <c r="AG76" s="26">
         <f t="shared" si="18"/>
-        <v>-5.7943245180702221E-2</v>
+        <v>-4.2612948406547835E-2</v>
       </c>
       <c r="AH76" s="26">
         <f t="shared" si="19"/>
-        <v>8.6291335330062449</v>
+        <v>11.733522760024998</v>
       </c>
       <c r="AL76" s="26">
         <f t="shared" si="20"/>
-        <v>128.12903999999997</v>
+        <v>32.032259999999994</v>
       </c>
       <c r="AM76" s="26">
+        <f t="shared" si="13"/>
+        <v>0.60999026174946169</v>
+      </c>
+      <c r="AN76" s="26">
         <f t="shared" si="14"/>
-        <v>0.55318194684629607</v>
-      </c>
-      <c r="AN76" s="26">
+        <v>0.58436486689387157</v>
+      </c>
+      <c r="AO76" s="26">
         <f t="shared" si="15"/>
-        <v>3.2917963092650044</v>
-      </c>
-      <c r="AO76" s="26">
-        <f t="shared" si="16"/>
-        <v>-2.7386143624187085</v>
+        <v>2.5625394855590122E-2</v>
       </c>
       <c r="BB76" s="6">
         <f t="shared" si="23"/>
-        <v>1.0622078114228126</v>
+        <v>1</v>
       </c>
       <c r="BC76" s="26">
         <f t="shared" si="24"/>
-        <v>0.29096698793706044</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD76" s="26">
         <f t="shared" si="25"/>
-        <v>22.513211837300773</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.25">
@@ -15286,43 +15286,43 @@
       </c>
       <c r="AC77" s="26">
         <f t="shared" si="21"/>
-        <v>94.760357526666724</v>
+        <v>111.01960899262204</v>
       </c>
       <c r="AD77" s="26">
-        <f t="shared" si="13"/>
-        <v>0.22241524844250496</v>
+        <f t="shared" si="16"/>
+        <v>2.8451304927690884</v>
       </c>
       <c r="AE77" s="26">
         <f t="shared" si="17"/>
-        <v>1.009537909538887</v>
+        <v>4.4205046843823057</v>
       </c>
       <c r="AF77" s="26">
         <f t="shared" si="22"/>
-        <v>-0.78712266109638207</v>
+        <v>-1.5753741916132173</v>
       </c>
       <c r="AG77" s="26">
         <f t="shared" si="18"/>
-        <v>-5.5131788212099749E-2</v>
+        <v>-3.4726029132247101E-2</v>
       </c>
       <c r="AH77" s="26">
         <f t="shared" si="19"/>
-        <v>9.0691779863266841</v>
+        <v>14.398421371353763</v>
       </c>
       <c r="AL77" s="26">
         <f t="shared" si="20"/>
-        <v>149.91097679999996</v>
+        <v>37.477744199999989</v>
       </c>
       <c r="AM77" s="26">
+        <f t="shared" si="13"/>
+        <v>0.85700396782791188</v>
+      </c>
+      <c r="AN77" s="26">
         <f t="shared" si="14"/>
-        <v>0.67334309608270426</v>
-      </c>
-      <c r="AN77" s="26">
+        <v>0.84883302580214648</v>
+      </c>
+      <c r="AO77" s="26">
         <f t="shared" si="15"/>
-        <v>4.7815766823387982</v>
-      </c>
-      <c r="AO77" s="26">
-        <f t="shared" si="16"/>
-        <v>-4.1082335862560937</v>
+        <v>8.1709420257654042E-3</v>
       </c>
       <c r="BB77" s="6">
         <f t="shared" si="23"/>
@@ -15330,11 +15330,11 @@
       </c>
       <c r="BC77" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD77" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.25">
@@ -15352,43 +15352,43 @@
       </c>
       <c r="AC78" s="26">
         <f t="shared" si="21"/>
-        <v>87.621802016112539</v>
+        <v>88.336707564219125</v>
       </c>
       <c r="AD78" s="26">
-        <f t="shared" si="13"/>
-        <v>0.12169842599809892</v>
+        <f t="shared" si="16"/>
+        <v>2.4543115166214342</v>
       </c>
       <c r="AE78" s="26">
         <f t="shared" si="17"/>
-        <v>0.52129483045138314</v>
+        <v>3.3188753417670789</v>
       </c>
       <c r="AF78" s="26">
         <f t="shared" si="22"/>
-        <v>-0.3995964044532842</v>
+        <v>-0.86456382514564467</v>
       </c>
       <c r="AG78" s="26">
         <f t="shared" si="18"/>
-        <v>-5.3415704691129481E-2</v>
+        <v>-2.7676880474273274E-2</v>
       </c>
       <c r="AH78" s="26">
         <f t="shared" si="19"/>
-        <v>9.3605429880817965</v>
+        <v>18.065619803675823</v>
       </c>
       <c r="AL78" s="26">
         <f t="shared" si="20"/>
-        <v>175.39584285599994</v>
+        <v>43.848960713999986</v>
       </c>
       <c r="AM78" s="26">
+        <f t="shared" si="13"/>
+        <v>1.1246758537117505</v>
+      </c>
+      <c r="AN78" s="26">
         <f t="shared" si="14"/>
-        <v>0.7471363634900885</v>
-      </c>
-      <c r="AN78" s="26">
+        <v>1.1582607717248281</v>
+      </c>
+      <c r="AO78" s="26">
         <f t="shared" si="15"/>
-        <v>6.5246197188351376</v>
-      </c>
-      <c r="AO78" s="26">
-        <f t="shared" si="16"/>
-        <v>-5.7774833553450495</v>
+        <v>-3.3584918013077614E-2</v>
       </c>
       <c r="BB78" s="6">
         <f t="shared" si="23"/>
@@ -15396,11 +15396,11 @@
       </c>
       <c r="BC78" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD78" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.25">
@@ -15418,43 +15418,43 @@
       </c>
       <c r="AC79" s="26">
         <f t="shared" si="21"/>
-        <v>83.881362694344659</v>
+        <v>72.717826203126251</v>
       </c>
       <c r="AD79" s="26">
-        <f t="shared" si="13"/>
-        <v>6.3884365705792645E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.0833392611486157</v>
       </c>
       <c r="AE79" s="26">
         <f t="shared" si="17"/>
-        <v>0.26546665780498901</v>
+        <v>2.5603207952723879</v>
       </c>
       <c r="AF79" s="26">
         <f t="shared" si="22"/>
-        <v>-0.20158229209919637</v>
+        <v>-0.4769815341237722</v>
       </c>
       <c r="AG79" s="26">
         <f t="shared" si="18"/>
-        <v>-5.2454405079871654E-2</v>
+        <v>-2.1802073460557618E-2</v>
       </c>
       <c r="AH79" s="26">
         <f t="shared" si="19"/>
-        <v>9.5320879006950197</v>
+        <v>22.933598536146377</v>
       </c>
       <c r="AL79" s="26">
         <f t="shared" si="20"/>
-        <v>205.21313614151993</v>
+        <v>51.303284035379981</v>
       </c>
       <c r="AM79" s="26">
+        <f t="shared" si="13"/>
+        <v>1.410355355511721</v>
+      </c>
+      <c r="AN79" s="26">
         <f t="shared" si="14"/>
-        <v>0.76989269061128252</v>
-      </c>
-      <c r="AN79" s="26">
+        <v>1.5202912344543658</v>
+      </c>
+      <c r="AO79" s="26">
         <f t="shared" si="15"/>
-        <v>8.5639800715358554</v>
-      </c>
-      <c r="AO79" s="26">
-        <f t="shared" si="16"/>
-        <v>-7.794087380924573</v>
+        <v>-0.10993587894264478</v>
       </c>
       <c r="BB79" s="6">
         <f t="shared" si="23"/>
@@ -15462,11 +15462,11 @@
       </c>
       <c r="BC79" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD79" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.25">
@@ -15485,43 +15485,43 @@
       </c>
       <c r="AC80" s="26">
         <f t="shared" si="21"/>
-        <v>81.959862566831546</v>
+        <v>61.778923190376453</v>
       </c>
       <c r="AD80" s="26">
-        <f t="shared" si="13"/>
-        <v>3.276485460991789E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.7654022404845959</v>
       </c>
       <c r="AE80" s="26">
         <f t="shared" si="17"/>
-        <v>0.13404523265294147</v>
+        <v>2.0290564606411126</v>
       </c>
       <c r="AF80" s="26">
         <f t="shared" si="22"/>
-        <v>-0.10128037804302358</v>
+        <v>-0.26365422015651663</v>
       </c>
       <c r="AG80" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1943185379835097E-2</v>
+        <v>-1.711853246524505E-2</v>
       </c>
       <c r="AH80" s="26">
         <f t="shared" si="19"/>
-        <v>9.6259017683213823</v>
+        <v>29.208111210182675</v>
       </c>
       <c r="AL80" s="26">
         <f t="shared" si="20"/>
-        <v>240.09936928557829</v>
+        <v>60.024842321394573</v>
       </c>
       <c r="AM80" s="26">
+        <f t="shared" si="13"/>
+        <v>1.7095418713205832</v>
+      </c>
+      <c r="AN80" s="26">
         <f t="shared" si="14"/>
-        <v>0.74167643759601143</v>
-      </c>
-      <c r="AN80" s="26">
+        <v>1.9438668758479245</v>
+      </c>
+      <c r="AO80" s="26">
         <f t="shared" si="15"/>
-        <v>10.950031684195693</v>
-      </c>
-      <c r="AO80" s="26">
-        <f t="shared" si="16"/>
-        <v>-10.208355246599682</v>
+        <v>-0.23432500452734129</v>
       </c>
       <c r="BB80" s="6">
         <f t="shared" si="23"/>
@@ -15529,11 +15529,11 @@
       </c>
       <c r="BC80" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD80" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.25">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="B81" s="15">
         <f>B11/B80</f>
-        <v>11287.511287511288</v>
+        <v>21875.021875021877</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
@@ -15552,43 +15552,43 @@
       </c>
       <c r="AC81" s="26">
         <f t="shared" si="21"/>
-        <v>80.984947596730947</v>
+        <v>54.078081407010927</v>
       </c>
       <c r="AD81" s="26">
-        <f t="shared" si="13"/>
-        <v>1.6597084666617617E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.5095109356836869</v>
       </c>
       <c r="AE81" s="26">
         <f t="shared" si="17"/>
-        <v>6.7365708182385728E-2</v>
+        <v>1.6550534567410005</v>
       </c>
       <c r="AF81" s="26">
         <f t="shared" si="22"/>
-        <v>-5.0768623515768108E-2</v>
+        <v>-0.14554252105731358</v>
       </c>
       <c r="AG81" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1679183801305192E-2</v>
+        <v>-1.3512115045306847E-2</v>
       </c>
       <c r="AH81" s="26">
         <f t="shared" si="19"/>
-        <v>9.6750754021655467</v>
+        <v>37.003829402241855</v>
       </c>
       <c r="AL81" s="26">
         <f t="shared" si="20"/>
-        <v>280.91626206412656</v>
+        <v>70.229065516031639</v>
       </c>
       <c r="AM81" s="26">
+        <f t="shared" si="13"/>
+        <v>2.015462036674986</v>
+      </c>
+      <c r="AN81" s="26">
         <f t="shared" si="14"/>
-        <v>0.66831634608219048</v>
-      </c>
-      <c r="AN81" s="26">
+        <v>2.4394503762783879</v>
+      </c>
+      <c r="AO81" s="26">
         <f t="shared" si="15"/>
-        <v>13.741712071007703</v>
-      </c>
-      <c r="AO81" s="26">
-        <f t="shared" si="16"/>
-        <v>-13.073395724925511</v>
+        <v>-0.42398833960340188</v>
       </c>
       <c r="BB81" s="6">
         <f t="shared" si="23"/>
@@ -15596,11 +15596,11 @@
       </c>
       <c r="BC81" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD81" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="82" spans="1:56" x14ac:dyDescent="0.25">
@@ -15610,43 +15610,43 @@
       </c>
       <c r="AC82" s="26">
         <f t="shared" si="21"/>
-        <v>80.493757336151731</v>
+        <v>48.692450787033906</v>
       </c>
       <c r="AD82" s="26">
-        <f t="shared" si="13"/>
-        <v>8.3534029383398843E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.313553834989575</v>
       </c>
       <c r="AE82" s="26">
         <f t="shared" si="17"/>
-        <v>3.3770641941264334E-2</v>
+        <v>1.3934921772820763</v>
       </c>
       <c r="AF82" s="26">
         <f t="shared" si="22"/>
-        <v>-2.541723900292445E-2</v>
+        <v>-7.9938342292501297E-2</v>
       </c>
       <c r="AG82" s="26">
         <f t="shared" si="18"/>
-        <v>-5.154497867948532E-2</v>
+        <v>-1.0827647774398506E-2</v>
       </c>
       <c r="AH82" s="26">
         <f t="shared" si="19"/>
-        <v>9.7002659193842646</v>
+        <v>46.178081372597646</v>
       </c>
       <c r="AL82" s="26">
         <f t="shared" si="20"/>
-        <v>328.67202661502807</v>
+        <v>82.168006653757018</v>
       </c>
       <c r="AM82" s="26">
+        <f t="shared" si="13"/>
+        <v>2.3186952759466815</v>
+      </c>
+      <c r="AN82" s="26">
         <f t="shared" si="14"/>
-        <v>0.56141010156413229</v>
-      </c>
-      <c r="AN82" s="26">
+        <v>3.0192830717820307</v>
+      </c>
+      <c r="AO82" s="26">
         <f t="shared" si="15"/>
-        <v>17.007978123577757</v>
-      </c>
-      <c r="AO82" s="26">
-        <f t="shared" si="16"/>
-        <v>-16.446568022013626</v>
+        <v>-0.70058779583534925</v>
       </c>
       <c r="BB82" s="6">
         <f t="shared" si="23"/>
@@ -15654,11 +15654,11 @@
       </c>
       <c r="BC82" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD82" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="83" spans="1:56" x14ac:dyDescent="0.25">
@@ -15671,43 +15671,43 @@
       </c>
       <c r="AC83" s="26">
         <f t="shared" si="21"/>
-        <v>80.247203358886821</v>
+        <v>45.001051511860219</v>
       </c>
       <c r="AD83" s="26">
-        <f t="shared" si="13"/>
-        <v>4.190571052385573E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.1707200439574084</v>
       </c>
       <c r="AE83" s="26">
         <f t="shared" si="17"/>
-        <v>1.6907528270282381E-2</v>
+        <v>1.2142138001451954</v>
       </c>
       <c r="AF83" s="26">
         <f t="shared" si="22"/>
-        <v>-1.2716957217896809E-2</v>
+        <v>-4.3493756187787058E-2</v>
       </c>
       <c r="AG83" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1477310808907967E-2</v>
+        <v>-8.9068521598726358E-3</v>
       </c>
       <c r="AH83" s="26">
         <f t="shared" si="19"/>
-        <v>9.7130170971067269</v>
+        <v>56.136555432300987</v>
       </c>
       <c r="AL83" s="26">
         <f t="shared" si="20"/>
-        <v>384.54627113958281</v>
+        <v>96.136567784895703</v>
       </c>
       <c r="AM83" s="26">
+        <f t="shared" si="13"/>
+        <v>2.6069395852762454</v>
+      </c>
+      <c r="AN83" s="26">
         <f t="shared" si="14"/>
-        <v>0.4368974810105804</v>
-      </c>
-      <c r="AN83" s="26">
+        <v>3.6976873255212928</v>
+      </c>
+      <c r="AO83" s="26">
         <f t="shared" si="15"/>
-        <v>20.829509405084718</v>
-      </c>
-      <c r="AO83" s="26">
-        <f t="shared" si="16"/>
-        <v>-20.392611924074139</v>
+        <v>-1.0907477402450474</v>
       </c>
       <c r="BB83" s="6">
         <f t="shared" si="23"/>
@@ -15715,11 +15715,11 @@
       </c>
       <c r="BC83" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD83" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="84" spans="1:56" x14ac:dyDescent="0.25">
@@ -15735,43 +15735,43 @@
       </c>
       <c r="AC84" s="26">
         <f t="shared" si="21"/>
-        <v>80.123683336006209</v>
+        <v>42.559461856665529</v>
       </c>
       <c r="AD84" s="26">
-        <f t="shared" si="13"/>
-        <v>2.0987725445107048E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.0722970657617235</v>
       </c>
       <c r="AE84" s="26">
         <f t="shared" si="17"/>
-        <v>8.45934905376927E-3</v>
+        <v>1.0956343135094928</v>
       </c>
       <c r="AF84" s="26">
         <f t="shared" si="22"/>
-        <v>-6.3605765092585656E-3</v>
+        <v>-2.3337247747769352E-2</v>
       </c>
       <c r="AG84" s="26">
         <f t="shared" si="18"/>
-        <v>-5.14433337051802E-2</v>
+        <v>-7.599104491071873E-3</v>
       </c>
       <c r="AH84" s="26">
         <f t="shared" si="19"/>
-        <v>9.7194323148939201</v>
+        <v>65.797226579453664</v>
       </c>
       <c r="AL84" s="26">
         <f t="shared" si="20"/>
-        <v>449.91913723331186</v>
+        <v>112.47978430832796</v>
       </c>
       <c r="AM84" s="26">
+        <f t="shared" si="13"/>
+        <v>2.8650471660651888</v>
+      </c>
+      <c r="AN84" s="26">
         <f t="shared" si="14"/>
-        <v>0.31219678283942376</v>
-      </c>
-      <c r="AN84" s="26">
+        <v>4.4914203023962287</v>
+      </c>
+      <c r="AO84" s="26">
         <f t="shared" si="15"/>
-        <v>25.300701004447859</v>
-      </c>
-      <c r="AO84" s="26">
-        <f t="shared" si="16"/>
-        <v>-24.988504221608434</v>
+        <v>-1.6263731363310399</v>
       </c>
       <c r="BB84" s="6">
         <f t="shared" si="23"/>
@@ -15779,11 +15779,11 @@
       </c>
       <c r="BC84" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD84" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="85" spans="1:56" x14ac:dyDescent="0.25">
@@ -15799,43 +15799,43 @@
       </c>
       <c r="AC85" s="26">
         <f t="shared" si="21"/>
-        <v>80.061862143140772</v>
+        <v>41.023935678864703</v>
       </c>
       <c r="AD85" s="26">
-        <f t="shared" si="13"/>
-        <v>1.0502604999597721E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.0087487232169079</v>
       </c>
       <c r="AE85" s="26">
         <f t="shared" si="17"/>
-        <v>4.2310749284427034E-3</v>
+        <v>1.0210591671527289</v>
       </c>
       <c r="AF85" s="26">
         <f t="shared" si="22"/>
-        <v>-3.1808144284829311E-3</v>
+        <v>-1.2310443935821036E-2</v>
       </c>
       <c r="AG85" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1426309126995806E-2</v>
+        <v>-6.7611271424748015E-3</v>
       </c>
       <c r="AH85" s="26">
         <f t="shared" si="19"/>
-        <v>9.7226499137875955</v>
+        <v>73.952166475157142</v>
       </c>
       <c r="AL85" s="26">
         <f t="shared" si="20"/>
-        <v>526.40539056297484</v>
+        <v>131.60134764074371</v>
       </c>
       <c r="AM85" s="26">
+        <f t="shared" si="13"/>
+        <v>3.0754930026346599</v>
+      </c>
+      <c r="AN85" s="26">
         <f t="shared" si="14"/>
-        <v>0.20252453164927603</v>
-      </c>
-      <c r="AN85" s="26">
+        <v>5.4200878853399042</v>
+      </c>
+      <c r="AO85" s="26">
         <f t="shared" si="15"/>
-        <v>30.53199517570274</v>
-      </c>
-      <c r="AO85" s="26">
-        <f t="shared" si="16"/>
-        <v>-30.329470644053465</v>
+        <v>-2.3445948827052443</v>
       </c>
       <c r="BB85" s="6">
         <f t="shared" si="23"/>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="BC85" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD85" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="86" spans="1:56" x14ac:dyDescent="0.25">
@@ -15862,43 +15862,43 @@
       </c>
       <c r="AC86" s="26">
         <f t="shared" si="21"/>
-        <v>80.030936198011915</v>
+        <v>40.113551679539775</v>
       </c>
       <c r="AD86" s="26">
-        <f t="shared" si="13"/>
-        <v>5.2534911732898565E-4</v>
+        <f t="shared" si="16"/>
+        <v>0.97046133702228354</v>
       </c>
       <c r="AE86" s="26">
         <f t="shared" si="17"/>
-        <v>2.115888088320752E-3</v>
+        <v>0.97684499420535076</v>
       </c>
       <c r="AF86" s="26">
         <f t="shared" si="22"/>
-        <v>-1.5905389709917664E-3</v>
+        <v>-6.3836571830672151E-3</v>
       </c>
       <c r="AG86" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1417787801786581E-2</v>
+        <v>-6.2585675683561534E-3</v>
       </c>
       <c r="AH86" s="26">
         <f t="shared" si="19"/>
-        <v>9.7242612211843706</v>
+        <v>79.89048524905958</v>
       </c>
       <c r="AL86" s="26">
         <f t="shared" si="20"/>
-        <v>615.89430695868054</v>
+        <v>153.97357673967014</v>
       </c>
       <c r="AM86" s="26">
+        <f t="shared" si="13"/>
+        <v>3.2194527088915086</v>
+      </c>
+      <c r="AN86" s="26">
         <f t="shared" si="14"/>
-        <v>0.11760517999646554</v>
-      </c>
-      <c r="AN86" s="26">
+        <v>6.506628957384005</v>
+      </c>
+      <c r="AO86" s="26">
         <f t="shared" si="15"/>
-        <v>36.652609356070947</v>
-      </c>
-      <c r="AO86" s="26">
-        <f t="shared" si="16"/>
-        <v>-36.53500417607448</v>
+        <v>-3.2871762484924965</v>
       </c>
       <c r="BB86" s="6">
         <f t="shared" si="23"/>
@@ -15906,11 +15906,11 @@
       </c>
       <c r="BC86" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD86" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.25">
@@ -15920,43 +15920,43 @@
       </c>
       <c r="AC87" s="26">
         <f t="shared" si="21"/>
-        <v>80.015469381575514</v>
+        <v>39.603558209520891</v>
       </c>
       <c r="AD87" s="26">
-        <f t="shared" si="13"/>
-        <v>2.6272931438509257E-4</v>
+        <f t="shared" si="16"/>
+        <v>0.94881235099476502</v>
       </c>
       <c r="AE87" s="26">
         <f t="shared" si="17"/>
-        <v>1.0580317657881487E-3</v>
+        <v>0.95207639161329161</v>
       </c>
       <c r="AF87" s="26">
         <f t="shared" si="22"/>
-        <v>-7.9530245140305611E-4</v>
+        <v>-3.2640406185265869E-3</v>
       </c>
       <c r="AG87" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1413524876444142E-2</v>
+        <v>-5.9751535321938068E-3</v>
       </c>
       <c r="AH87" s="26">
         <f t="shared" si="19"/>
-        <v>9.7250675031830447</v>
+        <v>83.679858150259534</v>
       </c>
       <c r="AL87" s="26">
         <f t="shared" si="20"/>
-        <v>720.59633914165624</v>
+        <v>180.14908478541406</v>
       </c>
       <c r="AM87" s="26">
+        <f t="shared" si="13"/>
+        <v>3.2786340413968036</v>
+      </c>
+      <c r="AN87" s="26">
         <f t="shared" si="14"/>
-        <v>6.010529161747543E-2</v>
-      </c>
-      <c r="AN87" s="26">
+        <v>7.7778820116756027</v>
+      </c>
+      <c r="AO87" s="26">
         <f t="shared" si="15"/>
-        <v>43.813727947101754</v>
-      </c>
-      <c r="AO87" s="26">
-        <f t="shared" si="16"/>
-        <v>-43.753622655484278</v>
+        <v>-4.4992479702787991</v>
       </c>
       <c r="BB87" s="6">
         <f t="shared" si="23"/>
@@ -15964,11 +15964,11 @@
       </c>
       <c r="BC87" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD87" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.25">
@@ -15977,43 +15977,43 @@
       </c>
       <c r="AC88" s="26">
         <f t="shared" si="21"/>
-        <v>80.007735011550167</v>
+        <v>39.330423753565903</v>
       </c>
       <c r="AD88" s="26">
-        <f t="shared" si="13"/>
-        <v>1.3137835098810257E-4</v>
+        <f t="shared" si="16"/>
+        <v>0.93715838777586524</v>
       </c>
       <c r="AE88" s="26">
         <f t="shared" si="17"/>
-        <v>5.2903782150990253E-4</v>
+        <v>0.93881120452472577</v>
       </c>
       <c r="AF88" s="26">
         <f t="shared" si="22"/>
-        <v>-3.9765947052179998E-4</v>
+        <v>-1.6528167488605305E-3</v>
       </c>
       <c r="AG88" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1411392847623867E-2</v>
+        <v>-5.8228086326681805E-3</v>
       </c>
       <c r="AH88" s="26">
         <f t="shared" si="19"/>
-        <v>9.7254708014219649</v>
+        <v>85.869213903889786</v>
       </c>
       <c r="AL88" s="26">
         <f t="shared" si="20"/>
-        <v>843.09771679573771</v>
+        <v>210.77442919893443</v>
       </c>
       <c r="AM88" s="26">
+        <f t="shared" si="13"/>
+        <v>3.2378981189508913</v>
+      </c>
+      <c r="AN88" s="26">
         <f t="shared" si="14"/>
-        <v>2.6494523922076709E-2</v>
-      </c>
-      <c r="AN88" s="26">
+        <v>9.2652480851967702</v>
+      </c>
+      <c r="AO88" s="26">
         <f t="shared" si="15"/>
-        <v>52.192236698607786</v>
-      </c>
-      <c r="AO88" s="26">
-        <f t="shared" si="16"/>
-        <v>-52.165742174685711</v>
+        <v>-6.0273499662458789</v>
       </c>
       <c r="BB88" s="6">
         <f t="shared" si="23"/>
@@ -16021,11 +16021,11 @@
       </c>
       <c r="BC88" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD88" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="89" spans="1:56" x14ac:dyDescent="0.25">
@@ -16034,43 +16034,43 @@
       </c>
       <c r="AC89" s="26">
         <f t="shared" si="21"/>
-        <v>80.0038675859807</v>
+        <v>39.188497678614063</v>
       </c>
       <c r="AD89" s="26">
-        <f t="shared" si="13"/>
-        <v>6.5692599551484625E-5</v>
+        <f t="shared" si="16"/>
+        <v>0.93108631488731897</v>
       </c>
       <c r="AE89" s="26">
         <f t="shared" si="17"/>
-        <v>2.6452439643577828E-4</v>
+        <v>0.93191835048915794</v>
       </c>
       <c r="AF89" s="26">
         <f t="shared" si="22"/>
-        <v>-1.9883179688429364E-4</v>
+        <v>-8.3203560183897629E-4</v>
       </c>
       <c r="AG89" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1410326691618324E-2</v>
+        <v>-5.7434930375366913E-3</v>
       </c>
       <c r="AH89" s="26">
         <f t="shared" si="19"/>
-        <v>9.7256724898719114</v>
+        <v>87.055037192914128</v>
       </c>
       <c r="AL89" s="26">
         <f t="shared" si="20"/>
-        <v>986.42432865101307</v>
+        <v>246.60608216275327</v>
       </c>
       <c r="AM89" s="26">
+        <f t="shared" si="13"/>
+        <v>3.0884941547222979</v>
+      </c>
+      <c r="AN89" s="26">
         <f t="shared" si="14"/>
-        <v>9.8346144790020327E-3</v>
-      </c>
-      <c r="AN89" s="26">
+        <v>11.005466391216538</v>
+      </c>
+      <c r="AO89" s="26">
         <f t="shared" si="15"/>
-        <v>61.995091937869852</v>
-      </c>
-      <c r="AO89" s="26">
-        <f t="shared" si="16"/>
-        <v>-61.985257323390847</v>
+        <v>-7.9169722364942405</v>
       </c>
       <c r="BB89" s="6">
         <f t="shared" si="23"/>
@@ -16078,11 +16078,11 @@
       </c>
       <c r="BC89" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD89" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="90" spans="1:56" x14ac:dyDescent="0.25">
@@ -16091,43 +16091,43 @@
       </c>
       <c r="AC90" s="26">
         <f t="shared" si="21"/>
-        <v>80.001933813043635</v>
+        <v>39.116064788350144</v>
       </c>
       <c r="AD90" s="26">
-        <f t="shared" si="13"/>
-        <v>3.2847155866255367E-5</v>
+        <f t="shared" si="16"/>
+        <v>0.92798305273014181</v>
       </c>
       <c r="AE90" s="26">
         <f t="shared" si="17"/>
-        <v>1.3226356976675838E-4</v>
+        <v>0.92840053785231225</v>
       </c>
       <c r="AF90" s="26">
         <f t="shared" si="22"/>
-        <v>-9.9416413900503021E-5</v>
+        <v>-4.1748512217043565E-4</v>
       </c>
       <c r="AG90" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409793578209434E-2</v>
+        <v>-5.7029731215953519E-3</v>
       </c>
       <c r="AH90" s="26">
         <f t="shared" si="19"/>
-        <v>9.7257733439320813</v>
+        <v>87.673567688169257</v>
       </c>
       <c r="AL90" s="26">
         <f t="shared" si="20"/>
-        <v>1154.1164645216852</v>
+        <v>288.5291161304213</v>
       </c>
       <c r="AM90" s="26">
+        <f t="shared" si="13"/>
+        <v>2.8314134024739581</v>
+      </c>
+      <c r="AN90" s="26">
         <f t="shared" si="14"/>
-        <v>2.9884875448285223E-3</v>
-      </c>
-      <c r="AN90" s="26">
+        <v>13.041521809259665</v>
+      </c>
+      <c r="AO90" s="26">
         <f t="shared" si="15"/>
-        <v>73.464432567806469</v>
-      </c>
-      <c r="AO90" s="26">
-        <f t="shared" si="16"/>
-        <v>-73.461444080261643</v>
+        <v>-10.210108406785707</v>
       </c>
       <c r="BB90" s="6">
         <f t="shared" si="23"/>
@@ -16135,11 +16135,11 @@
       </c>
       <c r="BC90" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD90" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="91" spans="1:56" x14ac:dyDescent="0.25">
@@ -16148,43 +16148,43 @@
       </c>
       <c r="AC91" s="26">
         <f t="shared" si="21"/>
-        <v>80.000966911535372</v>
+        <v>39.079462378232733</v>
       </c>
       <c r="AD91" s="26">
-        <f t="shared" si="13"/>
-        <v>1.64237919652345E-5</v>
+        <f t="shared" si="16"/>
+        <v>0.92641376909752771</v>
       </c>
       <c r="AE91" s="26">
         <f t="shared" si="17"/>
-        <v>6.6132127786512257E-5</v>
+        <v>0.92662288656184344</v>
       </c>
       <c r="AF91" s="26">
         <f t="shared" si="22"/>
-        <v>-4.9708335821277761E-5</v>
+        <v>-2.0911746431573341E-4</v>
       </c>
       <c r="AG91" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409527012652542E-2</v>
+        <v>-5.6824867838306189E-3</v>
       </c>
       <c r="AH91" s="26">
         <f t="shared" si="19"/>
-        <v>9.725823773421288</v>
+        <v>87.989645910438028</v>
       </c>
       <c r="AL91" s="26">
         <f t="shared" si="20"/>
-        <v>1350.3162634903715</v>
+        <v>337.57906587259288</v>
       </c>
       <c r="AM91" s="26">
+        <f t="shared" si="13"/>
+        <v>2.48000001358196</v>
+      </c>
+      <c r="AN91" s="26">
         <f t="shared" si="14"/>
-        <v>7.1913736429525608E-4</v>
-      </c>
-      <c r="AN91" s="26">
+        <v>15.423706648370123</v>
+      </c>
+      <c r="AO91" s="26">
         <f t="shared" si="15"/>
-        <v>86.883561104832296</v>
-      </c>
-      <c r="AO91" s="26">
-        <f t="shared" si="16"/>
-        <v>-86.882841967467996</v>
+        <v>-12.943706634788164</v>
       </c>
       <c r="BB91" s="6">
         <f t="shared" si="23"/>
@@ -16192,11 +16192,11 @@
       </c>
       <c r="BC91" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD91" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.25">
@@ -16205,43 +16205,43 @@
       </c>
       <c r="AC92" s="26">
         <f t="shared" si="21"/>
-        <v>80.000483457021105</v>
+        <v>39.061062206593903</v>
       </c>
       <c r="AD92" s="26">
-        <f t="shared" si="13"/>
-        <v>8.2119494918476794E-6</v>
+        <f t="shared" si="16"/>
+        <v>0.92562460095377808</v>
       </c>
       <c r="AE92" s="26">
         <f t="shared" si="17"/>
-        <v>3.3066149621104797E-5</v>
+        <v>0.92572925445527754</v>
       </c>
       <c r="AF92" s="26">
         <f t="shared" si="22"/>
-        <v>-2.4854200129257116E-5</v>
+        <v>-1.0465350149946318E-4</v>
       </c>
       <c r="AG92" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409393727660874E-2</v>
+        <v>-5.6721855684895156E-3</v>
       </c>
       <c r="AH92" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258489887807116</v>
+        <v>88.149443272383692</v>
       </c>
       <c r="AL92" s="26">
         <f t="shared" si="20"/>
-        <v>1579.8700282837347</v>
+        <v>394.96750707093366</v>
       </c>
       <c r="AM92" s="26">
+        <f t="shared" si="13"/>
+        <v>2.0606835889227648</v>
+      </c>
+      <c r="AN92" s="26">
         <f t="shared" si="14"/>
-        <v>1.317948766825444E-4</v>
-      </c>
-      <c r="AN92" s="26">
+        <v>18.210862910129361</v>
+      </c>
+      <c r="AO92" s="26">
         <f t="shared" si="15"/>
-        <v>102.58394149315254</v>
-      </c>
-      <c r="AO92" s="26">
-        <f t="shared" si="16"/>
-        <v>-102.58380969827586</v>
+        <v>-16.150179321206597</v>
       </c>
       <c r="BB92" s="6">
         <f t="shared" si="23"/>
@@ -16249,11 +16249,11 @@
       </c>
       <c r="BC92" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD92" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.25">
@@ -16262,43 +16262,43 @@
       </c>
       <c r="AC93" s="26">
         <f t="shared" si="21"/>
-        <v>80.000241728823909</v>
+        <v>39.051837058700222</v>
       </c>
       <c r="AD93" s="26">
-        <f t="shared" si="13"/>
-        <v>4.1059881233479691E-6</v>
+        <f t="shared" si="16"/>
+        <v>0.9252288706487648</v>
       </c>
       <c r="AE93" s="26">
         <f t="shared" si="17"/>
-        <v>1.6533096242636062E-5</v>
+        <v>0.92528122122453227</v>
       </c>
       <c r="AF93" s="26">
         <f t="shared" si="22"/>
-        <v>-1.2427108119288094E-5</v>
+        <v>-5.2350575767468044E-5</v>
       </c>
       <c r="AG93" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409327084611718E-2</v>
+        <v>-5.6670202613164286E-3</v>
       </c>
       <c r="AH93" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258615966141342</v>
+        <v>88.229788662137551</v>
       </c>
       <c r="AL93" s="26">
         <f t="shared" si="20"/>
-        <v>1848.4479330919694</v>
+        <v>462.11198327299235</v>
       </c>
       <c r="AM93" s="26">
+        <f t="shared" si="13"/>
+        <v>1.6107526722388303</v>
+      </c>
+      <c r="AN93" s="26">
         <f t="shared" si="14"/>
-        <v>1.7572870904964109E-5</v>
-      </c>
-      <c r="AN93" s="26">
+        <v>21.471835736387668</v>
+      </c>
+      <c r="AO93" s="26">
         <f t="shared" si="15"/>
-        <v>120.9533865474872</v>
-      </c>
-      <c r="AO93" s="26">
-        <f t="shared" si="16"/>
-        <v>-120.9533689746163</v>
+        <v>-19.861083064148836</v>
       </c>
       <c r="BB93" s="6">
         <f t="shared" si="23"/>
@@ -16306,11 +16306,11 @@
       </c>
       <c r="BC93" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD93" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.25">
@@ -16319,43 +16319,43 @@
       </c>
       <c r="AC94" s="26">
         <f t="shared" si="21"/>
-        <v>80.000120864490299</v>
+        <v>39.047218178463915</v>
       </c>
       <c r="AD94" s="26">
-        <f t="shared" si="13"/>
-        <v>2.0529974061313301E-6</v>
+        <f t="shared" si="16"/>
+        <v>0.92503071707382722</v>
       </c>
       <c r="AE94" s="26">
         <f t="shared" si="17"/>
-        <v>8.2665534797034296E-6</v>
+        <v>0.92505689833469373</v>
       </c>
       <c r="AF94" s="26">
         <f t="shared" si="22"/>
-        <v>-6.2135560735720999E-6</v>
+        <v>-2.6181260866509071E-5</v>
       </c>
       <c r="AG94" s="26">
         <f t="shared" si="18"/>
-        <v>-5.140929376294881E-2</v>
+        <v>-5.6644339089482604E-3</v>
       </c>
       <c r="AH94" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258679005692734</v>
+        <v>88.270073945100918</v>
       </c>
       <c r="AL94" s="26">
         <f t="shared" si="20"/>
-        <v>2162.6840817176039</v>
+        <v>540.67102042940098</v>
       </c>
       <c r="AM94" s="26">
+        <f t="shared" si="13"/>
+        <v>1.1727090858419682</v>
+      </c>
+      <c r="AN94" s="26">
         <f t="shared" si="14"/>
-        <v>1.6156910517384388E-6</v>
-      </c>
-      <c r="AN94" s="26">
+        <v>25.287173943109885</v>
+      </c>
+      <c r="AO94" s="26">
         <f t="shared" si="15"/>
-        <v>142.44563726105875</v>
-      </c>
-      <c r="AO94" s="26">
-        <f t="shared" si="16"/>
-        <v>-142.4456356453677</v>
+        <v>-24.114464857267915</v>
       </c>
       <c r="BB94" s="6">
         <f t="shared" si="23"/>
@@ -16363,11 +16363,11 @@
       </c>
       <c r="BC94" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD94" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.25">
@@ -16376,43 +16376,43 @@
       </c>
       <c r="AC95" s="26">
         <f t="shared" si="21"/>
-        <v>80.000060432264732</v>
+        <v>39.044907156631254</v>
       </c>
       <c r="AD95" s="26">
-        <f t="shared" si="13"/>
-        <v>1.026499539121005E-6</v>
+        <f t="shared" si="16"/>
+        <v>0.92493156794564313</v>
       </c>
       <c r="AE95" s="26">
         <f t="shared" si="17"/>
-        <v>4.1332780792050757E-6</v>
+        <v>0.92494466007142218</v>
       </c>
       <c r="AF95" s="26">
         <f t="shared" si="22"/>
-        <v>-3.1067785400840707E-6</v>
+        <v>-1.3092125779046171E-5</v>
       </c>
       <c r="AG95" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409277102082776E-2</v>
+        <v>-5.6631398050537227E-3</v>
       </c>
       <c r="AH95" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258710525564496</v>
+        <v>88.290244848591868</v>
       </c>
       <c r="AL95" s="26">
         <f t="shared" si="20"/>
-        <v>2530.3403756095963</v>
+        <v>632.58509390239908</v>
       </c>
       <c r="AM95" s="26">
+        <f t="shared" si="13"/>
+        <v>0.78598773784914444</v>
+      </c>
+      <c r="AN95" s="26">
         <f t="shared" si="14"/>
-        <v>9.6198473648456192E-8</v>
-      </c>
-      <c r="AN95" s="26">
+        <v>29.751119644974878</v>
+      </c>
+      <c r="AO95" s="26">
         <f t="shared" si="15"/>
-        <v>167.59157059593747</v>
-      </c>
-      <c r="AO95" s="26">
-        <f t="shared" si="16"/>
-        <v>-167.59157049973899</v>
+        <v>-28.965131907125734</v>
       </c>
       <c r="BB95" s="6">
         <f t="shared" si="23"/>
@@ -16420,11 +16420,11 @@
       </c>
       <c r="BC95" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD95" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="96" spans="1:56" x14ac:dyDescent="0.25">
@@ -16433,43 +16433,43 @@
       </c>
       <c r="AC96" s="26">
         <f t="shared" si="21"/>
-        <v>80.000030216137262</v>
+        <v>39.043751249640636</v>
       </c>
       <c r="AD96" s="26">
-        <f t="shared" si="13"/>
-        <v>5.1324997857450586E-7</v>
+        <f t="shared" si="16"/>
+        <v>0.92488197526685167</v>
       </c>
       <c r="AE96" s="26">
         <f t="shared" si="17"/>
-        <v>2.0666393744408778E-6</v>
+        <v>0.92488852170384084</v>
       </c>
       <c r="AF96" s="26">
         <f t="shared" si="22"/>
-        <v>-1.553389395866372E-6</v>
+        <v>-6.5464369891632401E-6</v>
       </c>
       <c r="AG96" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409268771641113E-2</v>
+        <v>-5.6624925208002552E-3</v>
       </c>
       <c r="AH96" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258726285524393</v>
+        <v>88.300337380284461</v>
       </c>
       <c r="AL96" s="26">
         <f t="shared" si="20"/>
-        <v>2960.4982394632275</v>
+        <v>740.12455986580687</v>
       </c>
       <c r="AM96" s="26">
+        <f t="shared" si="13"/>
+        <v>0.47833840315632248</v>
+      </c>
+      <c r="AN96" s="26">
         <f t="shared" si="14"/>
-        <v>3.4461278499147496E-9</v>
-      </c>
-      <c r="AN96" s="26">
+        <v>34.973936116156921</v>
+      </c>
+      <c r="AO96" s="26">
         <f t="shared" si="15"/>
-        <v>197.01231259774556</v>
-      </c>
-      <c r="AO96" s="26">
-        <f t="shared" si="16"/>
-        <v>-197.01231259429943</v>
+        <v>-34.495597713000599</v>
       </c>
       <c r="BB96" s="6">
         <f t="shared" si="23"/>
@@ -16477,11 +16477,11 @@
       </c>
       <c r="BC96" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD96" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="97" spans="28:56" x14ac:dyDescent="0.25">
@@ -16490,43 +16490,43 @@
       </c>
       <c r="AC97" s="26">
         <f t="shared" si="21"/>
-        <v>80.00001510806986</v>
+        <v>39.043173197045853</v>
       </c>
       <c r="AD97" s="26">
-        <f t="shared" si="13"/>
-        <v>2.5662504163129424E-7</v>
+        <f t="shared" si="16"/>
+        <v>0.9248571743950823</v>
       </c>
       <c r="AE97" s="26">
         <f t="shared" si="17"/>
-        <v>1.033319771294507E-6</v>
+        <v>0.9248604477071346</v>
       </c>
       <c r="AF97" s="26">
         <f t="shared" si="22"/>
-        <v>-7.7669472966321277E-7</v>
+        <v>-3.2733120522987491E-6</v>
       </c>
       <c r="AG97" s="26">
         <f t="shared" si="18"/>
-        <v>-5.140926460641812E-2</v>
+        <v>-5.6621688205495402E-3</v>
       </c>
       <c r="AH97" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258734165510354</v>
+        <v>88.305385417927653</v>
       </c>
       <c r="AL97" s="26">
         <f t="shared" si="20"/>
-        <v>3463.782940171976</v>
+        <v>865.94573504299399</v>
       </c>
       <c r="AM97" s="26">
+        <f t="shared" si="13"/>
+        <v>0.26010081935377771</v>
+      </c>
+      <c r="AN97" s="26">
         <f t="shared" si="14"/>
-        <v>6.8148298245855803E-11</v>
-      </c>
-      <c r="AN97" s="26">
+        <v>41.084631387439913</v>
+      </c>
+      <c r="AO97" s="26">
         <f t="shared" si="15"/>
-        <v>231.43458073986102</v>
-      </c>
-      <c r="AO97" s="26">
-        <f t="shared" si="16"/>
-        <v>-231.43458073979286</v>
+        <v>-40.824530568086132</v>
       </c>
       <c r="BB97" s="6">
         <f t="shared" si="23"/>
@@ -16534,11 +16534,11 @@
       </c>
       <c r="BC97" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD97" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="98" spans="28:56" x14ac:dyDescent="0.25">
@@ -16547,43 +16547,43 @@
       </c>
       <c r="AC98" s="26">
         <f t="shared" si="21"/>
-        <v>80.000007554035236</v>
+        <v>39.042884145963484</v>
       </c>
       <c r="AD98" s="26">
-        <f t="shared" si="13"/>
-        <v>1.2831253387148694E-7</v>
+        <f>IF(B$20="Inline",0.5*B$23*($AC98-$B$16)/EXP(B$23*($AC98-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
+        <v>0.92484477282564237</v>
       </c>
       <c r="AE98" s="26">
         <f t="shared" si="17"/>
-        <v>5.1665990654427616E-7</v>
+        <v>0.9248464095050617</v>
       </c>
       <c r="AF98" s="26">
         <f t="shared" si="22"/>
-        <v>-3.8834737267278922E-7</v>
+        <v>-1.6366794193256595E-6</v>
       </c>
       <c r="AG98" s="26">
         <f t="shared" si="18"/>
-        <v>-5.1409262523806079E-2</v>
+        <v>-5.6620069558872416E-3</v>
       </c>
       <c r="AH98" s="26">
         <f t="shared" si="19"/>
-        <v>9.7258738105504836</v>
+        <v>88.307909879925177</v>
       </c>
       <c r="AL98" s="26">
         <f t="shared" si="20"/>
-        <v>4052.6260400012115</v>
+        <v>1013.1565100003029</v>
       </c>
       <c r="AM98" s="26">
+        <f t="shared" si="13"/>
+        <v>0.12399913834241202</v>
+      </c>
+      <c r="AN98" s="26">
         <f t="shared" si="14"/>
-        <v>6.7262195404104329E-13</v>
-      </c>
-      <c r="AN98" s="26">
+        <v>48.234144854841013</v>
+      </c>
+      <c r="AO98" s="26">
         <f t="shared" si="15"/>
-        <v>271.70863446613612</v>
-      </c>
-      <c r="AO98" s="26">
-        <f t="shared" si="16"/>
-        <v>-271.70863446613544</v>
+        <v>-48.1101457164986</v>
       </c>
       <c r="BB98" s="6">
         <f t="shared" si="23"/>
@@ -16591,11 +16591,11 @@
       </c>
       <c r="BC98" s="26">
         <f t="shared" si="24"/>
-        <v>0.27392661286054204</v>
+        <v>7.9235764977373098</v>
       </c>
       <c r="BD98" s="26">
         <f t="shared" si="25"/>
-        <v>21.844027389503744</v>
+        <v>117.48332416073588</v>
       </c>
     </row>
     <row r="99" spans="28:56" x14ac:dyDescent="0.25">
@@ -16683,31 +16683,31 @@
       </c>
       <c r="AC104">
         <f>AC67</f>
-        <v>256.42679146617985</v>
+        <v>490.55817114152734</v>
       </c>
       <c r="AD104" s="26">
-        <f>0.05*B$24*($AC104-$B$16)/EXP(B$24*($AC104-$B$37))</f>
-        <v>0.16047110165191977</v>
+        <f>IF(B$20="Inline",0.05*B$24*($AC104-$B$16)/EXP(B$24*($AC104-$B$37)),0.05*B$24/EXP(B$24*B$40))</f>
+        <v>0.27267843119288454</v>
       </c>
       <c r="AE104" s="26">
         <f>IF(B$20="Inline",2*(AC104-B$16)/(B$21*(B$38+B$27)),AD104)</f>
-        <v>12.066749326473948</v>
+        <v>22.853367783354283</v>
       </c>
       <c r="AF104" s="26">
         <f>AD104-AE104</f>
-        <v>-11.906278224822028</v>
+        <v>-22.5806893521614</v>
       </c>
       <c r="AG104" s="26">
         <f>0.05*((B$24^2)*B$16+B$24-(B$24^2)*AC104)*EXP(-B$24*(AC104-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-7.0404826902442111E-2</v>
+        <v>-5.1147257374219338E-2</v>
       </c>
       <c r="AH104" s="26">
         <f>-0.5/AG104</f>
-        <v>7.1017858007496448</v>
+        <v>9.7756952311586485</v>
       </c>
       <c r="AL104" s="6">
         <f>B16</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM104">
         <f t="shared" ref="AM104:AM129" si="26">IF(B$20="Inline",0.05*B$24*($AL104-$B$16)/EXP(B$24*($AL104-$B$37)),0.5*B$24/EXP(B$24*B$40))</f>
@@ -16723,15 +16723,15 @@
       </c>
       <c r="BB104" s="6">
         <f>B17</f>
-        <v>2.2208141581712839</v>
+        <v>1</v>
       </c>
       <c r="BC104" s="6">
         <f>B60</f>
-        <v>0.60834010014059581</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD104" s="26">
         <f>$B$15*SQRT(BC104/1.2)</f>
-        <v>32.552835319186997</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="105" spans="28:56" x14ac:dyDescent="0.25">
@@ -16740,56 +16740,56 @@
       </c>
       <c r="AC105" s="26">
         <f>AC104+AH104*AF104</f>
-        <v>171.87095382936408</v>
+        <v>269.81623392532828</v>
       </c>
       <c r="AD105" s="26">
-        <f t="shared" ref="AD105:AD129" si="28">0.05*B$24*($AC105-$B$16)/EXP(B$24*($AC105-$B$37))</f>
-        <v>0.38907350348564024</v>
+        <f t="shared" ref="AD105:AD129" si="28">IF(B$20="Inline",0.05*B$24*($AC105-$B$16)/EXP(B$24*($AC105-$B$37)),0.05*B$24/EXP(B$24*B$40))</f>
+        <v>1.8694585964397328</v>
       </c>
       <c r="AE105" s="26">
         <f t="shared" ref="AE105:AE129" si="29">IF(B$20="Inline",2*(AC105-B$16)/(B$21*(B$38+B$27)),AD105)</f>
-        <v>6.2835341561800622</v>
+        <v>12.132702442076784</v>
       </c>
       <c r="AF105" s="26">
         <f>AD105-AE105</f>
-        <v>-5.8944606526944217</v>
+        <v>-10.263243845637051</v>
       </c>
       <c r="AG105" s="26">
         <f>0.05*((B$24^2)*B$16+B$24-(B$24^2)*AC105)*EXP(-B$24*(AC105-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-7.1237949790986424E-2</v>
+        <v>-6.2749402416264408E-2</v>
       </c>
       <c r="AH105" s="26">
         <f t="shared" ref="AH105:AH129" si="30">-0.3/AG105</f>
-        <v>4.21123854462693</v>
+        <v>4.7809220239241856</v>
       </c>
       <c r="AI105" s="26"/>
       <c r="AL105" s="26">
         <f>AL104*1.17</f>
-        <v>93.6</v>
+        <v>23.4</v>
       </c>
       <c r="AM105" s="26">
         <f t="shared" si="26"/>
-        <v>0.23919971501086523</v>
+        <v>0.44244364911585893</v>
       </c>
       <c r="AN105" s="26">
         <f t="shared" si="27"/>
-        <v>0.9301750004987438</v>
+        <v>0.16512613153631683</v>
       </c>
       <c r="AO105" s="26">
         <f t="shared" ref="AO105:AO129" si="31">AM105-AN105</f>
-        <v>-0.69097528548787857</v>
+        <v>0.27731751757954209</v>
       </c>
       <c r="BB105" s="6">
         <f t="shared" ref="BB105:BB129" si="32">IF(CHOOSE($D$13,1,3,5.22761/(1+(95/BD104)^2),3.9207/(1+(40/BD104)^2),1.59593/(1+(10/BD104)^2))&lt;1,1,CHOOSE($D$13,1,3,5.22761/(1+(95/BD104)^2),3.9207/(1+(40/BD104)^2),1.59593/(1+(10/BD104)^2)))</f>
-        <v>1.5621067542338256</v>
+        <v>1</v>
       </c>
       <c r="BC105" s="26">
         <f t="shared" ref="BC105:BC129" si="33">BC104/BB104*BB105</f>
-        <v>0.42790261211384706</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD105" s="26">
         <f t="shared" ref="BD105:BD129" si="34">$B$15*SQRT(BC105/1.2)</f>
-        <v>27.301597992145034</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="106" spans="28:56" x14ac:dyDescent="0.25">
@@ -16798,56 +16798,56 @@
       </c>
       <c r="AC106" s="26">
         <f t="shared" ref="AC106:AC129" si="35">AC105+AH105*AF105</f>
-        <v>147.04797392895051</v>
+        <v>220.74846538681774</v>
       </c>
       <c r="AD106" s="26">
         <f t="shared" si="28"/>
-        <v>0.44601497634632198</v>
+        <v>2.6528923967137756</v>
       </c>
       <c r="AE106" s="26">
         <f t="shared" si="29"/>
-        <v>4.5857609693236272</v>
+        <v>9.7496522062286548</v>
       </c>
       <c r="AF106" s="26">
         <f>AD106-AE106</f>
-        <v>-4.1397459929773053</v>
+        <v>-7.0967598095148787</v>
       </c>
       <c r="AG106" s="26">
         <f>0.05*((B$24^2)*B$16+B$24-(B$24^2)*AC106)*EXP(-B$24*(AC106-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-6.9856609123426033E-2</v>
+        <v>-6.6097394227403322E-2</v>
       </c>
       <c r="AH106" s="26">
         <f t="shared" si="30"/>
-        <v>4.294511339219822</v>
+        <v>4.5387568376428211</v>
       </c>
       <c r="AI106" s="26"/>
       <c r="AL106" s="26">
         <f t="shared" ref="AL106:AL129" si="36">AL105*1.17</f>
-        <v>109.51199999999999</v>
+        <v>27.377999999999997</v>
       </c>
       <c r="AM106" s="26">
         <f t="shared" si="26"/>
-        <v>0.38860639522661461</v>
+        <v>0.91684364709824651</v>
       </c>
       <c r="AN106" s="26">
         <f t="shared" si="27"/>
-        <v>2.0184797510822738</v>
+        <v>0.35832370543380748</v>
       </c>
       <c r="AO106" s="26">
         <f t="shared" si="31"/>
-        <v>-1.6298733558556593</v>
+        <v>0.55851994166443908</v>
       </c>
       <c r="BB106" s="6">
         <f t="shared" si="32"/>
-        <v>1.2460258117953578</v>
+        <v>1</v>
       </c>
       <c r="BC106" s="26">
         <f t="shared" si="33"/>
-        <v>0.34131963016190958</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD106" s="26">
         <f t="shared" si="34"/>
-        <v>24.383510534933141</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="107" spans="28:56" x14ac:dyDescent="0.25">
@@ -16856,56 +16856,56 @@
       </c>
       <c r="AC107" s="26">
         <f t="shared" si="35"/>
-        <v>129.26978782061965</v>
+        <v>188.53799827627333</v>
       </c>
       <c r="AD107" s="26">
         <f t="shared" si="28"/>
-        <v>0.45289596974491386</v>
+        <v>3.2351154790088001</v>
       </c>
       <c r="AE107" s="26">
         <f t="shared" si="29"/>
-        <v>3.3698180081336697</v>
+        <v>8.1853022565398401</v>
       </c>
       <c r="AF107" s="26">
         <f>AD107-AE107</f>
-        <v>-2.9169220383887557</v>
+        <v>-4.95018677753104</v>
       </c>
       <c r="AG107" s="26">
         <f>0.05*((B$24^2)*B$16+B$24-(B$24^2)*AC107)*EXP(-B$24*(AC107-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-6.7441795721288916E-2</v>
+        <v>-6.6864948972787719E-2</v>
       </c>
       <c r="AH107" s="26">
         <f t="shared" si="30"/>
-        <v>4.4482801323942347</v>
+        <v>4.4866556336129433</v>
       </c>
       <c r="AI107" s="26"/>
       <c r="AL107" s="26">
         <f t="shared" si="36"/>
-        <v>128.12903999999997</v>
+        <v>32.032259999999994</v>
       </c>
       <c r="AM107" s="26">
         <f t="shared" si="26"/>
-        <v>0.45168667190810635</v>
+        <v>1.4166990619973747</v>
       </c>
       <c r="AN107" s="26">
         <f t="shared" si="27"/>
-        <v>3.2917963092650044</v>
+        <v>0.58436486689387157</v>
       </c>
       <c r="AO107" s="26">
         <f t="shared" si="31"/>
-        <v>-2.8401096373568979</v>
+        <v>0.83233419510350315</v>
       </c>
       <c r="BB107" s="6">
         <f t="shared" si="32"/>
-        <v>1.0622078114228126</v>
+        <v>1</v>
       </c>
       <c r="BC107" s="26">
         <f t="shared" si="33"/>
-        <v>0.29096698793706044</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD107" s="26">
         <f t="shared" si="34"/>
-        <v>22.513211837300773</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="108" spans="28:56" x14ac:dyDescent="0.25">
@@ -16914,44 +16914,44 @@
       </c>
       <c r="AC108" s="26">
         <f t="shared" si="35"/>
-        <v>116.29450146951206</v>
+        <v>166.32821488342739</v>
       </c>
       <c r="AD108" s="26">
         <f t="shared" si="28"/>
-        <v>0.42244285343535826</v>
+        <v>3.633358615094247</v>
       </c>
       <c r="AE108" s="26">
         <f t="shared" si="29"/>
-        <v>2.4823704354783125</v>
+        <v>7.1066506053868457</v>
       </c>
       <c r="AF108" s="26">
         <f t="shared" ref="AF108:AF129" si="37">AD108-AE108</f>
-        <v>-2.0599275820429543</v>
+        <v>-3.4732919902925987</v>
       </c>
       <c r="AG108" s="26">
         <f t="shared" ref="AG108:AG129" si="38">0.05*((B$24^2)*B$16+B$24-(B$24^2)*AC108)*EXP(-B$24*(AC108-B$37))-2/(B$21*(B$38+B$27))</f>
-        <v>-6.444067255136976E-2</v>
+        <v>-6.584538841757287E-2</v>
       </c>
       <c r="AH108" s="26">
         <f t="shared" si="30"/>
-        <v>4.6554448940744821</v>
+        <v>4.5561277290595452</v>
       </c>
       <c r="AI108" s="26"/>
       <c r="AL108" s="26">
         <f t="shared" si="36"/>
-        <v>149.91097679999996</v>
+        <v>37.477744199999989</v>
       </c>
       <c r="AM108" s="26">
         <f t="shared" si="26"/>
-        <v>0.44145903962791883</v>
+        <v>1.9319998461305259</v>
       </c>
       <c r="AN108" s="26">
         <f t="shared" si="27"/>
-        <v>4.7815766823387982</v>
+        <v>0.84883302580214648</v>
       </c>
       <c r="AO108" s="26">
         <f t="shared" si="31"/>
-        <v>-4.3401176427108794</v>
+        <v>1.0831668203283793</v>
       </c>
       <c r="BB108" s="6">
         <f t="shared" si="32"/>
@@ -16959,11 +16959,11 @@
       </c>
       <c r="BC108" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD108" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="109" spans="28:56" x14ac:dyDescent="0.25">
@@ -16972,44 +16972,44 @@
       </c>
       <c r="AC109" s="26">
         <f t="shared" si="35"/>
-        <v>106.704622125527</v>
+        <v>150.50345293533488</v>
       </c>
       <c r="AD109" s="26">
         <f t="shared" si="28"/>
-        <v>0.37006415439736651</v>
+        <v>3.8927165050794326</v>
       </c>
       <c r="AE109" s="26">
         <f t="shared" si="29"/>
-        <v>1.8264685219802095</v>
+        <v>6.3380971574540137</v>
       </c>
       <c r="AF109" s="26">
         <f t="shared" si="37"/>
-        <v>-1.4564043675828429</v>
+        <v>-2.4453806523745811</v>
       </c>
       <c r="AG109" s="26">
         <f t="shared" si="38"/>
-        <v>-6.1269464580117748E-2</v>
+        <v>-6.3852978253328974E-2</v>
       </c>
       <c r="AH109" s="26">
         <f t="shared" si="30"/>
-        <v>4.8964031603003679</v>
+        <v>4.6982929881482782</v>
       </c>
       <c r="AI109" s="26"/>
       <c r="AL109" s="26">
         <f t="shared" si="36"/>
-        <v>175.39584285599994</v>
+        <v>43.848960713999986</v>
       </c>
       <c r="AM109" s="26">
         <f t="shared" si="26"/>
-        <v>0.37890907358218978</v>
+        <v>2.4486290620597355</v>
       </c>
       <c r="AN109" s="26">
         <f t="shared" si="27"/>
-        <v>6.5246197188351376</v>
+        <v>1.1582607717248281</v>
       </c>
       <c r="AO109" s="26">
         <f t="shared" si="31"/>
-        <v>-6.1457106452529482</v>
+        <v>1.2903682903349074</v>
       </c>
       <c r="BB109" s="6">
         <f t="shared" si="32"/>
@@ -17017,11 +17017,11 @@
       </c>
       <c r="BC109" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD109" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="110" spans="28:56" x14ac:dyDescent="0.25">
@@ -17030,44 +17030,44 @@
       </c>
       <c r="AC110" s="26">
         <f t="shared" si="35"/>
-        <v>99.573479177419102</v>
+        <v>139.01433816292993</v>
       </c>
       <c r="AD110" s="26">
         <f t="shared" si="28"/>
-        <v>0.30881413584376649</v>
+        <v>4.0556277159549055</v>
       </c>
       <c r="AE110" s="26">
         <f t="shared" si="29"/>
-        <v>1.3387324267366156</v>
+        <v>5.7801109582940198</v>
       </c>
       <c r="AF110" s="26">
         <f t="shared" si="37"/>
-        <v>-1.0299182908928493</v>
+        <v>-1.7244832423391143</v>
       </c>
       <c r="AG110" s="26">
         <f t="shared" si="38"/>
-        <v>-5.8235761159409871E-2</v>
+        <v>-6.1492706450684012E-2</v>
       </c>
       <c r="AH110" s="26">
         <f t="shared" si="30"/>
-        <v>5.1514738371634605</v>
+        <v>4.8786273578736417</v>
       </c>
       <c r="AI110" s="26"/>
       <c r="AL110" s="26">
         <f t="shared" si="36"/>
-        <v>205.21313614151993</v>
+        <v>51.303284035379981</v>
       </c>
       <c r="AM110" s="26">
         <f t="shared" si="26"/>
-        <v>0.28912673221826096</v>
+        <v>2.9479742644669491</v>
       </c>
       <c r="AN110" s="26">
         <f t="shared" si="27"/>
-        <v>8.5639800715358554</v>
+        <v>1.5202912344543658</v>
       </c>
       <c r="AO110" s="26">
         <f t="shared" si="31"/>
-        <v>-8.2748533393175947</v>
+        <v>1.4276830300125833</v>
       </c>
       <c r="BB110" s="6">
         <f t="shared" si="32"/>
@@ -17075,11 +17075,11 @@
       </c>
       <c r="BC110" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD110" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="111" spans="28:56" x14ac:dyDescent="0.25">
@@ -17088,44 +17088,44 @@
       </c>
       <c r="AC111" s="26">
         <f t="shared" si="35"/>
-        <v>94.267882047468476</v>
+        <v>130.60122703865969</v>
       </c>
       <c r="AD111" s="26">
         <f t="shared" si="28"/>
-        <v>0.24791611329475824</v>
+        <v>4.1549361311550177</v>
       </c>
       <c r="AE111" s="26">
         <f t="shared" si="29"/>
-        <v>0.97585494048676569</v>
+        <v>5.3715155188422843</v>
       </c>
       <c r="AF111" s="26">
         <f t="shared" si="37"/>
-        <v>-0.72793882719200742</v>
+        <v>-1.2165793876872666</v>
       </c>
       <c r="AG111" s="26">
         <f t="shared" si="38"/>
-        <v>-5.5529304628468036E-2</v>
+        <v>-5.9153630278125584E-2</v>
       </c>
       <c r="AH111" s="26">
         <f t="shared" si="30"/>
-        <v>5.4025527963517828</v>
+        <v>5.0715399644869636</v>
       </c>
       <c r="AI111" s="26"/>
       <c r="AL111" s="26">
         <f t="shared" si="36"/>
-        <v>240.09936928557829</v>
+        <v>60.024842321394573</v>
       </c>
       <c r="AM111" s="26">
         <f t="shared" si="26"/>
-        <v>0.19598117181635075</v>
+        <v>3.4069464047747804</v>
       </c>
       <c r="AN111" s="26">
         <f t="shared" si="27"/>
-        <v>10.950031684195693</v>
+        <v>1.9438668758479245</v>
       </c>
       <c r="AO111" s="26">
         <f t="shared" si="31"/>
-        <v>-10.754050512379342</v>
+        <v>1.4630795289268559</v>
       </c>
       <c r="BB111" s="6">
         <f t="shared" si="32"/>
@@ -17133,11 +17133,11 @@
       </c>
       <c r="BC111" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD111" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="112" spans="28:56" x14ac:dyDescent="0.25">
@@ -17146,44 +17146,44 @@
       </c>
       <c r="AC112" s="26">
         <f t="shared" si="35"/>
-        <v>90.335154101049255</v>
+        <v>124.43129605403263</v>
       </c>
       <c r="AD112" s="26">
         <f t="shared" si="28"/>
-        <v>0.19289996442521903</v>
+        <v>4.2139571401174152</v>
       </c>
       <c r="AE112" s="26">
         <f t="shared" si="29"/>
-        <v>0.70687514493368309</v>
+        <v>5.071863508448895</v>
       </c>
       <c r="AF112" s="26">
         <f t="shared" si="37"/>
-        <v>-0.51397518050846402</v>
+        <v>-0.85790636833147982</v>
       </c>
       <c r="AG112" s="26">
         <f t="shared" si="38"/>
-        <v>-5.3239860339380496E-2</v>
+        <v>-5.7052998341049918E-2</v>
       </c>
       <c r="AH112" s="26">
         <f t="shared" si="30"/>
-        <v>5.6348757883216267</v>
+        <v>5.2582687803131369</v>
       </c>
       <c r="AI112" s="26"/>
       <c r="AL112" s="26">
         <f t="shared" si="36"/>
-        <v>280.91626206412656</v>
+        <v>70.229065516031639</v>
       </c>
       <c r="AM112" s="26">
         <f t="shared" si="26"/>
-        <v>0.11705012371292639</v>
+        <v>3.7986560934954023</v>
       </c>
       <c r="AN112" s="26">
         <f t="shared" si="27"/>
-        <v>13.741712071007703</v>
+        <v>2.4394503762783879</v>
       </c>
       <c r="AO112" s="26">
         <f t="shared" si="31"/>
-        <v>-13.624661947294776</v>
+        <v>1.3592057172170144</v>
       </c>
       <c r="BB112" s="6">
         <f t="shared" si="32"/>
@@ -17191,11 +17191,11 @@
       </c>
       <c r="BC112" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD112" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="113" spans="28:56" x14ac:dyDescent="0.25">
@@ -17204,44 +17204,44 @@
       </c>
       <c r="AC113" s="26">
         <f t="shared" si="35"/>
-        <v>87.438967800603876</v>
+        <v>119.92019378100339</v>
       </c>
       <c r="AD113" s="26">
         <f t="shared" si="28"/>
-        <v>0.14635540632026675</v>
+        <v>4.2483314292460372</v>
       </c>
       <c r="AE113" s="26">
         <f t="shared" si="29"/>
-        <v>0.50878984394388627</v>
+        <v>4.8527750180635998</v>
       </c>
       <c r="AF113" s="26">
         <f t="shared" si="37"/>
-        <v>-0.36243443762361949</v>
+        <v>-0.60444358881756255</v>
       </c>
       <c r="AG113" s="26">
         <f t="shared" si="38"/>
-        <v>-5.138345178239169E-2</v>
+        <v>-5.5285613952013472E-2</v>
       </c>
       <c r="AH113" s="26">
         <f t="shared" si="30"/>
-        <v>5.838455564847929</v>
+        <v>5.4263664370335558</v>
       </c>
       <c r="AI113" s="26"/>
       <c r="AL113" s="26">
         <f t="shared" si="36"/>
-        <v>328.67202661502807</v>
+        <v>82.168006653757018</v>
       </c>
       <c r="AM113" s="26">
         <f t="shared" si="26"/>
-        <v>6.0770978500785902E-2</v>
+        <v>4.0940174817324175</v>
       </c>
       <c r="AN113" s="26">
         <f t="shared" si="27"/>
-        <v>17.007978123577757</v>
+        <v>3.0192830717820307</v>
       </c>
       <c r="AO113" s="26">
         <f t="shared" si="31"/>
-        <v>-16.947207145076973</v>
+        <v>1.0747344099503868</v>
       </c>
       <c r="BB113" s="6">
         <f t="shared" si="32"/>
@@ -17249,11 +17249,11 @@
       </c>
       <c r="BC113" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD113" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="114" spans="28:56" x14ac:dyDescent="0.25">
@@ -17262,44 +17262,44 @@
       </c>
       <c r="AC114" s="26">
         <f t="shared" si="35"/>
-        <v>85.322910441367725</v>
+        <v>116.64026137756366</v>
       </c>
       <c r="AD114" s="26">
         <f t="shared" si="28"/>
-        <v>0.10883356474661603</v>
+        <v>4.2680752012728949</v>
       </c>
       <c r="AE114" s="26">
         <f t="shared" si="29"/>
-        <v>0.36406163400397018</v>
+        <v>4.6934801505693002</v>
       </c>
       <c r="AF114" s="26">
         <f t="shared" si="37"/>
-        <v>-0.25522806925735414</v>
+        <v>-0.42540494929640538</v>
       </c>
       <c r="AG114" s="26">
         <f t="shared" si="38"/>
-        <v>-4.9928786735871249E-2</v>
+        <v>-5.3867115558661575E-2</v>
       </c>
       <c r="AH114" s="26">
         <f t="shared" si="30"/>
-        <v>6.0085577802447485</v>
+        <v>5.5692605198676066</v>
       </c>
       <c r="AI114" s="26"/>
       <c r="AL114" s="26">
         <f t="shared" si="36"/>
-        <v>384.54627113958281</v>
+        <v>96.136567784895703</v>
       </c>
       <c r="AM114" s="26">
         <f t="shared" si="26"/>
-        <v>2.6933712269719863E-2</v>
+        <v>4.2645013414842827</v>
       </c>
       <c r="AN114" s="26">
         <f t="shared" si="27"/>
-        <v>20.829509405084718</v>
+        <v>3.6976873255212928</v>
       </c>
       <c r="AO114" s="26">
         <f t="shared" si="31"/>
-        <v>-20.802575692814997</v>
+        <v>0.56681401596298997</v>
       </c>
       <c r="BB114" s="6">
         <f t="shared" si="32"/>
@@ -17307,11 +17307,11 @@
       </c>
       <c r="BC114" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD114" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="115" spans="28:56" x14ac:dyDescent="0.25">
@@ -17320,44 +17320,44 @@
       </c>
       <c r="AC115" s="26">
         <f t="shared" si="35"/>
-        <v>83.78935784009461</v>
+        <v>114.27107038849091</v>
       </c>
       <c r="AD115" s="26">
         <f t="shared" si="28"/>
-        <v>7.967001959490938E-2</v>
+        <v>4.2793442607775951</v>
       </c>
       <c r="AE115" s="26">
         <f t="shared" si="29"/>
-        <v>0.25917396549999444</v>
+        <v>4.5784168144233348</v>
       </c>
       <c r="AF115" s="26">
         <f t="shared" si="37"/>
-        <v>-0.17950394590508506</v>
+        <v>-0.2990725536457397</v>
       </c>
       <c r="AG115" s="26">
         <f t="shared" si="38"/>
-        <v>-4.881984136675261E-2</v>
+        <v>-5.2768250232704872E-2</v>
       </c>
       <c r="AH115" s="26">
         <f t="shared" si="30"/>
-        <v>6.1450424991406587</v>
+        <v>5.6852368361091692</v>
       </c>
       <c r="AI115" s="26"/>
       <c r="AL115" s="26">
         <f t="shared" si="36"/>
-        <v>449.91913723331186</v>
+        <v>112.47978430832796</v>
       </c>
       <c r="AM115" s="26">
         <f t="shared" si="26"/>
-        <v>9.9604940818469358E-3</v>
+        <v>4.2860936312512665</v>
       </c>
       <c r="AN115" s="26">
         <f t="shared" si="27"/>
-        <v>25.300701004447859</v>
+        <v>4.4914203023962287</v>
       </c>
       <c r="AO115" s="26">
         <f t="shared" si="31"/>
-        <v>-25.290740510366014</v>
+        <v>-0.20532667114496217</v>
       </c>
       <c r="BB115" s="6">
         <f t="shared" si="32"/>
@@ -17365,11 +17365,11 @@
       </c>
       <c r="BC115" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD115" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="116" spans="28:56" x14ac:dyDescent="0.25">
@@ -17378,44 +17378,44 @@
       </c>
       <c r="AC116" s="26">
         <f t="shared" si="35"/>
-        <v>82.686298463744421</v>
+        <v>112.57077208983492</v>
       </c>
       <c r="AD116" s="26">
         <f t="shared" si="28"/>
-        <v>5.7623300446954753E-2</v>
+        <v>4.2857887869589213</v>
       </c>
       <c r="AE116" s="26">
         <f t="shared" si="29"/>
-        <v>0.18372997609215022</v>
+        <v>4.4958392613307332</v>
       </c>
       <c r="AF116" s="26">
         <f t="shared" si="37"/>
-        <v>-0.12610667564519545</v>
+        <v>-0.2100504743718119</v>
       </c>
       <c r="AG116" s="26">
         <f t="shared" si="38"/>
-        <v>-4.7992641514053969E-2</v>
+        <v>-5.1939545042474403E-2</v>
       </c>
       <c r="AH116" s="26">
         <f t="shared" si="30"/>
-        <v>6.250958283097404</v>
+        <v>5.7759458569510018</v>
       </c>
       <c r="AI116" s="26"/>
       <c r="AL116" s="26">
         <f t="shared" si="36"/>
-        <v>526.40539056297484</v>
+        <v>131.60134764074371</v>
       </c>
       <c r="AM116" s="26">
         <f t="shared" si="26"/>
-        <v>2.9897505937943655E-3</v>
+        <v>4.1441927928983278</v>
       </c>
       <c r="AN116" s="26">
         <f t="shared" si="27"/>
-        <v>30.53199517570274</v>
+        <v>5.4200878853399042</v>
       </c>
       <c r="AO116" s="26">
         <f t="shared" si="31"/>
-        <v>-30.529005425108945</v>
+        <v>-1.2758950924415764</v>
       </c>
       <c r="BB116" s="6">
         <f t="shared" si="32"/>
@@ -17423,11 +17423,11 @@
       </c>
       <c r="BC116" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD116" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="117" spans="28:56" x14ac:dyDescent="0.25">
@@ -17436,44 +17436,44 @@
       </c>
       <c r="AC117" s="26">
         <f t="shared" si="35"/>
-        <v>81.898010895066207</v>
+        <v>111.35753192263645</v>
       </c>
       <c r="AD117" s="26">
         <f t="shared" si="28"/>
-        <v>4.130192734441443E-2</v>
+        <v>4.2895113734857038</v>
       </c>
       <c r="AE117" s="26">
         <f t="shared" si="29"/>
-        <v>0.12981487391653171</v>
+        <v>4.4369164214972168</v>
       </c>
       <c r="AF117" s="26">
         <f t="shared" si="37"/>
-        <v>-8.8512946572117279E-2</v>
+        <v>-0.147405048011513</v>
       </c>
       <c r="AG117" s="26">
         <f t="shared" si="38"/>
-        <v>-4.7385916230020517E-2</v>
+        <v>-5.1327104766316863E-2</v>
       </c>
       <c r="AH117" s="26">
         <f t="shared" si="30"/>
-        <v>6.3309950269557147</v>
+        <v>5.8448650350696072</v>
       </c>
       <c r="AI117" s="26"/>
       <c r="AL117" s="26">
         <f t="shared" si="36"/>
-        <v>615.89430695868054</v>
+        <v>153.97357673967014</v>
       </c>
       <c r="AM117" s="26">
         <f t="shared" si="26"/>
-        <v>7.0467760296331916E-4</v>
+        <v>3.8386966497370145</v>
       </c>
       <c r="AN117" s="26">
         <f t="shared" si="27"/>
-        <v>36.652609356070947</v>
+        <v>6.506628957384005</v>
       </c>
       <c r="AO117" s="26">
         <f t="shared" si="31"/>
-        <v>-36.651904678467986</v>
+        <v>-2.6679323076469905</v>
       </c>
       <c r="BB117" s="6">
         <f t="shared" si="32"/>
@@ -17481,11 +17481,11 @@
       </c>
       <c r="BC117" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD117" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="118" spans="28:56" x14ac:dyDescent="0.25">
@@ -17494,44 +17494,44 @@
       </c>
       <c r="AC118" s="26">
         <f t="shared" si="35"/>
-        <v>81.337635870496939</v>
+        <v>110.49596931152121</v>
       </c>
       <c r="AD118" s="26">
         <f t="shared" si="28"/>
-        <v>2.9406049595485786E-2</v>
+        <v>4.2916983996469655</v>
       </c>
       <c r="AE118" s="26">
         <f t="shared" si="29"/>
-        <v>9.1487900478428572E-2</v>
+        <v>4.395073332953161</v>
       </c>
       <c r="AF118" s="26">
         <f t="shared" si="37"/>
-        <v>-6.2081850882942782E-2</v>
+        <v>-0.10337493330619552</v>
       </c>
       <c r="AG118" s="26">
         <f t="shared" si="38"/>
-        <v>-4.6946554858155576E-2</v>
+        <v>-5.0881270409539638E-2</v>
       </c>
       <c r="AH118" s="26">
         <f t="shared" si="30"/>
-        <v>6.3902452673347518</v>
+        <v>5.8960791974202262</v>
       </c>
       <c r="AI118" s="26"/>
       <c r="AL118" s="26">
         <f t="shared" si="36"/>
-        <v>720.59633914165624</v>
+        <v>180.14908478541406</v>
       </c>
       <c r="AM118" s="26">
         <f t="shared" si="26"/>
-        <v>1.2540433715100581E-4</v>
+        <v>3.387975290287919</v>
       </c>
       <c r="AN118" s="26">
         <f t="shared" si="27"/>
-        <v>43.813727947101754</v>
+        <v>7.7778820116756027</v>
       </c>
       <c r="AO118" s="26">
         <f t="shared" si="31"/>
-        <v>-43.813602542764606</v>
+        <v>-4.3899067213876837</v>
       </c>
       <c r="BB118" s="6">
         <f t="shared" si="32"/>
@@ -17539,11 +17539,11 @@
       </c>
       <c r="BC118" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD118" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="119" spans="28:56" x14ac:dyDescent="0.25">
@@ -17552,44 +17552,44 @@
       </c>
       <c r="AC119" s="26">
         <f t="shared" si="35"/>
-        <v>80.940917616704837</v>
+        <v>109.88646251771985</v>
       </c>
       <c r="AD119" s="26">
         <f t="shared" si="28"/>
-        <v>2.0834572505961151E-2</v>
+        <v>4.2930116824306479</v>
       </c>
       <c r="AE119" s="26">
         <f t="shared" si="29"/>
-        <v>6.4354267984389646E-2</v>
+        <v>4.3654717155985958</v>
       </c>
       <c r="AF119" s="26">
         <f t="shared" si="37"/>
-        <v>-4.3519695478428495E-2</v>
+        <v>-7.2460033167947913E-2</v>
       </c>
       <c r="AG119" s="26">
         <f t="shared" si="38"/>
-        <v>-4.6631404046930017E-2</v>
+        <v>-5.0560303897243801E-2</v>
       </c>
       <c r="AH119" s="26">
         <f t="shared" si="30"/>
-        <v>6.4334327076679676</v>
+        <v>5.9335086396969601</v>
       </c>
       <c r="AI119" s="26"/>
       <c r="AL119" s="26">
         <f t="shared" si="36"/>
-        <v>843.09771679573771</v>
+        <v>210.77442919893443</v>
       </c>
       <c r="AM119" s="26">
         <f t="shared" si="26"/>
-        <v>1.6088067906532024E-5</v>
+        <v>2.8300216615702785</v>
       </c>
       <c r="AN119" s="26">
         <f t="shared" si="27"/>
-        <v>52.192236698607786</v>
+        <v>9.2652480851967702</v>
       </c>
       <c r="AO119" s="26">
         <f t="shared" si="31"/>
-        <v>-52.192220610539877</v>
+        <v>-6.4352264236264922</v>
       </c>
       <c r="BB119" s="6">
         <f t="shared" si="32"/>
@@ -17597,11 +17597,11 @@
       </c>
       <c r="BC119" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD119" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="120" spans="28:56" x14ac:dyDescent="0.25">
@@ -17610,44 +17610,44 @@
       </c>
       <c r="AC120" s="26">
         <f t="shared" si="35"/>
-        <v>80.660936584386164</v>
+        <v>109.4565202848851</v>
       </c>
       <c r="AD120" s="26">
         <f t="shared" si="28"/>
-        <v>1.4709731151880501E-2</v>
+        <v>4.2938197085165069</v>
       </c>
       <c r="AE120" s="26">
         <f t="shared" si="29"/>
-        <v>4.5204903508164578E-2</v>
+        <v>4.3445909221597461</v>
       </c>
       <c r="AF120" s="26">
         <f t="shared" si="37"/>
-        <v>-3.0495172356284076E-2</v>
+        <v>-5.0771213643239221E-2</v>
       </c>
       <c r="AG120" s="26">
         <f t="shared" si="38"/>
-        <v>-4.640692002931196E-2</v>
+        <v>-5.0331091992936575E-2</v>
       </c>
       <c r="AH120" s="26">
         <f t="shared" si="30"/>
-        <v>6.4645531272170462</v>
+        <v>5.9605303227297703</v>
       </c>
       <c r="AI120" s="26"/>
       <c r="AL120" s="26">
         <f t="shared" si="36"/>
-        <v>986.42432865101307</v>
+        <v>246.60608216275327</v>
       </c>
       <c r="AM120" s="26">
         <f t="shared" si="26"/>
-        <v>1.4090427823241429E-6</v>
+        <v>2.2191677531888061</v>
       </c>
       <c r="AN120" s="26">
         <f t="shared" si="27"/>
-        <v>61.995091937869852</v>
+        <v>11.005466391216538</v>
       </c>
       <c r="AO120" s="26">
         <f t="shared" si="31"/>
-        <v>-61.99509052882707</v>
+        <v>-8.7862986380277324</v>
       </c>
       <c r="BB120" s="6">
         <f t="shared" si="32"/>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="BC120" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD120" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="121" spans="28:56" x14ac:dyDescent="0.25">
@@ -17668,44 +17668,44 @@
       </c>
       <c r="AC121" s="26">
         <f t="shared" si="35"/>
-        <v>80.463798922565331</v>
+        <v>109.15389692644278</v>
       </c>
       <c r="AD121" s="26">
         <f t="shared" si="28"/>
-        <v>1.0359341175817896E-2</v>
+        <v>4.2943291177197374</v>
       </c>
       <c r="AE121" s="26">
         <f t="shared" si="29"/>
-        <v>3.1721629634450306E-2</v>
+        <v>4.329893562015009</v>
       </c>
       <c r="AF121" s="26">
         <f t="shared" si="37"/>
-        <v>-2.136228845863241E-2</v>
+        <v>-3.5564444295271613E-2</v>
       </c>
       <c r="AG121" s="26">
         <f t="shared" si="38"/>
-        <v>-4.6247824170180543E-2</v>
+        <v>-5.0168354687477969E-2</v>
       </c>
       <c r="AH121" s="26">
         <f t="shared" si="30"/>
-        <v>6.486791657399368</v>
+        <v>5.9798652331502522</v>
       </c>
       <c r="AI121" s="26"/>
       <c r="AL121" s="26">
         <f t="shared" si="36"/>
-        <v>1154.1164645216852</v>
+        <v>288.5291161304213</v>
       </c>
       <c r="AM121" s="26">
         <f t="shared" si="26"/>
-        <v>7.9034480042831027E-8</v>
+        <v>1.6177047196695498</v>
       </c>
       <c r="AN121" s="26">
         <f t="shared" si="27"/>
-        <v>73.464432567806469</v>
+        <v>13.041521809259665</v>
       </c>
       <c r="AO121" s="26">
         <f t="shared" si="31"/>
-        <v>-73.46443248877199</v>
+        <v>-11.423817089590115</v>
       </c>
       <c r="BB121" s="6">
         <f t="shared" si="32"/>
@@ -17713,11 +17713,11 @@
       </c>
       <c r="BC121" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD121" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="122" spans="28:56" x14ac:dyDescent="0.25">
@@ -17726,44 +17726,44 @@
       </c>
       <c r="AC122" s="26">
         <f t="shared" si="35"/>
-        <v>80.325226208008914</v>
+        <v>108.94122634246519</v>
       </c>
       <c r="AD122" s="26">
         <f t="shared" si="28"/>
-        <v>7.2825371731823196E-3</v>
+        <v>4.2946575582303739</v>
       </c>
       <c r="AE122" s="26">
         <f t="shared" si="29"/>
-        <v>2.2243918249771778E-2</v>
+        <v>4.3195648941256586</v>
       </c>
       <c r="AF122" s="26">
         <f t="shared" si="37"/>
-        <v>-1.4961381076589458E-2</v>
+        <v>-2.490733589528471E-2</v>
       </c>
       <c r="AG122" s="26">
         <f t="shared" si="38"/>
-        <v>-4.6135477854434767E-2</v>
+        <v>-5.0053293104033968E-2</v>
       </c>
       <c r="AH122" s="26">
         <f t="shared" si="30"/>
-        <v>6.5025878987652561</v>
+        <v>5.993611636630197</v>
       </c>
       <c r="AI122" s="26"/>
       <c r="AL122" s="26">
         <f t="shared" si="36"/>
-        <v>1350.3162634903715</v>
+        <v>337.57906587259288</v>
       </c>
       <c r="AM122" s="26">
         <f t="shared" si="26"/>
-        <v>2.6340804066322413E-9</v>
+        <v>1.0836205125021952</v>
       </c>
       <c r="AN122" s="26">
         <f t="shared" si="27"/>
-        <v>86.883561104832296</v>
+        <v>15.423706648370123</v>
       </c>
       <c r="AO122" s="26">
         <f t="shared" si="31"/>
-        <v>-86.883561102198215</v>
+        <v>-14.340086135867928</v>
       </c>
       <c r="BB122" s="6">
         <f t="shared" si="32"/>
@@ -17771,11 +17771,11 @@
       </c>
       <c r="BC122" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD122" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="123" spans="28:56" x14ac:dyDescent="0.25">
@@ -17784,44 +17784,44 @@
       </c>
       <c r="AC123" s="26">
         <f t="shared" si="35"/>
-        <v>80.227938512471468</v>
+        <v>108.79194144420575</v>
       </c>
       <c r="AD123" s="26">
         <f t="shared" si="28"/>
-        <v>5.1130906417850607E-3</v>
+        <v>4.2948734616879998</v>
       </c>
       <c r="AE123" s="26">
         <f t="shared" si="29"/>
-        <v>1.5589904849399315E-2</v>
+        <v>4.3123146477296661</v>
       </c>
       <c r="AF123" s="26">
         <f t="shared" si="37"/>
-        <v>-1.0476814207614253E-2</v>
+        <v>-1.7441186041666334E-2</v>
       </c>
       <c r="AG123" s="26">
         <f t="shared" si="38"/>
-        <v>-4.6056348454639379E-2</v>
+        <v>-4.9972180270766997E-2</v>
       </c>
       <c r="AH123" s="26">
         <f t="shared" si="30"/>
-        <v>6.5137599932714636</v>
+        <v>6.0033402259916135</v>
       </c>
       <c r="AI123" s="26"/>
       <c r="AL123" s="26">
         <f t="shared" si="36"/>
-        <v>1579.8700282837347</v>
+        <v>394.96750707093366</v>
       </c>
       <c r="AM123" s="26">
         <f t="shared" si="26"/>
-        <v>4.7776526221235342E-11</v>
+        <v>0.65790992479547783</v>
       </c>
       <c r="AN123" s="26">
         <f t="shared" si="27"/>
-        <v>102.58394149315254</v>
+        <v>18.210862910129361</v>
       </c>
       <c r="AO123" s="26">
         <f t="shared" si="31"/>
-        <v>-102.58394149310476</v>
+        <v>-17.552952985333881</v>
       </c>
       <c r="BB123" s="6">
         <f t="shared" si="32"/>
@@ -17829,11 +17829,11 @@
       </c>
       <c r="BC123" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD123" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="124" spans="28:56" x14ac:dyDescent="0.25">
@@ -17842,44 +17842,44 @@
       </c>
       <c r="AC124" s="26">
         <f t="shared" si="35"/>
-        <v>80.159695059228966</v>
+        <v>108.68723607045281</v>
       </c>
       <c r="AD124" s="26">
         <f t="shared" si="28"/>
-        <v>3.5867112028274135E-3</v>
+        <v>4.2950176569186258</v>
       </c>
       <c r="AE124" s="26">
         <f t="shared" si="29"/>
-        <v>1.0922378808672818E-2</v>
+        <v>4.3072294732241119</v>
       </c>
       <c r="AF124" s="26">
         <f t="shared" si="37"/>
-        <v>-7.3356676058454039E-3</v>
+        <v>-1.2211816305486067E-2</v>
       </c>
       <c r="AG124" s="26">
         <f t="shared" si="38"/>
-        <v>-4.6000716744641165E-2</v>
+        <v>-4.9915119161814334E-2</v>
       </c>
       <c r="AH124" s="26">
         <f t="shared" si="30"/>
-        <v>6.5216375141578284</v>
+        <v>6.0102030214024529</v>
       </c>
       <c r="AI124" s="26"/>
       <c r="AL124" s="26">
         <f t="shared" si="36"/>
-        <v>1848.4479330919694</v>
+        <v>462.11198327299235</v>
       </c>
       <c r="AM124" s="26">
         <f t="shared" si="26"/>
-        <v>4.2549301505171795E-13</v>
+        <v>0.35624404038847479</v>
       </c>
       <c r="AN124" s="26">
         <f t="shared" si="27"/>
-        <v>120.9533865474872</v>
+        <v>21.471835736387668</v>
       </c>
       <c r="AO124" s="26">
         <f t="shared" si="31"/>
-        <v>-120.95338654748677</v>
+        <v>-21.115591695999193</v>
       </c>
       <c r="BB124" s="6">
         <f t="shared" si="32"/>
@@ -17887,11 +17887,11 @@
       </c>
       <c r="BC124" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD124" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="125" spans="28:56" x14ac:dyDescent="0.25">
@@ -17900,44 +17900,44 @@
       </c>
       <c r="AC125" s="26">
         <f t="shared" si="35"/>
-        <v>80.111854494179298</v>
+        <v>108.61384057519676</v>
       </c>
       <c r="AD125" s="26">
         <f t="shared" si="28"/>
-        <v>2.5144113310208781E-3</v>
+        <v>4.2951151683111704</v>
       </c>
       <c r="AE125" s="26">
         <f t="shared" si="29"/>
-        <v>7.6503128072805101E-3</v>
+        <v>4.3036649102229871</v>
       </c>
       <c r="AF125" s="26">
         <f t="shared" si="37"/>
-        <v>-5.1359014762596324E-3</v>
+        <v>-8.5497419118167883E-3</v>
       </c>
       <c r="AG125" s="26">
         <f t="shared" si="38"/>
-        <v>-4.5961655519592803E-2</v>
+        <v>-4.9875037112748558E-2</v>
       </c>
       <c r="AH125" s="26">
         <f t="shared" si="30"/>
-        <v>6.5271800288419604</v>
+        <v>6.0150331181070342</v>
       </c>
       <c r="AI125" s="26"/>
       <c r="AL125" s="26">
         <f t="shared" si="36"/>
-        <v>2162.6840817176039</v>
+        <v>540.67102042940098</v>
       </c>
       <c r="AM125" s="26">
         <f t="shared" si="26"/>
-        <v>1.6494776522837572E-15</v>
+        <v>0.16879845788243658</v>
       </c>
       <c r="AN125" s="26">
         <f t="shared" si="27"/>
-        <v>142.44563726105875</v>
+        <v>25.287173943109885</v>
       </c>
       <c r="AO125" s="26">
         <f t="shared" si="31"/>
-        <v>-142.44563726105875</v>
+        <v>-25.11837548522745</v>
       </c>
       <c r="BB125" s="6">
         <f t="shared" si="32"/>
@@ -17945,11 +17945,11 @@
       </c>
       <c r="BC125" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD125" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="126" spans="28:56" x14ac:dyDescent="0.25">
@@ -17958,44 +17958,44 @@
       </c>
       <c r="AC126" s="26">
         <f t="shared" si="35"/>
-        <v>80.078331540633357</v>
+        <v>108.56241359444591</v>
       </c>
       <c r="AD126" s="26">
         <f t="shared" si="28"/>
-        <v>1.7619127508232701E-3</v>
+        <v>4.2951817388741835</v>
       </c>
       <c r="AE126" s="26">
         <f t="shared" si="29"/>
-        <v>5.3575030035073797E-3</v>
+        <v>4.3011672812853456</v>
       </c>
       <c r="AF126" s="26">
         <f t="shared" si="37"/>
-        <v>-3.5955902526841098E-3</v>
+        <v>-5.9855424111621147E-3</v>
       </c>
       <c r="AG126" s="26">
         <f t="shared" si="38"/>
-        <v>-4.5934254035215491E-2</v>
+        <v>-4.9846911077160411E-2</v>
       </c>
       <c r="AH126" s="26">
         <f t="shared" si="30"/>
-        <v>6.5310737335585118</v>
+        <v>6.0184270904091868</v>
       </c>
       <c r="AI126" s="26"/>
       <c r="AL126" s="26">
         <f t="shared" si="36"/>
-        <v>2530.3403756095963</v>
+        <v>632.58509390239908</v>
       </c>
       <c r="AM126" s="26">
         <f t="shared" si="26"/>
-        <v>2.4173204453449988E-18</v>
+        <v>6.8444963652294452E-2</v>
       </c>
       <c r="AN126" s="26">
         <f t="shared" si="27"/>
-        <v>167.59157059593747</v>
+        <v>29.751119644974878</v>
       </c>
       <c r="AO126" s="26">
         <f t="shared" si="31"/>
-        <v>-167.59157059593747</v>
+        <v>-29.682674681322585</v>
       </c>
       <c r="BB126" s="6">
         <f t="shared" si="32"/>
@@ -18003,11 +18003,11 @@
       </c>
       <c r="BC126" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD126" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="127" spans="28:56" x14ac:dyDescent="0.25">
@@ -18016,44 +18016,44 @@
       </c>
       <c r="AC127" s="26">
         <f t="shared" si="35"/>
-        <v>80.054848475577415</v>
+        <v>108.52639004384778</v>
       </c>
       <c r="AD127" s="26">
         <f t="shared" si="28"/>
-        <v>1.2342348819465885E-3</v>
+        <v>4.2952275083158078</v>
       </c>
       <c r="AE127" s="26">
         <f t="shared" si="29"/>
-        <v>3.7513735880571899E-3</v>
+        <v>4.2994177431810892</v>
       </c>
       <c r="AF127" s="26">
         <f t="shared" si="37"/>
-        <v>-2.5171387061106013E-3</v>
+        <v>-4.1902348652813615E-3</v>
       </c>
       <c r="AG127" s="26">
         <f t="shared" si="38"/>
-        <v>-4.5915044164251337E-2</v>
+        <v>-4.9827189114053629E-2</v>
       </c>
       <c r="AH127" s="26">
         <f t="shared" si="30"/>
-        <v>6.5338061949110529</v>
+        <v>6.0208092275344862</v>
       </c>
       <c r="AI127" s="26"/>
       <c r="AL127" s="26">
         <f t="shared" si="36"/>
-        <v>2960.4982394632275</v>
+        <v>740.12455986580687</v>
       </c>
       <c r="AM127" s="26">
         <f t="shared" si="26"/>
-        <v>1.1354698449643751E-21</v>
+        <v>2.3136922923765596E-2</v>
       </c>
       <c r="AN127" s="26">
         <f t="shared" si="27"/>
-        <v>197.01231259774556</v>
+        <v>34.973936116156921</v>
       </c>
       <c r="AO127" s="26">
         <f t="shared" si="31"/>
-        <v>-197.01231259774556</v>
+        <v>-34.950799193233152</v>
       </c>
       <c r="BB127" s="6">
         <f t="shared" si="32"/>
@@ -18061,11 +18061,11 @@
       </c>
       <c r="BC127" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD127" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="128" spans="28:56" x14ac:dyDescent="0.25">
@@ -18074,44 +18074,44 @@
       </c>
       <c r="AC128" s="26">
         <f t="shared" si="35"/>
-        <v>80.038401979105984</v>
+        <v>108.50116143910536</v>
       </c>
       <c r="AD128" s="26">
         <f t="shared" si="28"/>
-        <v>8.6440405364153722E-4</v>
+        <v>4.2952591391721446</v>
       </c>
       <c r="AE128" s="26">
         <f t="shared" si="29"/>
-        <v>2.6265118333868836E-3</v>
+        <v>4.2981924779148608</v>
       </c>
       <c r="AF128" s="26">
         <f t="shared" si="37"/>
-        <v>-1.7621077797453464E-3</v>
+        <v>-2.9333387427161739E-3</v>
       </c>
       <c r="AG128" s="26">
         <f t="shared" si="38"/>
-        <v>-4.5901583090827355E-2</v>
+        <v>-4.9813367165545339E-2</v>
       </c>
       <c r="AH128" s="26">
         <f t="shared" si="30"/>
-        <v>6.535722295380916</v>
+        <v>6.0224798496958964</v>
       </c>
       <c r="AI128" s="26"/>
       <c r="AL128" s="26">
         <f t="shared" si="36"/>
-        <v>3463.782940171976</v>
+        <v>865.94573504299399</v>
       </c>
       <c r="AM128" s="26">
         <f t="shared" si="26"/>
-        <v>1.4092326613910317E-25</v>
+        <v>6.323336311406566E-3</v>
       </c>
       <c r="AN128" s="26">
         <f t="shared" si="27"/>
-        <v>231.43458073986102</v>
+        <v>41.084631387439913</v>
       </c>
       <c r="AO128" s="26">
         <f t="shared" si="31"/>
-        <v>-231.43458073986102</v>
+        <v>-41.078308051128509</v>
       </c>
       <c r="BB128" s="6">
         <f t="shared" si="32"/>
@@ -18119,11 +18119,11 @@
       </c>
       <c r="BC128" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD128" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="129" spans="28:56" x14ac:dyDescent="0.25">
@@ -18132,44 +18132,44 @@
       </c>
       <c r="AC129" s="26">
         <f t="shared" si="35"/>
-        <v>80.026885332003033</v>
+        <v>108.48349546563502</v>
       </c>
       <c r="AD129" s="26">
         <f t="shared" si="28"/>
-        <v>6.0529847165705477E-4</v>
+        <v>4.2952810806022388</v>
       </c>
       <c r="AE129" s="26">
         <f t="shared" si="29"/>
-        <v>1.8388282139213405E-3</v>
+        <v>4.2973345032504549</v>
       </c>
       <c r="AF129" s="26">
         <f t="shared" si="37"/>
-        <v>-1.2335297422642858E-3</v>
+        <v>-2.0534226482160634E-3</v>
       </c>
       <c r="AG129" s="26">
         <f t="shared" si="38"/>
-        <v>-4.5892153386759116E-2</v>
+        <v>-4.9803683665493099E-2</v>
       </c>
       <c r="AH129" s="26">
         <f t="shared" si="30"/>
-        <v>6.5370652248921601</v>
+        <v>6.0236508209905262</v>
       </c>
       <c r="AI129" s="26"/>
       <c r="AL129" s="26">
         <f t="shared" si="36"/>
-        <v>4052.6260400012115</v>
+        <v>1013.1565100003029</v>
       </c>
       <c r="AM129" s="26">
         <f t="shared" si="26"/>
-        <v>3.6862804883325885E-30</v>
+        <v>1.3479297336476798E-3</v>
       </c>
       <c r="AN129" s="26">
         <f t="shared" si="27"/>
-        <v>271.70863446613612</v>
+        <v>48.234144854841013</v>
       </c>
       <c r="AO129" s="26">
         <f t="shared" si="31"/>
-        <v>-271.70863446613612</v>
+        <v>-48.232796925107365</v>
       </c>
       <c r="BB129" s="6">
         <f t="shared" si="32"/>
@@ -18177,11 +18177,11 @@
       </c>
       <c r="BC129" s="26">
         <f t="shared" si="33"/>
-        <v>0.27392661286054204</v>
+        <v>20.11346229511291</v>
       </c>
       <c r="BD129" s="26">
         <f t="shared" si="34"/>
-        <v>21.844027389503744</v>
+        <v>187.17981622667179</v>
       </c>
     </row>
     <row r="130" spans="28:56" x14ac:dyDescent="0.25">

--- a/BatteryHazardCalculator_v2.xlsx
+++ b/BatteryHazardCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmrose\Documents\DCArcFlash\ArcModelValidation\ArcFlashCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AB581-8546-4E9E-9D34-374A747C16C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398DD49-9B55-4B81-BD6C-1C96EF1623DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4320" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{D4F21237-859F-409A-8BDE-62C477E4C1D5}"/>
+    <workbookView xWindow="-16320" yWindow="-4320" windowWidth="16440" windowHeight="28320" xr2:uid="{D4F21237-859F-409A-8BDE-62C477E4C1D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Max Power" sheetId="1" r:id="rId1"/>
@@ -10159,8 +10159,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A7:Y63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10200,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -10212,7 +10212,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29">
-        <v>10000</v>
+        <v>2400</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="B13" s="13">
         <f>B11/B12</f>
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B20" s="8">
         <f>B16*0.01*B11*(B12/2)*B14/((B15)^2)</f>
-        <v>23.919800926021605</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B21" s="8">
         <f>Y63</f>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B22" s="16">
         <f>(B11^2)/(2*B13)</f>
-        <v>2500000</v>
+        <v>604800</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="14">
-        <v>6.6660000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>16</v>
@@ -10398,7 +10398,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="10">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -10420,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="10">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>19</v>
@@ -10431,7 +10431,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>19</v>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B34" s="34">
         <f>(B29*B30+B31*B32)/B33</f>
-        <v>0.13572000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>16</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B35" s="15">
         <f>B11/B34</f>
-        <v>3684.0554081933392</v>
+        <v>2400</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -10497,12 +10497,12 @@
         <v>1</v>
       </c>
       <c r="X38" s="6">
-        <f>B30</f>
-        <v>20</v>
+        <f>B20</f>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y38" s="26">
         <f>$B$15*SQRT(X38/1.2)</f>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="X39" s="26">
         <f>X38/W38*W39</f>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y39" s="26">
         <f>$B$15*SQRT(X39/1.2)</f>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -10539,11 +10539,11 @@
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40:X63" si="1">X39/W39*W40</f>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40:Y63" si="2">$B$15*SQRT(X40/1.2)</f>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -10554,11 +10554,11 @@
       </c>
       <c r="X41" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y41" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -10568,11 +10568,11 @@
       </c>
       <c r="X42" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y42" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -10582,11 +10582,11 @@
       </c>
       <c r="X43" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y43" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -10596,11 +10596,11 @@
       </c>
       <c r="X44" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y44" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -10610,11 +10610,11 @@
       </c>
       <c r="X45" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y45" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -10624,11 +10624,11 @@
       </c>
       <c r="X46" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y46" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -10638,11 +10638,11 @@
       </c>
       <c r="X47" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y47" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -10652,11 +10652,11 @@
       </c>
       <c r="X48" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y48" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="49" spans="23:25" x14ac:dyDescent="0.25">
@@ -10666,11 +10666,11 @@
       </c>
       <c r="X49" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y49" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="50" spans="23:25" x14ac:dyDescent="0.25">
@@ -10680,11 +10680,11 @@
       </c>
       <c r="X50" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y50" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="51" spans="23:25" x14ac:dyDescent="0.25">
@@ -10694,11 +10694,11 @@
       </c>
       <c r="X51" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y51" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="52" spans="23:25" x14ac:dyDescent="0.25">
@@ -10708,11 +10708,11 @@
       </c>
       <c r="X52" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y52" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="53" spans="23:25" x14ac:dyDescent="0.25">
@@ -10722,11 +10722,11 @@
       </c>
       <c r="X53" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y53" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="54" spans="23:25" x14ac:dyDescent="0.25">
@@ -10736,11 +10736,11 @@
       </c>
       <c r="X54" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y54" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="55" spans="23:25" x14ac:dyDescent="0.25">
@@ -10750,11 +10750,11 @@
       </c>
       <c r="X55" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y55" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="56" spans="23:25" x14ac:dyDescent="0.25">
@@ -10764,11 +10764,11 @@
       </c>
       <c r="X56" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y56" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="57" spans="23:25" x14ac:dyDescent="0.25">
@@ -10778,11 +10778,11 @@
       </c>
       <c r="X57" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y57" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="58" spans="23:25" x14ac:dyDescent="0.25">
@@ -10792,11 +10792,11 @@
       </c>
       <c r="X58" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y58" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="59" spans="23:25" x14ac:dyDescent="0.25">
@@ -10806,11 +10806,11 @@
       </c>
       <c r="X59" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y59" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="60" spans="23:25" x14ac:dyDescent="0.25">
@@ -10820,11 +10820,11 @@
       </c>
       <c r="X60" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y60" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="61" spans="23:25" x14ac:dyDescent="0.25">
@@ -10834,11 +10834,11 @@
       </c>
       <c r="X61" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y61" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="62" spans="23:25" x14ac:dyDescent="0.25">
@@ -10848,11 +10848,11 @@
       </c>
       <c r="X62" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y62" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
     <row r="63" spans="23:25" x14ac:dyDescent="0.25">
@@ -10862,11 +10862,11 @@
       </c>
       <c r="X63" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5.7866782400231465</v>
       </c>
       <c r="Y63" s="26">
         <f t="shared" si="2"/>
-        <v>186.65111840007819</v>
+        <v>100.39920318408907</v>
       </c>
     </row>
   </sheetData>
@@ -10998,7 +10998,7 @@
   <dimension ref="A2:AC63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12693,8 +12693,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A7:BD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC74" sqref="BC74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15091,7 +15091,7 @@
         <v>293.47072754061014</v>
       </c>
       <c r="AD74" s="26">
-        <f t="shared" ref="AD73:AD98" si="16">IF(B$20="Inline",0.5*B$23*($AC74-$B$16)/EXP(B$23*($AC74-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
+        <f t="shared" ref="AD74:AD97" si="16">IF(B$20="Inline",0.5*B$23*($AC74-$B$16)/EXP(B$23*($AC74-$B$37)),0.5*B$23/EXP(B$23*B$40))</f>
         <v>2.7975907561814335</v>
       </c>
       <c r="AE74" s="26">
